--- a/Intermodal transportation/cu70101-AM-transportation model calculator.xlsx
+++ b/Intermodal transportation/cu70101-AM-transportation model calculator.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Zoeli/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Zoeli/Desktop/校内/HZ/Dew-IT/Intermodal transportation/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PLANNING sheet" sheetId="1" r:id="rId1"/>
@@ -38,6 +38,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>R. Boot</author>
+    <author>李 文华</author>
   </authors>
   <commentList>
     <comment ref="N8" authorId="0">
@@ -209,6 +210,24 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L15" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">Zoe:
+done for version1
+need to check if anything missing
 </t>
         </r>
       </text>
@@ -1221,7 +1240,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ [$€-413]\ * #,##0_ ;_ [$€-413]\ * \-#,##0_ ;_ [$€-413]\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1298,6 +1317,28 @@
       <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="12">
@@ -2092,10 +2133,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="267">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2262,7 +2307,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2429,11 +2473,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="千位分隔" xfId="2" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2748,7 +2797,7 @@
   <dimension ref="A1:BE146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -2782,7 +2831,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="122" t="s">
         <v>149</v>
       </c>
       <c r="B1" s="97"/>
@@ -2801,25 +2850,25 @@
       <c r="O1" s="19"/>
     </row>
     <row r="2" spans="1:47" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="177"/>
+      <c r="A2" s="176"/>
       <c r="B2" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="I2" s="161" t="s">
+      <c r="I2" s="160" t="s">
         <v>162</v>
       </c>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="161"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
     </row>
     <row r="3" spans="1:47" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="175"/>
+      <c r="A3" s="174"/>
       <c r="B3" s="27" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:47" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="176"/>
+      <c r="A4" s="175"/>
       <c r="B4" s="27" t="s">
         <v>172</v>
       </c>
@@ -2842,18 +2891,18 @@
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
-      <c r="H6" s="159"/>
-      <c r="I6" s="159"/>
-      <c r="J6" s="264"/>
-      <c r="K6" s="264"/>
-      <c r="L6" s="264"/>
-      <c r="M6" s="160" t="s">
+      <c r="H6" s="158"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="263"/>
+      <c r="K6" s="263"/>
+      <c r="L6" s="263"/>
+      <c r="M6" s="159" t="s">
         <v>211</v>
       </c>
-      <c r="N6" s="160" t="s">
+      <c r="N6" s="159" t="s">
         <v>58</v>
       </c>
-      <c r="O6" s="159"/>
+      <c r="O6" s="158"/>
       <c r="P6" s="26"/>
     </row>
     <row r="7" spans="1:47" ht="16" x14ac:dyDescent="0.2">
@@ -2865,68 +2914,68 @@
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
-      <c r="J7" s="264"/>
-      <c r="K7" s="264"/>
-      <c r="L7" s="264"/>
-      <c r="M7" s="160" t="s">
+      <c r="J7" s="263"/>
+      <c r="K7" s="263"/>
+      <c r="L7" s="263"/>
+      <c r="M7" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="N7" s="160" t="s">
+      <c r="N7" s="159" t="s">
         <v>57</v>
       </c>
-      <c r="O7" s="162"/>
+      <c r="O7" s="161"/>
       <c r="P7" s="26"/>
     </row>
     <row r="8" spans="1:47" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
-      <c r="E8" s="254" t="s">
+      <c r="E8" s="253" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="255"/>
-      <c r="G8" s="265">
+      <c r="F8" s="254"/>
+      <c r="G8" s="264">
         <v>70</v>
       </c>
-      <c r="H8" s="265">
+      <c r="H8" s="264">
         <v>70</v>
       </c>
-      <c r="I8" s="265">
+      <c r="I8" s="264">
         <v>70</v>
       </c>
-      <c r="J8" s="265">
+      <c r="J8" s="264">
         <v>70</v>
       </c>
-      <c r="K8" s="265">
+      <c r="K8" s="264">
         <v>70</v>
       </c>
-      <c r="L8" s="265">
+      <c r="L8" s="264">
         <v>70</v>
       </c>
       <c r="M8" s="30"/>
-      <c r="N8" s="266">
+      <c r="N8" s="265">
         <f>SUM(G8:M8)</f>
         <v>420</v>
       </c>
-      <c r="O8" s="255" t="s">
+      <c r="O8" s="254" t="s">
         <v>210</v>
       </c>
-      <c r="P8" s="256" t="s">
+      <c r="P8" s="255" t="s">
         <v>60</v>
       </c>
-      <c r="U8" s="173" t="s">
+      <c r="U8" s="172" t="s">
         <v>157</v>
       </c>
-      <c r="V8" s="173"/>
-      <c r="W8" s="173"/>
-      <c r="X8" s="173" t="s">
+      <c r="V8" s="172"/>
+      <c r="W8" s="172"/>
+      <c r="X8" s="172" t="s">
         <v>164</v>
       </c>
-      <c r="Y8" s="173"/>
-      <c r="Z8" s="173"/>
-      <c r="AA8" s="173"/>
-      <c r="AB8" s="173"/>
-      <c r="AC8" s="173"/>
+      <c r="Y8" s="172"/>
+      <c r="Z8" s="172"/>
+      <c r="AA8" s="172"/>
+      <c r="AB8" s="172"/>
+      <c r="AC8" s="172"/>
     </row>
     <row r="9" spans="1:47" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="26"/>
@@ -2959,11 +3008,11 @@
       </c>
       <c r="L9" s="30">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="M9" s="30">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="N9" s="30">
         <f t="shared" si="0"/>
@@ -2971,19 +3020,19 @@
       </c>
       <c r="O9" s="26"/>
       <c r="P9" s="26"/>
-      <c r="U9" s="172" t="s">
+      <c r="U9" s="171" t="s">
         <v>117</v>
       </c>
-      <c r="V9" s="172"/>
-      <c r="W9" s="172"/>
-      <c r="X9" s="172" t="s">
+      <c r="V9" s="171"/>
+      <c r="W9" s="171"/>
+      <c r="X9" s="171" t="s">
         <v>159</v>
       </c>
-      <c r="Y9" s="172"/>
-      <c r="Z9" s="172"/>
-      <c r="AA9" s="172"/>
-      <c r="AB9" s="172"/>
-      <c r="AC9" s="172"/>
+      <c r="Y9" s="171"/>
+      <c r="Z9" s="171"/>
+      <c r="AA9" s="171"/>
+      <c r="AB9" s="171"/>
+      <c r="AC9" s="171"/>
     </row>
     <row r="10" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="26"/>
@@ -3000,19 +3049,19 @@
       <c r="P10" s="26"/>
       <c r="Q10" s="26"/>
       <c r="R10" s="26"/>
-      <c r="U10" s="174" t="s">
+      <c r="U10" s="173" t="s">
         <v>160</v>
       </c>
-      <c r="V10" s="174"/>
-      <c r="W10" s="174"/>
-      <c r="X10" s="174" t="s">
+      <c r="V10" s="173"/>
+      <c r="W10" s="173"/>
+      <c r="X10" s="173" t="s">
         <v>161</v>
       </c>
-      <c r="Y10" s="174"/>
-      <c r="Z10" s="174"/>
-      <c r="AA10" s="174"/>
-      <c r="AB10" s="174"/>
-      <c r="AC10" s="174"/>
+      <c r="Y10" s="173"/>
+      <c r="Z10" s="173"/>
+      <c r="AA10" s="173"/>
+      <c r="AB10" s="173"/>
+      <c r="AC10" s="173"/>
     </row>
     <row r="11" spans="1:47" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
@@ -3036,26 +3085,26 @@
       <c r="J11" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="K11" s="186" t="s">
+      <c r="K11" s="185" t="s">
         <v>221</v>
       </c>
-      <c r="L11" s="186" t="s">
+      <c r="L11" s="185" t="s">
         <v>222</v>
       </c>
       <c r="M11" s="34"/>
       <c r="N11" s="55"/>
       <c r="R11" s="26"/>
       <c r="U11" s="1"/>
-      <c r="V11" s="170"/>
-      <c r="W11" s="170"/>
-      <c r="X11" s="167"/>
-      <c r="Y11" s="167" t="s">
+      <c r="V11" s="169"/>
+      <c r="W11" s="169"/>
+      <c r="X11" s="166"/>
+      <c r="Y11" s="166" t="s">
         <v>153</v>
       </c>
-      <c r="Z11" s="167"/>
-      <c r="AA11" s="167"/>
-      <c r="AB11" s="167"/>
-      <c r="AC11" s="167"/>
+      <c r="Z11" s="166"/>
+      <c r="AA11" s="166"/>
+      <c r="AB11" s="166"/>
+      <c r="AC11" s="166"/>
     </row>
     <row r="12" spans="1:47" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
@@ -3086,10 +3135,14 @@
       <c r="J12" s="42">
         <v>4</v>
       </c>
-      <c r="K12" s="185"/>
-      <c r="L12" s="185"/>
+      <c r="K12" s="184">
+        <v>5</v>
+      </c>
+      <c r="L12" s="184">
+        <v>6</v>
+      </c>
       <c r="M12" s="43">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N12" s="44"/>
       <c r="O12" s="26" t="s">
@@ -3113,7 +3166,7 @@
       <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="1:47" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="164" t="s">
+      <c r="A13" s="163" t="s">
         <v>129</v>
       </c>
       <c r="B13" s="103" t="s">
@@ -3123,11 +3176,11 @@
         <v>67</v>
       </c>
       <c r="D13" s="47"/>
-      <c r="E13" s="188" t="s">
+      <c r="E13" s="187" t="s">
         <v>194</v>
       </c>
-      <c r="F13" s="180"/>
-      <c r="G13" s="251" t="s">
+      <c r="F13" s="179"/>
+      <c r="G13" s="250" t="s">
         <v>195</v>
       </c>
       <c r="H13" s="1"/>
@@ -3139,87 +3192,87 @@
         <v>209</v>
       </c>
       <c r="N13" s="31"/>
-      <c r="O13" s="178" t="s">
+      <c r="O13" s="177" t="s">
         <v>196</v>
       </c>
-      <c r="P13" s="179"/>
-      <c r="Q13" s="178"/>
-      <c r="R13" s="178"/>
-      <c r="U13" s="169" t="s">
+      <c r="P13" s="178"/>
+      <c r="Q13" s="177"/>
+      <c r="R13" s="177"/>
+      <c r="U13" s="168" t="s">
         <v>150</v>
       </c>
-      <c r="V13" s="168">
+      <c r="V13" s="167">
         <v>1</v>
       </c>
-      <c r="W13" s="168">
+      <c r="W13" s="167">
         <v>2</v>
       </c>
-      <c r="X13" s="157">
+      <c r="X13" s="156">
         <v>3</v>
       </c>
-      <c r="Y13" s="171">
+      <c r="Y13" s="170">
         <v>4</v>
       </c>
-      <c r="Z13" s="158">
+      <c r="Z13" s="157">
         <v>5</v>
       </c>
-      <c r="AA13" s="168">
+      <c r="AA13" s="167">
         <v>6</v>
       </c>
-      <c r="AB13" s="168">
+      <c r="AB13" s="167">
         <v>7</v>
       </c>
-      <c r="AC13" s="168">
+      <c r="AC13" s="167">
         <v>8</v>
       </c>
-      <c r="AD13" s="181" t="s">
+      <c r="AD13" s="180" t="s">
         <v>197</v>
       </c>
-      <c r="AE13" s="182" t="s">
+      <c r="AE13" s="181" t="s">
         <v>198</v>
       </c>
-      <c r="AF13" s="192" t="s">
+      <c r="AF13" s="191" t="s">
         <v>171</v>
       </c>
-      <c r="AG13" s="179" t="s">
+      <c r="AG13" s="178" t="s">
         <v>136</v>
       </c>
-      <c r="AH13" s="183"/>
-      <c r="AI13" s="183"/>
-      <c r="AJ13" s="174" t="s">
+      <c r="AH13" s="182"/>
+      <c r="AI13" s="182"/>
+      <c r="AJ13" s="173" t="s">
         <v>190</v>
       </c>
-      <c r="AK13" s="174"/>
-      <c r="AL13" s="174"/>
-      <c r="AM13" s="174"/>
-      <c r="AN13" s="174"/>
-      <c r="AO13" s="174"/>
-      <c r="AP13" s="174"/>
-      <c r="AQ13" s="174"/>
-      <c r="AR13" s="174"/>
-      <c r="AS13" s="174"/>
+      <c r="AK13" s="173"/>
+      <c r="AL13" s="173"/>
+      <c r="AM13" s="173"/>
+      <c r="AN13" s="173"/>
+      <c r="AO13" s="173"/>
+      <c r="AP13" s="173"/>
+      <c r="AQ13" s="173"/>
+      <c r="AR13" s="173"/>
+      <c r="AS13" s="173"/>
     </row>
     <row r="14" spans="1:47" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="163">
+      <c r="A14" s="162">
         <v>1</v>
       </c>
       <c r="B14" s="49">
         <v>43348</v>
       </c>
       <c r="C14" s="50"/>
-      <c r="D14" s="187"/>
-      <c r="E14" s="214" t="s">
+      <c r="D14" s="186"/>
+      <c r="E14" s="213" t="s">
         <v>165</v>
       </c>
-      <c r="F14" s="257"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="121"/>
-      <c r="J14" s="121"/>
-      <c r="K14" s="121"/>
-      <c r="L14" s="121"/>
+      <c r="F14" s="256"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="120"/>
+      <c r="L14" s="120"/>
       <c r="M14" s="53">
-        <f>SUM(G14:K14)</f>
+        <f>SUM(G14:L14)</f>
         <v>0</v>
       </c>
       <c r="N14" s="54"/>
@@ -3229,7 +3282,7 @@
       <c r="P14" s="26"/>
       <c r="Q14" s="26"/>
       <c r="R14" s="26"/>
-      <c r="U14" s="206">
+      <c r="U14" s="205">
         <v>0</v>
       </c>
       <c r="V14" s="12">
@@ -3260,11 +3313,11 @@
         <v>2</v>
       </c>
       <c r="AE14" s="6"/>
-      <c r="AF14" s="203">
+      <c r="AF14" s="202">
         <f>U14</f>
         <v>0</v>
       </c>
-      <c r="AG14" s="204" t="s">
+      <c r="AG14" s="203" t="s">
         <v>192</v>
       </c>
       <c r="AH14" s="9"/>
@@ -3278,35 +3331,35 @@
       <c r="AP14" s="9"/>
     </row>
     <row r="15" spans="1:47" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="184"/>
+      <c r="A15" s="183"/>
       <c r="B15" s="56"/>
       <c r="C15" s="57"/>
-      <c r="D15" s="189"/>
-      <c r="E15" s="215" t="s">
+      <c r="D15" s="188"/>
+      <c r="E15" s="214" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="205"/>
-      <c r="G15" s="121">
+      <c r="F15" s="204"/>
+      <c r="G15" s="266">
         <v>2.5</v>
       </c>
-      <c r="H15" s="121">
+      <c r="H15" s="266">
         <v>2.5</v>
       </c>
-      <c r="I15" s="121">
+      <c r="I15" s="266">
         <v>2.5</v>
       </c>
-      <c r="J15" s="121">
+      <c r="J15" s="266">
         <v>2.5</v>
       </c>
-      <c r="K15" s="121">
+      <c r="K15" s="266">
         <v>2.5</v>
       </c>
-      <c r="L15" s="121">
-        <v>2.5</v>
-      </c>
-      <c r="M15" s="34">
-        <f>SUM(G15:K15)</f>
-        <v>12.5</v>
+      <c r="L15" s="266">
+        <v>4</v>
+      </c>
+      <c r="M15" s="53">
+        <f t="shared" ref="M15:M17" si="1">SUM(G15:L15)</f>
+        <v>16.5</v>
       </c>
       <c r="N15" s="31"/>
       <c r="O15" s="26" t="s">
@@ -3315,7 +3368,7 @@
       <c r="P15" s="26"/>
       <c r="Q15" s="26"/>
       <c r="R15" s="26"/>
-      <c r="U15" s="207">
+      <c r="U15" s="206">
         <v>1</v>
       </c>
       <c r="V15" s="1">
@@ -3332,11 +3385,11 @@
         <v>1</v>
       </c>
       <c r="AE15" s="6"/>
-      <c r="AF15" s="203">
-        <f t="shared" ref="AF15:AF73" si="1">U15</f>
+      <c r="AF15" s="202">
+        <f t="shared" ref="AF15:AF73" si="2">U15</f>
         <v>1</v>
       </c>
-      <c r="AG15" s="204" t="s">
+      <c r="AG15" s="203" t="s">
         <v>191</v>
       </c>
       <c r="AH15" s="9"/>
@@ -3353,19 +3406,19 @@
       <c r="A16" s="55"/>
       <c r="B16" s="56"/>
       <c r="C16" s="57"/>
-      <c r="D16" s="189"/>
-      <c r="E16" s="215" t="s">
+      <c r="D16" s="188"/>
+      <c r="E16" s="214" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="205"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="121"/>
-      <c r="J16" s="121"/>
-      <c r="K16" s="121"/>
-      <c r="L16" s="121"/>
-      <c r="M16" s="34">
-        <f>SUM(G16:K16)</f>
+      <c r="F16" s="204"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="53">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N16" s="31"/>
@@ -3375,7 +3428,7 @@
       <c r="P16" s="26"/>
       <c r="Q16" s="26"/>
       <c r="R16" s="26"/>
-      <c r="U16" s="207">
+      <c r="U16" s="206">
         <v>2</v>
       </c>
       <c r="V16" s="1">
@@ -3392,11 +3445,11 @@
         <v>1</v>
       </c>
       <c r="AE16" s="6"/>
-      <c r="AF16" s="203">
-        <f t="shared" si="1"/>
+      <c r="AF16" s="202">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AG16" s="204" t="s">
+      <c r="AG16" s="203" t="s">
         <v>155</v>
       </c>
       <c r="AH16" s="9"/>
@@ -3418,19 +3471,19 @@
       <c r="A17" s="55"/>
       <c r="B17" s="56"/>
       <c r="C17" s="57"/>
-      <c r="D17" s="189"/>
-      <c r="E17" s="215" t="s">
+      <c r="D17" s="188"/>
+      <c r="E17" s="214" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="205"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="121"/>
-      <c r="I17" s="121"/>
-      <c r="J17" s="121"/>
-      <c r="K17" s="121"/>
-      <c r="L17" s="121"/>
-      <c r="M17" s="34">
-        <f>SUM(G17:K17)</f>
+      <c r="F17" s="204"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="120"/>
+      <c r="L17" s="120"/>
+      <c r="M17" s="53">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N17" s="31"/>
@@ -3438,7 +3491,7 @@
       <c r="P17" s="26"/>
       <c r="Q17" s="26"/>
       <c r="R17" s="26"/>
-      <c r="U17" s="207">
+      <c r="U17" s="206">
         <v>3</v>
       </c>
       <c r="V17" s="1">
@@ -3455,11 +3508,11 @@
         <v>1</v>
       </c>
       <c r="AE17" s="6"/>
-      <c r="AF17" s="203">
-        <f t="shared" si="1"/>
+      <c r="AF17" s="202">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AG17" s="204" t="s">
+      <c r="AG17" s="203" t="s">
         <v>156</v>
       </c>
       <c r="AH17" s="9"/>
@@ -3476,17 +3529,17 @@
       <c r="A18" s="62"/>
       <c r="B18" s="63"/>
       <c r="C18" s="64"/>
-      <c r="D18" s="190"/>
-      <c r="E18" s="216" t="s">
+      <c r="D18" s="189"/>
+      <c r="E18" s="215" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="258"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="122"/>
-      <c r="I18" s="122"/>
-      <c r="J18" s="121"/>
-      <c r="K18" s="121"/>
-      <c r="L18" s="121"/>
+      <c r="F18" s="257"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="121"/>
+      <c r="I18" s="121"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="120"/>
+      <c r="L18" s="120"/>
       <c r="M18" s="70">
         <f>SUM(G18:K18)</f>
         <v>0</v>
@@ -3496,7 +3549,7 @@
       <c r="P18" s="26"/>
       <c r="Q18" s="26"/>
       <c r="R18" s="26"/>
-      <c r="U18" s="207">
+      <c r="U18" s="206">
         <v>4</v>
       </c>
       <c r="V18" s="1">
@@ -3513,11 +3566,11 @@
         <v>1</v>
       </c>
       <c r="AE18" s="105"/>
-      <c r="AF18" s="203">
-        <f t="shared" si="1"/>
+      <c r="AF18" s="202">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="AG18" s="204" t="s">
+      <c r="AG18" s="203" t="s">
         <v>186</v>
       </c>
       <c r="AH18" s="9"/>
@@ -3548,7 +3601,7 @@
       <c r="AD19" s="6"/>
       <c r="AE19" s="6"/>
       <c r="AF19" s="1"/>
-      <c r="AG19" s="123" t="s">
+      <c r="AG19" s="122" t="s">
         <v>24</v>
       </c>
       <c r="AH19" s="97"/>
@@ -3569,7 +3622,7 @@
       <c r="AO19" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="AP19" s="144" t="s">
+      <c r="AP19" s="143" t="s">
         <v>14</v>
       </c>
       <c r="AQ19" s="104" t="s">
@@ -3581,7 +3634,7 @@
       <c r="AS19" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="AT19" s="144" t="s">
+      <c r="AT19" s="143" t="s">
         <v>15</v>
       </c>
       <c r="AU19" s="104" t="s">
@@ -3593,7 +3646,7 @@
       <c r="AW19" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="AX19" s="144" t="s">
+      <c r="AX19" s="143" t="s">
         <v>13</v>
       </c>
       <c r="AY19" s="104" t="s">
@@ -3634,7 +3687,7 @@
       <c r="AD20" s="6"/>
       <c r="AE20" s="6"/>
       <c r="AF20" s="1"/>
-      <c r="AG20" s="247">
+      <c r="AG20" s="246">
         <v>1</v>
       </c>
       <c r="AH20" s="97" t="s">
@@ -3644,83 +3697,83 @@
       <c r="AJ20" s="20">
         <v>3000000</v>
       </c>
-      <c r="AK20" s="149">
+      <c r="AK20" s="148">
         <f>SUM(AL20:BD20)</f>
         <v>1</v>
       </c>
-      <c r="AL20" s="242">
+      <c r="AL20" s="241">
         <v>0.1</v>
       </c>
       <c r="AM20" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="AN20" s="243">
+      <c r="AN20" s="242">
         <v>0.1</v>
       </c>
       <c r="AO20" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="AP20" s="244">
+      <c r="AP20" s="243">
         <v>0.2</v>
       </c>
       <c r="AQ20" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="AR20" s="243">
+      <c r="AR20" s="242">
         <v>0.1</v>
       </c>
       <c r="AS20" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="AT20" s="244">
+      <c r="AT20" s="243">
         <v>0.1</v>
       </c>
       <c r="AU20" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="AV20" s="243">
+      <c r="AV20" s="242">
         <v>0.05</v>
       </c>
       <c r="AW20" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="AX20" s="244">
+      <c r="AX20" s="243">
         <v>0.1</v>
       </c>
       <c r="AY20" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="AZ20" s="243">
+      <c r="AZ20" s="242">
         <v>0.1</v>
       </c>
       <c r="BA20" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="BB20" s="243">
+      <c r="BB20" s="242">
         <v>0.1</v>
       </c>
       <c r="BC20" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="BD20" s="242">
+      <c r="BD20" s="241">
         <v>0.05</v>
       </c>
       <c r="BE20" s="5"/>
     </row>
     <row r="21" spans="1:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="248">
+      <c r="E21" s="247">
         <v>6</v>
       </c>
-      <c r="F21" s="198" t="s">
+      <c r="F21" s="197" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="199"/>
-      <c r="H21" s="199"/>
-      <c r="I21" s="199"/>
-      <c r="J21" s="199"/>
-      <c r="K21" s="199"/>
-      <c r="L21" s="199"/>
-      <c r="M21" s="199"/>
+      <c r="G21" s="198"/>
+      <c r="H21" s="198"/>
+      <c r="I21" s="198"/>
+      <c r="J21" s="198"/>
+      <c r="K21" s="198"/>
+      <c r="L21" s="198"/>
+      <c r="M21" s="198"/>
       <c r="N21" s="31"/>
       <c r="R21" s="26"/>
       <c r="U21" s="99"/>
@@ -3735,25 +3788,25 @@
       <c r="AD21" s="6"/>
       <c r="AE21" s="6"/>
       <c r="AF21" s="1"/>
-      <c r="AG21" s="148" t="s">
+      <c r="AG21" s="147" t="s">
         <v>33</v>
       </c>
       <c r="AH21" s="13"/>
       <c r="AI21" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="AJ21" s="132">
+      <c r="AJ21" s="131">
         <f>SUM(AJ22:AJ25)</f>
         <v>1</v>
       </c>
-      <c r="AK21" s="130" t="s">
+      <c r="AK21" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="AL21" s="134">
+      <c r="AL21" s="133">
         <f>AL20*$AJ$20</f>
         <v>300000</v>
       </c>
-      <c r="AM21" s="135">
+      <c r="AM21" s="134">
         <f>SUM(AM22:AM25)</f>
         <v>1</v>
       </c>
@@ -3761,15 +3814,15 @@
         <f>AN20*$AJ$20</f>
         <v>300000</v>
       </c>
-      <c r="AO21" s="140">
+      <c r="AO21" s="139">
         <f>SUM(AO22:AO25)</f>
         <v>1</v>
       </c>
-      <c r="AP21" s="134">
+      <c r="AP21" s="133">
         <f>AP20*$AJ$20</f>
         <v>600000</v>
       </c>
-      <c r="AQ21" s="135">
+      <c r="AQ21" s="134">
         <f>SUM(AQ22:AQ25)</f>
         <v>1</v>
       </c>
@@ -3777,15 +3830,15 @@
         <f>AR20*$AJ$20</f>
         <v>300000</v>
       </c>
-      <c r="AS21" s="140">
+      <c r="AS21" s="139">
         <f>SUM(AS22:AS25)</f>
         <v>1</v>
       </c>
-      <c r="AT21" s="134">
+      <c r="AT21" s="133">
         <f>AT20*$AJ$20</f>
         <v>300000</v>
       </c>
-      <c r="AU21" s="135">
+      <c r="AU21" s="134">
         <f>SUM(AU22:AU25)</f>
         <v>1</v>
       </c>
@@ -3793,15 +3846,15 @@
         <f>AV20*$AJ$20</f>
         <v>150000</v>
       </c>
-      <c r="AW21" s="140">
+      <c r="AW21" s="139">
         <f>SUM(AW22:AW25)</f>
         <v>1</v>
       </c>
-      <c r="AX21" s="134">
+      <c r="AX21" s="133">
         <f>AX20*$AJ$20</f>
         <v>300000</v>
       </c>
-      <c r="AY21" s="135">
+      <c r="AY21" s="134">
         <f>SUM(AY22:AY25)</f>
         <v>1</v>
       </c>
@@ -3809,7 +3862,7 @@
         <f>AZ20*$AJ$20</f>
         <v>300000</v>
       </c>
-      <c r="BA21" s="140">
+      <c r="BA21" s="139">
         <f>SUM(BA22:BA25)</f>
         <v>1.0000000000000002</v>
       </c>
@@ -3817,7 +3870,7 @@
         <f>BB20*$AJ$20</f>
         <v>300000</v>
       </c>
-      <c r="BC21" s="145">
+      <c r="BC21" s="144">
         <f>SUM(BC22:BC25)</f>
         <v>1.0000000000000002</v>
       </c>
@@ -3825,7 +3878,7 @@
         <f>BD20*$AJ$20</f>
         <v>150000</v>
       </c>
-      <c r="BE21" s="237">
+      <c r="BE21" s="236">
         <f>SUM(BE22:BE25)</f>
         <v>1</v>
       </c>
@@ -3849,14 +3902,14 @@
       <c r="AD22" s="6"/>
       <c r="AE22" s="6"/>
       <c r="AF22" s="1"/>
-      <c r="AG22" s="128" t="s">
+      <c r="AG22" s="127" t="s">
         <v>139</v>
       </c>
       <c r="AH22" s="15"/>
       <c r="AI22" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AJ22" s="245">
+      <c r="AJ22" s="244">
         <f>AK22/$AJ$20</f>
         <v>0.2</v>
       </c>
@@ -3864,74 +3917,74 @@
         <f>BD22+BB22+AZ22+AX22+AV22+AT22+AR22+AP22+AN22+AL22</f>
         <v>600000</v>
       </c>
-      <c r="AL22" s="136">
+      <c r="AL22" s="135">
         <f>AM22*$AL$21</f>
         <v>60000</v>
       </c>
-      <c r="AM22" s="137">
+      <c r="AM22" s="136">
         <v>0.2</v>
       </c>
-      <c r="AN22" s="141">
+      <c r="AN22" s="140">
         <f>AO22*$AN$21</f>
         <v>60000</v>
       </c>
-      <c r="AO22" s="142">
+      <c r="AO22" s="141">
         <v>0.2</v>
       </c>
-      <c r="AP22" s="136">
+      <c r="AP22" s="135">
         <f>AQ22*$AP$21</f>
         <v>120000</v>
       </c>
-      <c r="AQ22" s="137">
+      <c r="AQ22" s="136">
         <v>0.2</v>
       </c>
-      <c r="AR22" s="141">
+      <c r="AR22" s="140">
         <f>AS22*$AR$21</f>
         <v>60000</v>
       </c>
-      <c r="AS22" s="142">
+      <c r="AS22" s="141">
         <v>0.2</v>
       </c>
-      <c r="AT22" s="136">
+      <c r="AT22" s="135">
         <f>AU22*$AT$21</f>
         <v>60000</v>
       </c>
-      <c r="AU22" s="137">
+      <c r="AU22" s="136">
         <v>0.2</v>
       </c>
-      <c r="AV22" s="141">
+      <c r="AV22" s="140">
         <f>AW22*$AV$21</f>
         <v>30000</v>
       </c>
-      <c r="AW22" s="142">
+      <c r="AW22" s="141">
         <v>0.2</v>
       </c>
-      <c r="AX22" s="136">
+      <c r="AX22" s="135">
         <f>AY22*$AX$21</f>
         <v>60000</v>
       </c>
-      <c r="AY22" s="137">
+      <c r="AY22" s="136">
         <v>0.2</v>
       </c>
-      <c r="AZ22" s="141">
+      <c r="AZ22" s="140">
         <f>BA22*$AZ$21</f>
         <v>60000</v>
       </c>
-      <c r="BA22" s="142">
+      <c r="BA22" s="141">
         <v>0.2</v>
       </c>
-      <c r="BB22" s="234">
+      <c r="BB22" s="233">
         <f>$BB$21*BC22</f>
         <v>60000</v>
       </c>
-      <c r="BC22" s="146">
+      <c r="BC22" s="145">
         <v>0.2</v>
       </c>
-      <c r="BD22" s="129">
+      <c r="BD22" s="128">
         <f>$BD$21*BE22</f>
         <v>30000</v>
       </c>
-      <c r="BE22" s="233">
+      <c r="BE22" s="232">
         <v>0.2</v>
       </c>
     </row>
@@ -3955,94 +4008,94 @@
       <c r="AD23" s="6"/>
       <c r="AE23" s="6"/>
       <c r="AF23" s="1"/>
-      <c r="AG23" s="128" t="s">
+      <c r="AG23" s="127" t="s">
         <v>140</v>
       </c>
       <c r="AH23" s="15"/>
       <c r="AI23" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="AJ23" s="245">
-        <f t="shared" ref="AJ23:AJ25" si="2">AK23/$AJ$20</f>
+      <c r="AJ23" s="244">
+        <f t="shared" ref="AJ23:AJ25" si="3">AK23/$AJ$20</f>
         <v>0.48</v>
       </c>
       <c r="AK23" s="46">
         <f>BD23+BB23+AZ23+AX23+AV23+AT23+AR23+AP23+AN23+AL23</f>
         <v>1440000</v>
       </c>
-      <c r="AL23" s="134">
-        <f t="shared" ref="AL23:AL25" si="3">AM23*$AL$21</f>
+      <c r="AL23" s="133">
+        <f t="shared" ref="AL23:AL25" si="4">AM23*$AL$21</f>
         <v>150000</v>
       </c>
-      <c r="AM23" s="138">
+      <c r="AM23" s="137">
         <v>0.5</v>
       </c>
       <c r="AN23" s="21">
-        <f t="shared" ref="AN23:AN25" si="4">AO23*$AN$21</f>
+        <f t="shared" ref="AN23:AN25" si="5">AO23*$AN$21</f>
         <v>150000</v>
       </c>
-      <c r="AO23" s="143">
+      <c r="AO23" s="142">
         <v>0.5</v>
       </c>
-      <c r="AP23" s="134">
-        <f t="shared" ref="AP23:AP25" si="5">AQ23*$AP$21</f>
+      <c r="AP23" s="133">
+        <f t="shared" ref="AP23:AP25" si="6">AQ23*$AP$21</f>
         <v>300000</v>
       </c>
-      <c r="AQ23" s="138">
+      <c r="AQ23" s="137">
         <v>0.5</v>
       </c>
       <c r="AR23" s="21">
-        <f t="shared" ref="AR23:AR25" si="6">AS23*$AR$21</f>
+        <f t="shared" ref="AR23:AR25" si="7">AS23*$AR$21</f>
         <v>150000</v>
       </c>
-      <c r="AS23" s="143">
+      <c r="AS23" s="142">
         <v>0.5</v>
       </c>
-      <c r="AT23" s="134">
-        <f t="shared" ref="AT23:AT25" si="7">AU23*$AT$21</f>
+      <c r="AT23" s="133">
+        <f t="shared" ref="AT23:AT25" si="8">AU23*$AT$21</f>
         <v>150000</v>
       </c>
-      <c r="AU23" s="138">
+      <c r="AU23" s="137">
         <v>0.5</v>
       </c>
       <c r="AV23" s="21">
-        <f t="shared" ref="AV23:AV25" si="8">AW23*$AV$21</f>
+        <f t="shared" ref="AV23:AV25" si="9">AW23*$AV$21</f>
         <v>75000</v>
       </c>
-      <c r="AW23" s="143">
+      <c r="AW23" s="142">
         <v>0.5</v>
       </c>
-      <c r="AX23" s="134">
-        <f t="shared" ref="AX23:AX25" si="9">AY23*$AX$21</f>
+      <c r="AX23" s="133">
+        <f t="shared" ref="AX23:AX25" si="10">AY23*$AX$21</f>
         <v>150000</v>
       </c>
-      <c r="AY23" s="138">
+      <c r="AY23" s="137">
         <v>0.5</v>
       </c>
       <c r="AZ23" s="21">
-        <f t="shared" ref="AZ23:AZ25" si="10">BA23*$AZ$21</f>
+        <f t="shared" ref="AZ23:AZ25" si="11">BA23*$AZ$21</f>
         <v>120000</v>
       </c>
-      <c r="BA23" s="143">
+      <c r="BA23" s="142">
         <v>0.4</v>
       </c>
-      <c r="BB23" s="235">
-        <f t="shared" ref="BB23:BB25" si="11">$BB$21*BC23</f>
+      <c r="BB23" s="234">
+        <f t="shared" ref="BB23:BB25" si="12">$BB$21*BC23</f>
         <v>120000</v>
       </c>
-      <c r="BC23" s="147">
+      <c r="BC23" s="146">
         <v>0.4</v>
       </c>
       <c r="BD23" s="15">
-        <f t="shared" ref="BD23:BD25" si="12">$BD$21*BE23</f>
+        <f t="shared" ref="BD23:BD25" si="13">$BD$21*BE23</f>
         <v>75000</v>
       </c>
-      <c r="BE23" s="233">
+      <c r="BE23" s="232">
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:57" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="165">
+    <row r="24" spans="1:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="164">
         <v>2</v>
       </c>
       <c r="B24" s="49">
@@ -4054,14 +4107,14 @@
         <v>187</v>
       </c>
       <c r="F24" s="112"/>
-      <c r="G24" s="122"/>
-      <c r="H24" s="122"/>
-      <c r="I24" s="121"/>
-      <c r="J24" s="122"/>
+      <c r="G24" s="121"/>
+      <c r="H24" s="121"/>
+      <c r="I24" s="120"/>
+      <c r="J24" s="121"/>
       <c r="K24" s="73"/>
       <c r="L24" s="73"/>
       <c r="M24" s="113">
-        <f t="shared" ref="M24:M29" si="13">SUM(G24:K24)</f>
+        <f>SUM(G24:L24)</f>
         <v>0</v>
       </c>
       <c r="N24" s="31"/>
@@ -4089,89 +4142,89 @@
       <c r="AD24" s="6"/>
       <c r="AE24" s="6"/>
       <c r="AF24" s="1"/>
-      <c r="AG24" s="128" t="s">
+      <c r="AG24" s="127" t="s">
         <v>138</v>
       </c>
       <c r="AH24" s="15"/>
       <c r="AI24" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AJ24" s="245">
-        <f t="shared" si="2"/>
+      <c r="AJ24" s="244">
+        <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
       <c r="AK24" s="46">
         <f>BD24+BB24+AZ24+AX24+AV24+AT24+AR24+AP24+AN24+AL24</f>
         <v>900000</v>
       </c>
-      <c r="AL24" s="134">
-        <f t="shared" si="3"/>
-        <v>90000</v>
-      </c>
-      <c r="AM24" s="138">
-        <v>0.3</v>
-      </c>
-      <c r="AN24" s="21">
+      <c r="AL24" s="133">
         <f t="shared" si="4"/>
         <v>90000</v>
       </c>
-      <c r="AO24" s="143">
+      <c r="AM24" s="137">
         <v>0.3</v>
       </c>
-      <c r="AP24" s="134">
+      <c r="AN24" s="21">
         <f t="shared" si="5"/>
+        <v>90000</v>
+      </c>
+      <c r="AO24" s="142">
+        <v>0.3</v>
+      </c>
+      <c r="AP24" s="133">
+        <f t="shared" si="6"/>
         <v>180000</v>
       </c>
-      <c r="AQ24" s="138">
+      <c r="AQ24" s="137">
         <v>0.3</v>
       </c>
       <c r="AR24" s="21">
-        <f t="shared" si="6"/>
-        <v>90000</v>
-      </c>
-      <c r="AS24" s="143">
-        <v>0.3</v>
-      </c>
-      <c r="AT24" s="134">
         <f t="shared" si="7"/>
         <v>90000</v>
       </c>
-      <c r="AU24" s="138">
+      <c r="AS24" s="142">
         <v>0.3</v>
       </c>
+      <c r="AT24" s="133">
+        <f t="shared" si="8"/>
+        <v>90000</v>
+      </c>
+      <c r="AU24" s="137">
+        <v>0.3</v>
+      </c>
       <c r="AV24" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>45000</v>
       </c>
-      <c r="AW24" s="143">
+      <c r="AW24" s="142">
         <v>0.3</v>
       </c>
-      <c r="AX24" s="134">
-        <f t="shared" si="9"/>
-        <v>90000</v>
-      </c>
-      <c r="AY24" s="138">
-        <v>0.3</v>
-      </c>
-      <c r="AZ24" s="21">
+      <c r="AX24" s="133">
         <f t="shared" si="10"/>
         <v>90000</v>
       </c>
-      <c r="BA24" s="143">
+      <c r="AY24" s="137">
         <v>0.3</v>
       </c>
-      <c r="BB24" s="235">
+      <c r="AZ24" s="21">
         <f t="shared" si="11"/>
         <v>90000</v>
       </c>
-      <c r="BC24" s="147">
+      <c r="BA24" s="142">
         <v>0.3</v>
       </c>
+      <c r="BB24" s="234">
+        <f t="shared" si="12"/>
+        <v>90000</v>
+      </c>
+      <c r="BC24" s="146">
+        <v>0.3</v>
+      </c>
       <c r="BD24" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>45000</v>
       </c>
-      <c r="BE24" s="233">
+      <c r="BE24" s="232">
         <v>0.3</v>
       </c>
     </row>
@@ -4184,14 +4237,14 @@
         <v>72</v>
       </c>
       <c r="F25" s="59"/>
-      <c r="G25" s="122"/>
-      <c r="H25" s="122"/>
-      <c r="I25" s="121"/>
-      <c r="J25" s="122"/>
+      <c r="G25" s="121"/>
+      <c r="H25" s="121"/>
+      <c r="I25" s="120"/>
+      <c r="J25" s="121"/>
       <c r="K25" s="73"/>
       <c r="L25" s="73"/>
-      <c r="M25" s="34">
-        <f t="shared" si="13"/>
+      <c r="M25" s="113">
+        <f t="shared" ref="M25:M29" si="14">SUM(G25:L25)</f>
         <v>0</v>
       </c>
       <c r="N25" s="31"/>
@@ -4220,82 +4273,82 @@
       <c r="AI25" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AJ25" s="246">
-        <f t="shared" si="2"/>
+      <c r="AJ25" s="245">
+        <f t="shared" si="3"/>
         <v>0.02</v>
       </c>
       <c r="AK25" s="96">
         <f>BD25+BB25+AZ25+AX25+AV25+AT25+AR25+AP25+AN25+AL25</f>
         <v>60000</v>
       </c>
-      <c r="AL25" s="139">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AM25" s="131">
-        <v>0</v>
-      </c>
-      <c r="AN25" s="3">
+      <c r="AL25" s="138">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AO25" s="125">
+      <c r="AM25" s="130">
         <v>0</v>
       </c>
-      <c r="AP25" s="139">
+      <c r="AN25" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AQ25" s="131">
+      <c r="AO25" s="124">
         <v>0</v>
       </c>
-      <c r="AR25" s="3">
+      <c r="AP25" s="138">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AS25" s="125">
+      <c r="AQ25" s="130">
         <v>0</v>
       </c>
-      <c r="AT25" s="139">
+      <c r="AR25" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AU25" s="131">
+      <c r="AS25" s="124">
         <v>0</v>
       </c>
-      <c r="AV25" s="3">
+      <c r="AT25" s="138">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AW25" s="125">
+      <c r="AU25" s="130">
         <v>0</v>
       </c>
-      <c r="AX25" s="139">
+      <c r="AV25" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AY25" s="131">
+      <c r="AW25" s="124">
         <v>0</v>
       </c>
+      <c r="AX25" s="138">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY25" s="130">
+        <v>0</v>
+      </c>
       <c r="AZ25" s="3">
-        <f t="shared" si="10"/>
-        <v>30000</v>
-      </c>
-      <c r="BA25" s="125">
-        <v>0.1</v>
-      </c>
-      <c r="BB25" s="236">
         <f t="shared" si="11"/>
         <v>30000</v>
       </c>
-      <c r="BC25" s="133">
+      <c r="BA25" s="124">
         <v>0.1</v>
       </c>
+      <c r="BB25" s="235">
+        <f t="shared" si="12"/>
+        <v>30000</v>
+      </c>
+      <c r="BC25" s="132">
+        <v>0.1</v>
+      </c>
       <c r="BD25" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BE25" s="233">
+      <c r="BE25" s="232">
         <v>0</v>
       </c>
     </row>
@@ -4308,14 +4361,14 @@
         <v>73</v>
       </c>
       <c r="F26" s="59"/>
-      <c r="G26" s="122"/>
-      <c r="H26" s="122"/>
-      <c r="I26" s="121"/>
-      <c r="J26" s="122"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="120"/>
+      <c r="J26" s="121"/>
       <c r="K26" s="73"/>
       <c r="L26" s="73"/>
-      <c r="M26" s="34">
-        <f t="shared" si="13"/>
+      <c r="M26" s="113">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N26" s="31"/>
@@ -4351,7 +4404,7 @@
       </c>
       <c r="AM26" s="1"/>
       <c r="AN26" s="7">
-        <f t="shared" ref="AN26" si="14">SUM(AN22:AN25)</f>
+        <f t="shared" ref="AN26" si="15">SUM(AN22:AN25)</f>
         <v>300000</v>
       </c>
       <c r="AO26" s="17"/>
@@ -4408,14 +4461,14 @@
         <v>74</v>
       </c>
       <c r="F27" s="59"/>
-      <c r="G27" s="122"/>
-      <c r="H27" s="122"/>
-      <c r="I27" s="121"/>
-      <c r="J27" s="122"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="121"/>
+      <c r="I27" s="120"/>
+      <c r="J27" s="121"/>
       <c r="K27" s="73"/>
       <c r="L27" s="73"/>
-      <c r="M27" s="34">
-        <f t="shared" si="13"/>
+      <c r="M27" s="113">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N27" s="31"/>
@@ -4424,38 +4477,38 @@
       <c r="Q27" s="59"/>
       <c r="R27" s="59"/>
       <c r="S27" s="15"/>
-      <c r="U27" s="195">
+      <c r="U27" s="194">
         <f>U22+1</f>
         <v>6</v>
       </c>
-      <c r="V27" s="196"/>
-      <c r="W27" s="196"/>
-      <c r="X27" s="196"/>
-      <c r="Y27" s="196"/>
-      <c r="Z27" s="196"/>
-      <c r="AA27" s="196"/>
-      <c r="AB27" s="196"/>
-      <c r="AC27" s="196"/>
-      <c r="AD27" s="197"/>
-      <c r="AE27" s="197"/>
-      <c r="AF27" s="208">
-        <f t="shared" si="1"/>
+      <c r="V27" s="195"/>
+      <c r="W27" s="195"/>
+      <c r="X27" s="195"/>
+      <c r="Y27" s="195"/>
+      <c r="Z27" s="195"/>
+      <c r="AA27" s="195"/>
+      <c r="AB27" s="195"/>
+      <c r="AC27" s="195"/>
+      <c r="AD27" s="196"/>
+      <c r="AE27" s="196"/>
+      <c r="AF27" s="207">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AG27" s="198" t="s">
+      <c r="AG27" s="197" t="s">
         <v>50</v>
       </c>
-      <c r="AH27" s="199"/>
-      <c r="AI27" s="199"/>
-      <c r="AJ27" s="199"/>
-      <c r="AK27" s="199"/>
-      <c r="AL27" s="199"/>
-      <c r="AM27" s="199"/>
-      <c r="AN27" s="200"/>
+      <c r="AH27" s="198"/>
+      <c r="AI27" s="198"/>
+      <c r="AJ27" s="198"/>
+      <c r="AK27" s="198"/>
+      <c r="AL27" s="198"/>
+      <c r="AM27" s="198"/>
+      <c r="AN27" s="199"/>
       <c r="AP27" t="s">
         <v>201</v>
       </c>
-      <c r="BC27" s="217"/>
+      <c r="BC27" s="216"/>
     </row>
     <row r="28" spans="1:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="114"/>
@@ -4464,14 +4517,14 @@
       <c r="D28" s="58"/>
       <c r="E28" s="74"/>
       <c r="F28" s="59"/>
-      <c r="G28" s="122"/>
-      <c r="H28" s="122"/>
-      <c r="I28" s="121"/>
-      <c r="J28" s="122"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="121"/>
+      <c r="I28" s="120"/>
+      <c r="J28" s="121"/>
       <c r="K28" s="73"/>
       <c r="L28" s="73"/>
-      <c r="M28" s="34">
-        <f t="shared" si="13"/>
+      <c r="M28" s="113">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N28" s="31"/>
@@ -4500,7 +4553,7 @@
       <c r="AH28" s="10"/>
       <c r="AI28" s="10"/>
       <c r="AJ28" s="10"/>
-      <c r="AW28" s="252" t="s">
+      <c r="AW28" s="251" t="s">
         <v>107</v>
       </c>
       <c r="AX28" s="24" t="s">
@@ -4519,14 +4572,14 @@
         <v>75</v>
       </c>
       <c r="F29" s="119"/>
-      <c r="G29" s="122"/>
-      <c r="H29" s="122"/>
-      <c r="I29" s="122"/>
-      <c r="J29" s="122"/>
+      <c r="G29" s="121"/>
+      <c r="H29" s="121"/>
+      <c r="I29" s="121"/>
+      <c r="J29" s="121"/>
       <c r="K29" s="73"/>
       <c r="L29" s="73"/>
-      <c r="M29" s="120">
-        <f t="shared" si="13"/>
+      <c r="M29" s="113">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N29" s="31"/>
@@ -4715,19 +4768,19 @@
       <c r="AV32" s="6"/>
     </row>
     <row r="33" spans="1:49" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="173" t="s">
+      <c r="A33" s="172" t="s">
         <v>157</v>
       </c>
-      <c r="B33" s="173"/>
-      <c r="C33" s="173"/>
-      <c r="D33" s="173" t="s">
+      <c r="B33" s="172"/>
+      <c r="C33" s="172"/>
+      <c r="D33" s="172" t="s">
         <v>158</v>
       </c>
-      <c r="E33" s="173"/>
-      <c r="F33" s="173"/>
-      <c r="G33" s="173"/>
-      <c r="H33" s="173"/>
-      <c r="I33" s="173"/>
+      <c r="E33" s="172"/>
+      <c r="F33" s="172"/>
+      <c r="G33" s="172"/>
+      <c r="H33" s="172"/>
+      <c r="I33" s="172"/>
       <c r="N33" s="31"/>
       <c r="R33" s="26"/>
       <c r="U33" s="99"/>
@@ -4759,7 +4812,7 @@
       <c r="AV33" s="6"/>
     </row>
     <row r="34" spans="1:49" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="163">
+      <c r="A34" s="162">
         <v>3</v>
       </c>
       <c r="B34" s="49">
@@ -4777,8 +4830,8 @@
       <c r="J34" s="77"/>
       <c r="K34" s="77"/>
       <c r="L34" s="77"/>
-      <c r="M34" s="53">
-        <f>SUM(G34:K34)</f>
+      <c r="M34" s="113">
+        <f>SUM(G34:L34)</f>
         <v>0</v>
       </c>
       <c r="N34" s="31"/>
@@ -4812,8 +4865,8 @@
       <c r="J35" s="73"/>
       <c r="K35" s="73"/>
       <c r="L35" s="73"/>
-      <c r="M35" s="34">
-        <f>SUM(G35:K35)</f>
+      <c r="M35" s="113">
+        <f t="shared" ref="M35:M37" si="16">SUM(G35:L35)</f>
         <v>0</v>
       </c>
       <c r="N35" s="31"/>
@@ -4821,40 +4874,40 @@
       <c r="P35" s="26"/>
       <c r="Q35" s="26"/>
       <c r="R35" s="26"/>
-      <c r="U35" s="195">
+      <c r="U35" s="194">
         <f>U27+1</f>
         <v>7</v>
       </c>
-      <c r="V35" s="196"/>
-      <c r="W35" s="196"/>
-      <c r="X35" s="196"/>
-      <c r="Y35" s="196"/>
-      <c r="Z35" s="196"/>
-      <c r="AA35" s="196"/>
-      <c r="AB35" s="196"/>
-      <c r="AC35" s="196"/>
-      <c r="AD35" s="197"/>
-      <c r="AE35" s="197"/>
-      <c r="AF35" s="208">
-        <f t="shared" si="1"/>
+      <c r="V35" s="195"/>
+      <c r="W35" s="195"/>
+      <c r="X35" s="195"/>
+      <c r="Y35" s="195"/>
+      <c r="Z35" s="195"/>
+      <c r="AA35" s="195"/>
+      <c r="AB35" s="195"/>
+      <c r="AC35" s="195"/>
+      <c r="AD35" s="196"/>
+      <c r="AE35" s="196"/>
+      <c r="AF35" s="207">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="AG35" s="198" t="s">
+      <c r="AG35" s="197" t="s">
         <v>142</v>
       </c>
-      <c r="AH35" s="199"/>
-      <c r="AI35" s="199"/>
-      <c r="AJ35" s="199"/>
-      <c r="AK35" s="199"/>
-      <c r="AL35" s="199"/>
-      <c r="AM35" s="199"/>
-      <c r="AN35" s="199"/>
-      <c r="AO35" s="199"/>
-      <c r="AP35" s="199"/>
-      <c r="AQ35" s="199"/>
-      <c r="AR35" s="241"/>
-      <c r="AS35" s="200"/>
-      <c r="AT35" s="200"/>
+      <c r="AH35" s="198"/>
+      <c r="AI35" s="198"/>
+      <c r="AJ35" s="198"/>
+      <c r="AK35" s="198"/>
+      <c r="AL35" s="198"/>
+      <c r="AM35" s="198"/>
+      <c r="AN35" s="198"/>
+      <c r="AO35" s="198"/>
+      <c r="AP35" s="198"/>
+      <c r="AQ35" s="198"/>
+      <c r="AR35" s="240"/>
+      <c r="AS35" s="199"/>
+      <c r="AT35" s="199"/>
     </row>
     <row r="36" spans="1:49" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="55"/>
@@ -4871,8 +4924,8 @@
       <c r="J36" s="73"/>
       <c r="K36" s="73"/>
       <c r="L36" s="73"/>
-      <c r="M36" s="34">
-        <f>SUM(G36:K36)</f>
+      <c r="M36" s="113">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N36" s="31"/>
@@ -4894,13 +4947,13 @@
       <c r="AD36" s="6"/>
       <c r="AE36" s="6"/>
       <c r="AF36" s="1"/>
-      <c r="AG36" s="238" t="s">
+      <c r="AG36" s="237" t="s">
         <v>152</v>
       </c>
-      <c r="AH36" s="239" t="s">
+      <c r="AH36" s="238" t="s">
         <v>19</v>
       </c>
-      <c r="AI36" s="240" t="s">
+      <c r="AI36" s="239" t="s">
         <v>20</v>
       </c>
       <c r="AK36" t="str">
@@ -4965,8 +5018,8 @@
       <c r="J37" s="73"/>
       <c r="K37" s="73"/>
       <c r="L37" s="73"/>
-      <c r="M37" s="34">
-        <f>SUM(G37:K37)</f>
+      <c r="M37" s="113">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N37" s="31"/>
@@ -4995,8 +5048,8 @@
       <c r="AE37" s="6"/>
       <c r="AF37" s="1"/>
       <c r="AG37" s="8"/>
-      <c r="AH37" s="220"/>
-      <c r="AI37" s="222"/>
+      <c r="AH37" s="219"/>
+      <c r="AI37" s="221"/>
       <c r="AJ37" s="10" t="s">
         <v>6</v>
       </c>
@@ -5041,8 +5094,8 @@
       </c>
       <c r="AE38" s="6"/>
       <c r="AF38" s="1"/>
-      <c r="AG38" s="127"/>
-      <c r="AH38" s="223"/>
+      <c r="AG38" s="126"/>
+      <c r="AH38" s="222"/>
       <c r="AI38" s="107"/>
       <c r="AJ38" s="10" t="s">
         <v>17</v>
@@ -5083,10 +5136,10 @@
       <c r="AD39" s="6"/>
       <c r="AE39" s="6"/>
       <c r="AF39" s="1"/>
-      <c r="AG39" s="127" t="s">
+      <c r="AG39" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="AH39" s="223"/>
+      <c r="AH39" s="222"/>
       <c r="AI39" s="107"/>
       <c r="AJ39" s="10"/>
       <c r="AK39" s="6"/>
@@ -5127,9 +5180,9 @@
       </c>
       <c r="AE40" s="6"/>
       <c r="AF40" s="1"/>
-      <c r="AG40" s="127"/>
-      <c r="AH40" s="224"/>
-      <c r="AI40" s="226"/>
+      <c r="AG40" s="126"/>
+      <c r="AH40" s="223"/>
+      <c r="AI40" s="225"/>
       <c r="AJ40" s="10" t="s">
         <v>4</v>
       </c>
@@ -5147,19 +5200,19 @@
       <c r="AV40" s="6"/>
     </row>
     <row r="41" spans="1:49" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="172" t="s">
+      <c r="A41" s="171" t="s">
         <v>117</v>
       </c>
-      <c r="B41" s="172"/>
-      <c r="C41" s="172"/>
-      <c r="D41" s="172" t="s">
+      <c r="B41" s="171"/>
+      <c r="C41" s="171"/>
+      <c r="D41" s="171" t="s">
         <v>159</v>
       </c>
-      <c r="E41" s="172"/>
-      <c r="F41" s="172"/>
-      <c r="G41" s="172"/>
-      <c r="H41" s="172"/>
-      <c r="I41" s="172"/>
+      <c r="E41" s="171"/>
+      <c r="F41" s="171"/>
+      <c r="G41" s="171"/>
+      <c r="H41" s="171"/>
+      <c r="I41" s="171"/>
       <c r="N41" s="31"/>
       <c r="Q41" s="26"/>
       <c r="R41" s="26"/>
@@ -5177,7 +5230,7 @@
       <c r="AF41" s="1"/>
     </row>
     <row r="42" spans="1:49" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="163">
+      <c r="A42" s="162">
         <v>4</v>
       </c>
       <c r="B42" s="49">
@@ -5195,8 +5248,8 @@
       <c r="J42" s="77"/>
       <c r="K42" s="77"/>
       <c r="L42" s="77"/>
-      <c r="M42" s="53">
-        <f t="shared" ref="M42:M47" si="15">SUM(G42:K42)</f>
+      <c r="M42" s="113">
+        <f t="shared" ref="M42:M47" si="17">SUM(G42:L42)</f>
         <v>0</v>
       </c>
       <c r="N42" s="31"/>
@@ -5204,37 +5257,37 @@
       <c r="P42" s="26"/>
       <c r="Q42" s="26"/>
       <c r="R42" s="26"/>
-      <c r="U42" s="195">
+      <c r="U42" s="194">
         <f>U35+1</f>
         <v>8</v>
       </c>
-      <c r="V42" s="196"/>
-      <c r="W42" s="196"/>
-      <c r="X42" s="196"/>
-      <c r="Y42" s="196"/>
-      <c r="Z42" s="196"/>
-      <c r="AA42" s="196"/>
-      <c r="AB42" s="196"/>
-      <c r="AC42" s="196"/>
-      <c r="AD42" s="197"/>
-      <c r="AE42" s="213"/>
-      <c r="AF42" s="198">
-        <f t="shared" si="1"/>
+      <c r="V42" s="195"/>
+      <c r="W42" s="195"/>
+      <c r="X42" s="195"/>
+      <c r="Y42" s="195"/>
+      <c r="Z42" s="195"/>
+      <c r="AA42" s="195"/>
+      <c r="AB42" s="195"/>
+      <c r="AC42" s="195"/>
+      <c r="AD42" s="196"/>
+      <c r="AE42" s="212"/>
+      <c r="AF42" s="197">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="AG42" s="198" t="s">
+      <c r="AG42" s="197" t="s">
         <v>206</v>
       </c>
-      <c r="AH42" s="199"/>
-      <c r="AI42" s="199"/>
-      <c r="AJ42" s="199"/>
-      <c r="AK42" s="199"/>
-      <c r="AL42" s="199"/>
-      <c r="AM42" s="199"/>
-      <c r="AN42" s="200"/>
-      <c r="AO42" s="200"/>
-    </row>
-    <row r="43" spans="1:49" ht="16" x14ac:dyDescent="0.2">
+      <c r="AH42" s="198"/>
+      <c r="AI42" s="198"/>
+      <c r="AJ42" s="198"/>
+      <c r="AK42" s="198"/>
+      <c r="AL42" s="198"/>
+      <c r="AM42" s="198"/>
+      <c r="AN42" s="199"/>
+      <c r="AO42" s="199"/>
+    </row>
+    <row r="43" spans="1:49" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="26"/>
       <c r="B43" s="56"/>
       <c r="C43" s="79"/>
@@ -5249,8 +5302,8 @@
       <c r="J43" s="73"/>
       <c r="K43" s="73"/>
       <c r="L43" s="73"/>
-      <c r="M43" s="34">
-        <f t="shared" si="15"/>
+      <c r="M43" s="113">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N43" s="31"/>
@@ -5314,7 +5367,7 @@
         <v>Munich</v>
       </c>
     </row>
-    <row r="44" spans="1:49" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:49" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="26"/>
       <c r="B44" s="56"/>
       <c r="C44" s="79"/>
@@ -5329,8 +5382,8 @@
       <c r="J44" s="73"/>
       <c r="K44" s="73"/>
       <c r="L44" s="73"/>
-      <c r="M44" s="34">
-        <f t="shared" si="15"/>
+      <c r="M44" s="113">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N44" s="31"/>
@@ -5372,7 +5425,7 @@
       <c r="AS44" s="6"/>
       <c r="AT44" s="6"/>
     </row>
-    <row r="45" spans="1:49" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:49" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="26"/>
       <c r="B45" s="56"/>
       <c r="C45" s="80"/>
@@ -5385,8 +5438,8 @@
       <c r="J45" s="82"/>
       <c r="K45" s="82"/>
       <c r="L45" s="82"/>
-      <c r="M45" s="70">
-        <f t="shared" si="15"/>
+      <c r="M45" s="113">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N45" s="31"/>
@@ -5426,11 +5479,8 @@
       <c r="AS45" s="6"/>
       <c r="AT45" s="6"/>
     </row>
-    <row r="46" spans="1:49" ht="16" x14ac:dyDescent="0.2">
-      <c r="M46">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
+    <row r="46" spans="1:49" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M46" s="113"/>
       <c r="N46" s="31"/>
       <c r="R46" s="26"/>
       <c r="U46" s="99">
@@ -5466,10 +5516,7 @@
       <c r="AT46" s="6"/>
     </row>
     <row r="47" spans="1:49" ht="16" x14ac:dyDescent="0.2">
-      <c r="M47">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
+      <c r="M47" s="113"/>
       <c r="N47" s="31"/>
       <c r="R47" s="26"/>
       <c r="U47" s="99"/>
@@ -5488,49 +5535,49 @@
     <row r="48" spans="1:49" ht="16" x14ac:dyDescent="0.2">
       <c r="N48" s="31"/>
       <c r="R48" s="26"/>
-      <c r="U48" s="195">
+      <c r="U48" s="194">
         <f>U42+1</f>
         <v>9</v>
       </c>
-      <c r="V48" s="196"/>
-      <c r="W48" s="196"/>
-      <c r="X48" s="196"/>
-      <c r="Y48" s="196"/>
-      <c r="Z48" s="196"/>
-      <c r="AA48" s="196"/>
-      <c r="AB48" s="196"/>
-      <c r="AC48" s="196"/>
-      <c r="AD48" s="197"/>
-      <c r="AE48" s="197"/>
-      <c r="AF48" s="208">
-        <f t="shared" si="1"/>
+      <c r="V48" s="195"/>
+      <c r="W48" s="195"/>
+      <c r="X48" s="195"/>
+      <c r="Y48" s="195"/>
+      <c r="Z48" s="195"/>
+      <c r="AA48" s="195"/>
+      <c r="AB48" s="195"/>
+      <c r="AC48" s="195"/>
+      <c r="AD48" s="196"/>
+      <c r="AE48" s="196"/>
+      <c r="AF48" s="207">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="AG48" s="208" t="s">
+      <c r="AG48" s="207" t="s">
         <v>130</v>
       </c>
-      <c r="AH48" s="196"/>
-      <c r="AI48" s="196"/>
-      <c r="AJ48" s="196"/>
-      <c r="AK48" s="196"/>
-      <c r="AL48" s="196"/>
-      <c r="AM48" s="196"/>
-      <c r="AN48" s="209"/>
+      <c r="AH48" s="195"/>
+      <c r="AI48" s="195"/>
+      <c r="AJ48" s="195"/>
+      <c r="AK48" s="195"/>
+      <c r="AL48" s="195"/>
+      <c r="AM48" s="195"/>
+      <c r="AN48" s="208"/>
     </row>
     <row r="49" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="174" t="s">
+      <c r="A49" s="173" t="s">
         <v>160</v>
       </c>
-      <c r="B49" s="174"/>
-      <c r="C49" s="174"/>
-      <c r="D49" s="174" t="s">
+      <c r="B49" s="173"/>
+      <c r="C49" s="173"/>
+      <c r="D49" s="173" t="s">
         <v>161</v>
       </c>
-      <c r="E49" s="174"/>
-      <c r="F49" s="174"/>
-      <c r="G49" s="174"/>
-      <c r="H49" s="174"/>
-      <c r="I49" s="174"/>
+      <c r="E49" s="173"/>
+      <c r="F49" s="173"/>
+      <c r="G49" s="173"/>
+      <c r="H49" s="173"/>
+      <c r="I49" s="173"/>
       <c r="N49" s="31"/>
       <c r="R49" s="26"/>
       <c r="U49" s="99"/>
@@ -5589,8 +5636,8 @@
         <v>Munich</v>
       </c>
     </row>
-    <row r="50" spans="1:47" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="163">
+    <row r="50" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="162">
         <v>5</v>
       </c>
       <c r="B50" s="49"/>
@@ -5606,8 +5653,8 @@
       <c r="J50" s="84"/>
       <c r="K50" s="84"/>
       <c r="L50" s="84"/>
-      <c r="M50" s="53">
-        <f>SUM(G50:K50)</f>
+      <c r="M50" s="113">
+        <f t="shared" ref="M50:M53" si="18">SUM(G50:L50)</f>
         <v>0</v>
       </c>
       <c r="N50" s="31"/>
@@ -5647,7 +5694,7 @@
       <c r="AS50" s="6"/>
       <c r="AT50" s="6"/>
     </row>
-    <row r="51" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="55"/>
       <c r="B51" s="56"/>
       <c r="C51" s="59"/>
@@ -5662,8 +5709,8 @@
       <c r="J51" s="61"/>
       <c r="K51" s="61"/>
       <c r="L51" s="61"/>
-      <c r="M51" s="34">
-        <f>SUM(G51:K51)</f>
+      <c r="M51" s="113">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N51" s="31"/>
@@ -5703,7 +5750,7 @@
       <c r="AS51" s="6"/>
       <c r="AT51" s="6"/>
     </row>
-    <row r="52" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="55"/>
       <c r="B52" s="56"/>
       <c r="C52" s="59"/>
@@ -5716,8 +5763,8 @@
       <c r="J52" s="61"/>
       <c r="K52" s="61"/>
       <c r="L52" s="61"/>
-      <c r="M52" s="34">
-        <f>SUM(G52:K52)</f>
+      <c r="M52" s="113">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N52" s="31"/>
@@ -5772,8 +5819,8 @@
       <c r="J53" s="82"/>
       <c r="K53" s="82"/>
       <c r="L53" s="82"/>
-      <c r="M53" s="70">
-        <f>SUM(G53:K53)</f>
+      <c r="M53" s="113">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N53" s="31"/>
@@ -5796,34 +5843,34 @@
     </row>
     <row r="54" spans="1:47" ht="16" x14ac:dyDescent="0.2">
       <c r="N54" s="31"/>
-      <c r="U54" s="195">
+      <c r="U54" s="194">
         <f>U48+1</f>
         <v>10</v>
       </c>
-      <c r="V54" s="196"/>
-      <c r="W54" s="196"/>
-      <c r="X54" s="196"/>
-      <c r="Y54" s="196"/>
-      <c r="Z54" s="196"/>
-      <c r="AA54" s="196"/>
-      <c r="AB54" s="196"/>
-      <c r="AC54" s="196"/>
-      <c r="AD54" s="197"/>
-      <c r="AE54" s="197"/>
-      <c r="AF54" s="208">
-        <f t="shared" si="1"/>
+      <c r="V54" s="195"/>
+      <c r="W54" s="195"/>
+      <c r="X54" s="195"/>
+      <c r="Y54" s="195"/>
+      <c r="Z54" s="195"/>
+      <c r="AA54" s="195"/>
+      <c r="AB54" s="195"/>
+      <c r="AC54" s="195"/>
+      <c r="AD54" s="196"/>
+      <c r="AE54" s="196"/>
+      <c r="AF54" s="207">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="AG54" s="208" t="s">
+      <c r="AG54" s="207" t="s">
         <v>131</v>
       </c>
-      <c r="AH54" s="196"/>
-      <c r="AI54" s="196"/>
-      <c r="AJ54" s="196"/>
-      <c r="AK54" s="196"/>
-      <c r="AL54" s="196"/>
-      <c r="AM54" s="196"/>
-      <c r="AN54" s="209"/>
+      <c r="AH54" s="195"/>
+      <c r="AI54" s="195"/>
+      <c r="AJ54" s="195"/>
+      <c r="AK54" s="195"/>
+      <c r="AL54" s="195"/>
+      <c r="AM54" s="195"/>
+      <c r="AN54" s="208"/>
     </row>
     <row r="55" spans="1:47" ht="16" x14ac:dyDescent="0.2">
       <c r="N55" s="31"/>
@@ -5953,7 +6000,7 @@
       <c r="AT57" s="6"/>
     </row>
     <row r="58" spans="1:47" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="166">
+      <c r="A58" s="165">
         <v>6</v>
       </c>
       <c r="B58" s="56"/>
@@ -6071,39 +6118,39 @@
       <c r="P60" s="26"/>
       <c r="Q60" s="26"/>
       <c r="R60" s="26"/>
-      <c r="U60" s="195">
+      <c r="U60" s="194">
         <f>U54+1</f>
         <v>11</v>
       </c>
-      <c r="V60" s="196"/>
-      <c r="W60" s="196"/>
-      <c r="X60" s="196"/>
-      <c r="Y60" s="196"/>
-      <c r="Z60" s="196"/>
-      <c r="AA60" s="196"/>
-      <c r="AB60" s="196"/>
-      <c r="AC60" s="196"/>
-      <c r="AD60" s="197"/>
-      <c r="AE60" s="197"/>
-      <c r="AF60" s="208">
-        <f t="shared" si="1"/>
+      <c r="V60" s="195"/>
+      <c r="W60" s="195"/>
+      <c r="X60" s="195"/>
+      <c r="Y60" s="195"/>
+      <c r="Z60" s="195"/>
+      <c r="AA60" s="195"/>
+      <c r="AB60" s="195"/>
+      <c r="AC60" s="195"/>
+      <c r="AD60" s="196"/>
+      <c r="AE60" s="196"/>
+      <c r="AF60" s="207">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="AG60" s="208" t="s">
+      <c r="AG60" s="207" t="s">
         <v>132</v>
       </c>
-      <c r="AH60" s="196"/>
-      <c r="AI60" s="196"/>
-      <c r="AJ60" s="196"/>
-      <c r="AK60" s="196"/>
-      <c r="AL60" s="196"/>
-      <c r="AM60" s="196"/>
-      <c r="AN60" s="196"/>
-      <c r="AO60" s="196"/>
-      <c r="AP60" s="196"/>
-      <c r="AQ60" s="196"/>
-      <c r="AR60" s="196"/>
-      <c r="AS60" s="196"/>
+      <c r="AH60" s="195"/>
+      <c r="AI60" s="195"/>
+      <c r="AJ60" s="195"/>
+      <c r="AK60" s="195"/>
+      <c r="AL60" s="195"/>
+      <c r="AM60" s="195"/>
+      <c r="AN60" s="195"/>
+      <c r="AO60" s="195"/>
+      <c r="AP60" s="195"/>
+      <c r="AQ60" s="195"/>
+      <c r="AR60" s="195"/>
+      <c r="AS60" s="195"/>
       <c r="AT60" s="23"/>
     </row>
     <row r="61" spans="1:47" ht="16" x14ac:dyDescent="0.2">
@@ -6330,7 +6377,7 @@
       </c>
     </row>
     <row r="66" spans="1:46" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="163">
+      <c r="A66" s="162">
         <v>7</v>
       </c>
       <c r="B66" s="49"/>
@@ -6392,36 +6439,36 @@
       <c r="P67" s="26"/>
       <c r="Q67" s="26"/>
       <c r="R67" s="26"/>
-      <c r="U67" s="195">
+      <c r="U67" s="194">
         <f>U60+1</f>
         <v>12</v>
       </c>
-      <c r="V67" s="196"/>
-      <c r="W67" s="196"/>
-      <c r="X67" s="196"/>
-      <c r="Y67" s="196"/>
-      <c r="Z67" s="196"/>
-      <c r="AA67" s="196"/>
-      <c r="AB67" s="196"/>
-      <c r="AC67" s="196"/>
-      <c r="AD67" s="197"/>
-      <c r="AE67" s="197"/>
-      <c r="AF67" s="208">
-        <f t="shared" si="1"/>
+      <c r="V67" s="195"/>
+      <c r="W67" s="195"/>
+      <c r="X67" s="195"/>
+      <c r="Y67" s="195"/>
+      <c r="Z67" s="195"/>
+      <c r="AA67" s="195"/>
+      <c r="AB67" s="195"/>
+      <c r="AC67" s="195"/>
+      <c r="AD67" s="196"/>
+      <c r="AE67" s="196"/>
+      <c r="AF67" s="207">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="AG67" s="208" t="s">
+      <c r="AG67" s="207" t="s">
         <v>133</v>
       </c>
-      <c r="AH67" s="196"/>
-      <c r="AI67" s="196"/>
-      <c r="AJ67" s="196"/>
-      <c r="AK67" s="196"/>
-      <c r="AL67" s="196"/>
-      <c r="AM67" s="196"/>
-      <c r="AN67" s="196"/>
-      <c r="AO67" s="196"/>
-      <c r="AP67" s="209"/>
+      <c r="AH67" s="195"/>
+      <c r="AI67" s="195"/>
+      <c r="AJ67" s="195"/>
+      <c r="AK67" s="195"/>
+      <c r="AL67" s="195"/>
+      <c r="AM67" s="195"/>
+      <c r="AN67" s="195"/>
+      <c r="AO67" s="195"/>
+      <c r="AP67" s="208"/>
     </row>
     <row r="68" spans="1:46" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="55"/>
@@ -6661,39 +6708,39 @@
       <c r="P73" s="26"/>
       <c r="Q73" s="26"/>
       <c r="R73" s="26"/>
-      <c r="U73" s="195">
+      <c r="U73" s="194">
         <f>U67+1</f>
         <v>13</v>
       </c>
-      <c r="V73" s="196"/>
-      <c r="W73" s="196"/>
-      <c r="X73" s="196"/>
-      <c r="Y73" s="196"/>
-      <c r="Z73" s="196"/>
-      <c r="AA73" s="196"/>
-      <c r="AB73" s="196"/>
-      <c r="AC73" s="196"/>
-      <c r="AD73" s="197"/>
-      <c r="AE73" s="197"/>
-      <c r="AF73" s="208">
-        <f t="shared" si="1"/>
+      <c r="V73" s="195"/>
+      <c r="W73" s="195"/>
+      <c r="X73" s="195"/>
+      <c r="Y73" s="195"/>
+      <c r="Z73" s="195"/>
+      <c r="AA73" s="195"/>
+      <c r="AB73" s="195"/>
+      <c r="AC73" s="195"/>
+      <c r="AD73" s="196"/>
+      <c r="AE73" s="196"/>
+      <c r="AF73" s="207">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="AG73" s="208" t="s">
+      <c r="AG73" s="207" t="s">
         <v>208</v>
       </c>
-      <c r="AH73" s="196"/>
-      <c r="AI73" s="196"/>
-      <c r="AJ73" s="196"/>
-      <c r="AK73" s="196"/>
-      <c r="AL73" s="196"/>
-      <c r="AM73" s="196"/>
-      <c r="AN73" s="196"/>
-      <c r="AO73" s="196"/>
-      <c r="AP73" s="209"/>
+      <c r="AH73" s="195"/>
+      <c r="AI73" s="195"/>
+      <c r="AJ73" s="195"/>
+      <c r="AK73" s="195"/>
+      <c r="AL73" s="195"/>
+      <c r="AM73" s="195"/>
+      <c r="AN73" s="195"/>
+      <c r="AO73" s="195"/>
+      <c r="AP73" s="208"/>
     </row>
     <row r="74" spans="1:46" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="166">
+      <c r="A74" s="165">
         <v>8</v>
       </c>
       <c r="B74" s="56"/>
@@ -6965,33 +7012,33 @@
       <c r="P79" s="26"/>
       <c r="Q79" s="26"/>
       <c r="R79" s="26"/>
-      <c r="U79" s="195">
+      <c r="U79" s="194">
         <f>U73+1</f>
         <v>14</v>
       </c>
-      <c r="V79" s="196"/>
-      <c r="W79" s="196"/>
-      <c r="X79" s="196"/>
-      <c r="Y79" s="196"/>
-      <c r="Z79" s="196"/>
-      <c r="AA79" s="196"/>
-      <c r="AB79" s="196"/>
-      <c r="AC79" s="196"/>
-      <c r="AD79" s="197"/>
-      <c r="AE79" s="197"/>
-      <c r="AF79" s="208">
-        <f t="shared" ref="AF79:AF138" si="16">U79</f>
+      <c r="V79" s="195"/>
+      <c r="W79" s="195"/>
+      <c r="X79" s="195"/>
+      <c r="Y79" s="195"/>
+      <c r="Z79" s="195"/>
+      <c r="AA79" s="195"/>
+      <c r="AB79" s="195"/>
+      <c r="AC79" s="195"/>
+      <c r="AD79" s="196"/>
+      <c r="AE79" s="196"/>
+      <c r="AF79" s="207">
+        <f t="shared" ref="AF79:AF138" si="19">U79</f>
         <v>14</v>
       </c>
-      <c r="AG79" s="208" t="s">
+      <c r="AG79" s="207" t="s">
         <v>134</v>
       </c>
-      <c r="AH79" s="196"/>
-      <c r="AI79" s="196"/>
-      <c r="AJ79" s="196"/>
-      <c r="AK79" s="196"/>
-      <c r="AL79" s="196"/>
-      <c r="AM79" s="209"/>
+      <c r="AH79" s="195"/>
+      <c r="AI79" s="195"/>
+      <c r="AJ79" s="195"/>
+      <c r="AK79" s="195"/>
+      <c r="AL79" s="195"/>
+      <c r="AM79" s="208"/>
     </row>
     <row r="80" spans="1:46" ht="16" x14ac:dyDescent="0.2">
       <c r="N80" s="31"/>
@@ -7093,7 +7140,7 @@
       <c r="AT81" s="6"/>
     </row>
     <row r="82" spans="1:46" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="163">
+      <c r="A82" s="162">
         <v>9</v>
       </c>
       <c r="B82" s="49"/>
@@ -7266,33 +7313,33 @@
       <c r="P85" s="26"/>
       <c r="Q85" s="26"/>
       <c r="R85" s="26"/>
-      <c r="U85" s="195">
+      <c r="U85" s="194">
         <f>U79+1</f>
         <v>15</v>
       </c>
-      <c r="V85" s="196"/>
-      <c r="W85" s="196"/>
-      <c r="X85" s="196"/>
-      <c r="Y85" s="196"/>
-      <c r="Z85" s="196"/>
-      <c r="AA85" s="196"/>
-      <c r="AB85" s="196"/>
-      <c r="AC85" s="196"/>
-      <c r="AD85" s="197"/>
-      <c r="AE85" s="197"/>
-      <c r="AF85" s="208">
-        <f t="shared" si="16"/>
+      <c r="V85" s="195"/>
+      <c r="W85" s="195"/>
+      <c r="X85" s="195"/>
+      <c r="Y85" s="195"/>
+      <c r="Z85" s="195"/>
+      <c r="AA85" s="195"/>
+      <c r="AB85" s="195"/>
+      <c r="AC85" s="195"/>
+      <c r="AD85" s="196"/>
+      <c r="AE85" s="196"/>
+      <c r="AF85" s="207">
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
-      <c r="AG85" s="208" t="s">
+      <c r="AG85" s="207" t="s">
         <v>135</v>
       </c>
-      <c r="AH85" s="196"/>
-      <c r="AI85" s="196"/>
-      <c r="AJ85" s="196"/>
-      <c r="AK85" s="196"/>
-      <c r="AL85" s="196"/>
-      <c r="AM85" s="209"/>
+      <c r="AH85" s="195"/>
+      <c r="AI85" s="195"/>
+      <c r="AJ85" s="195"/>
+      <c r="AK85" s="195"/>
+      <c r="AL85" s="195"/>
+      <c r="AM85" s="208"/>
     </row>
     <row r="86" spans="1:46" ht="16" x14ac:dyDescent="0.2">
       <c r="N86" s="31"/>
@@ -7501,36 +7548,36 @@
       <c r="P91" s="26"/>
       <c r="Q91" s="26"/>
       <c r="R91" s="26"/>
-      <c r="U91" s="195">
+      <c r="U91" s="194">
         <f>U85+1</f>
         <v>16</v>
       </c>
-      <c r="V91" s="196"/>
-      <c r="W91" s="196"/>
-      <c r="X91" s="196"/>
-      <c r="Y91" s="196"/>
-      <c r="Z91" s="196"/>
-      <c r="AA91" s="196"/>
-      <c r="AB91" s="196"/>
-      <c r="AC91" s="196"/>
-      <c r="AD91" s="197"/>
-      <c r="AE91" s="197"/>
-      <c r="AF91" s="208">
-        <f t="shared" si="16"/>
+      <c r="V91" s="195"/>
+      <c r="W91" s="195"/>
+      <c r="X91" s="195"/>
+      <c r="Y91" s="195"/>
+      <c r="Z91" s="195"/>
+      <c r="AA91" s="195"/>
+      <c r="AB91" s="195"/>
+      <c r="AC91" s="195"/>
+      <c r="AD91" s="196"/>
+      <c r="AE91" s="196"/>
+      <c r="AF91" s="207">
+        <f t="shared" si="19"/>
         <v>16</v>
       </c>
-      <c r="AG91" s="196" t="s">
+      <c r="AG91" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="AH91" s="196"/>
-      <c r="AI91" s="196"/>
-      <c r="AJ91" s="196"/>
-      <c r="AK91" s="196"/>
-      <c r="AL91" s="209"/>
-      <c r="AM91" s="209"/>
+      <c r="AH91" s="195"/>
+      <c r="AI91" s="195"/>
+      <c r="AJ91" s="195"/>
+      <c r="AK91" s="195"/>
+      <c r="AL91" s="208"/>
+      <c r="AM91" s="208"/>
     </row>
     <row r="92" spans="1:46" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="163">
+      <c r="A92" s="162">
         <v>10</v>
       </c>
       <c r="B92" s="49" t="s">
@@ -7547,7 +7594,7 @@
       <c r="K92" s="53"/>
       <c r="L92" s="53"/>
       <c r="M92" s="53">
-        <f t="shared" ref="M92:M97" si="17">SUM(G92:K92)</f>
+        <f t="shared" ref="M92:M97" si="20">SUM(G92:K92)</f>
         <v>0</v>
       </c>
       <c r="N92" s="31"/>
@@ -7625,7 +7672,7 @@
       <c r="K93" s="34"/>
       <c r="L93" s="34"/>
       <c r="M93" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N93" s="31"/>
@@ -7650,7 +7697,7 @@
       </c>
       <c r="AE93" s="6"/>
       <c r="AF93" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>16</v>
       </c>
       <c r="AJ93" s="6" t="s">
@@ -7681,7 +7728,7 @@
       <c r="K94" s="34"/>
       <c r="L94" s="34"/>
       <c r="M94" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N94" s="31"/>
@@ -7706,7 +7753,7 @@
       </c>
       <c r="AE94" s="6"/>
       <c r="AF94" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>16</v>
       </c>
       <c r="AJ94" s="6" t="s">
@@ -7737,7 +7784,7 @@
       <c r="K95" s="91"/>
       <c r="L95" s="91"/>
       <c r="M95" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N95" s="31"/>
@@ -7762,7 +7809,7 @@
       </c>
       <c r="AE95" s="6"/>
       <c r="AF95" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>16</v>
       </c>
       <c r="AJ95" s="6" t="s">
@@ -7793,7 +7840,7 @@
       <c r="K96" s="91"/>
       <c r="L96" s="91"/>
       <c r="M96" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N96" s="31"/>
@@ -7841,7 +7888,7 @@
       <c r="K97" s="95"/>
       <c r="L97" s="95"/>
       <c r="M97" s="70">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N97" s="31">
@@ -7860,8 +7907,8 @@
       <c r="AA97" s="1"/>
       <c r="AB97" s="1"/>
       <c r="AC97" s="1"/>
-      <c r="AD97" s="126"/>
-      <c r="AE97" s="126"/>
+      <c r="AD97" s="125"/>
+      <c r="AE97" s="125"/>
       <c r="AF97" s="1"/>
     </row>
     <row r="98" spans="1:46" ht="16" x14ac:dyDescent="0.2">
@@ -7883,45 +7930,45 @@
       <c r="P98" s="26"/>
       <c r="Q98" s="26"/>
       <c r="R98" s="26"/>
-      <c r="U98" s="210">
+      <c r="U98" s="209">
         <f>U91+1</f>
         <v>17</v>
       </c>
-      <c r="V98" s="196"/>
-      <c r="W98" s="196"/>
-      <c r="X98" s="196"/>
-      <c r="Y98" s="196"/>
-      <c r="Z98" s="196"/>
-      <c r="AA98" s="196"/>
-      <c r="AB98" s="196"/>
-      <c r="AC98" s="196"/>
-      <c r="AD98" s="197"/>
-      <c r="AE98" s="197"/>
-      <c r="AF98" s="208">
-        <f t="shared" si="16"/>
+      <c r="V98" s="195"/>
+      <c r="W98" s="195"/>
+      <c r="X98" s="195"/>
+      <c r="Y98" s="195"/>
+      <c r="Z98" s="195"/>
+      <c r="AA98" s="195"/>
+      <c r="AB98" s="195"/>
+      <c r="AC98" s="195"/>
+      <c r="AD98" s="196"/>
+      <c r="AE98" s="196"/>
+      <c r="AF98" s="207">
+        <f t="shared" si="19"/>
         <v>17</v>
       </c>
-      <c r="AG98" s="211" t="s">
+      <c r="AG98" s="210" t="s">
         <v>45</v>
       </c>
-      <c r="AH98" s="196"/>
-      <c r="AI98" s="208" t="s">
+      <c r="AH98" s="195"/>
+      <c r="AI98" s="207" t="s">
         <v>41</v>
       </c>
-      <c r="AJ98" s="212"/>
-      <c r="AK98" s="196" t="s">
+      <c r="AJ98" s="211"/>
+      <c r="AK98" s="195" t="s">
         <v>37</v>
       </c>
-      <c r="AL98" s="196" t="s">
+      <c r="AL98" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="AM98" s="196" t="s">
+      <c r="AM98" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="AN98" s="196" t="s">
+      <c r="AN98" s="195" t="s">
         <v>38</v>
       </c>
-      <c r="AO98" s="209" t="s">
+      <c r="AO98" s="208" t="s">
         <v>39</v>
       </c>
     </row>
@@ -7963,7 +8010,7 @@
       </c>
       <c r="AE99" s="86"/>
       <c r="AF99" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>17</v>
       </c>
       <c r="AH99" s="10" t="s">
@@ -8001,7 +8048,7 @@
       <c r="Q100" s="26"/>
       <c r="R100" s="26"/>
       <c r="U100" s="99">
-        <f t="shared" ref="U100:U101" si="18">U99</f>
+        <f t="shared" ref="U100:U101" si="21">U99</f>
         <v>17</v>
       </c>
       <c r="V100" s="1"/>
@@ -8019,7 +8066,7 @@
       </c>
       <c r="AE100" s="6"/>
       <c r="AF100" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>17</v>
       </c>
       <c r="AH100" s="10"/>
@@ -8053,7 +8100,7 @@
       <c r="Q101" s="26"/>
       <c r="R101" s="26"/>
       <c r="U101" s="99">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>17</v>
       </c>
       <c r="V101" s="1"/>
@@ -8071,7 +8118,7 @@
       </c>
       <c r="AE101" s="6"/>
       <c r="AF101" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>17</v>
       </c>
       <c r="AH101" s="10"/>
@@ -8141,30 +8188,30 @@
         <v>5</v>
       </c>
       <c r="N104" s="26"/>
-      <c r="U104" s="195">
+      <c r="U104" s="194">
         <f>U98+1</f>
         <v>18</v>
       </c>
-      <c r="V104" s="196"/>
-      <c r="W104" s="196"/>
-      <c r="X104" s="196"/>
-      <c r="Y104" s="196"/>
-      <c r="Z104" s="196"/>
-      <c r="AA104" s="196"/>
-      <c r="AB104" s="196"/>
-      <c r="AC104" s="196"/>
-      <c r="AD104" s="197"/>
-      <c r="AE104" s="197"/>
-      <c r="AF104" s="203">
-        <f t="shared" si="16"/>
+      <c r="V104" s="195"/>
+      <c r="W104" s="195"/>
+      <c r="X104" s="195"/>
+      <c r="Y104" s="195"/>
+      <c r="Z104" s="195"/>
+      <c r="AA104" s="195"/>
+      <c r="AB104" s="195"/>
+      <c r="AC104" s="195"/>
+      <c r="AD104" s="196"/>
+      <c r="AE104" s="196"/>
+      <c r="AF104" s="202">
+        <f t="shared" si="19"/>
         <v>18</v>
       </c>
-      <c r="AG104" s="213"/>
-      <c r="AH104" s="208" t="s">
+      <c r="AG104" s="212"/>
+      <c r="AH104" s="207" t="s">
         <v>46</v>
       </c>
-      <c r="AI104" s="208"/>
-      <c r="AJ104" s="212" t="s">
+      <c r="AI104" s="207"/>
+      <c r="AJ104" s="211" t="s">
         <v>47</v>
       </c>
       <c r="AK104" t="str">
@@ -8232,7 +8279,7 @@
       </c>
       <c r="AE105" s="6"/>
       <c r="AF105" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>18</v>
       </c>
       <c r="AJ105" s="6" t="s">
@@ -8269,7 +8316,7 @@
       </c>
       <c r="AE106" s="6"/>
       <c r="AF106" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>18</v>
       </c>
       <c r="AJ106" s="6" t="s">
@@ -8306,7 +8353,7 @@
       </c>
       <c r="AE107" s="6"/>
       <c r="AF107" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>18</v>
       </c>
       <c r="AJ107" s="6" t="s">
@@ -8365,33 +8412,33 @@
       <c r="AF109" s="1"/>
     </row>
     <row r="110" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="U110" s="195">
+      <c r="U110" s="194">
         <f>U104+1</f>
         <v>19</v>
       </c>
-      <c r="V110" s="196"/>
-      <c r="W110" s="196"/>
-      <c r="X110" s="196"/>
-      <c r="Y110" s="196"/>
-      <c r="Z110" s="196"/>
-      <c r="AA110" s="196"/>
-      <c r="AB110" s="196"/>
-      <c r="AC110" s="196"/>
-      <c r="AD110" s="197"/>
-      <c r="AE110" s="197"/>
-      <c r="AF110" s="203">
-        <f t="shared" si="16"/>
+      <c r="V110" s="195"/>
+      <c r="W110" s="195"/>
+      <c r="X110" s="195"/>
+      <c r="Y110" s="195"/>
+      <c r="Z110" s="195"/>
+      <c r="AA110" s="195"/>
+      <c r="AB110" s="195"/>
+      <c r="AC110" s="195"/>
+      <c r="AD110" s="196"/>
+      <c r="AE110" s="196"/>
+      <c r="AF110" s="202">
+        <f t="shared" si="19"/>
         <v>19</v>
       </c>
-      <c r="AG110" s="213" t="s">
+      <c r="AG110" s="212" t="s">
         <v>36</v>
       </c>
-      <c r="AH110" s="196"/>
-      <c r="AI110" s="196"/>
-      <c r="AJ110" s="196"/>
-      <c r="AK110" s="196"/>
-      <c r="AL110" s="196"/>
-      <c r="AM110" s="209"/>
+      <c r="AH110" s="195"/>
+      <c r="AI110" s="195"/>
+      <c r="AJ110" s="195"/>
+      <c r="AK110" s="195"/>
+      <c r="AL110" s="195"/>
+      <c r="AM110" s="208"/>
     </row>
     <row r="111" spans="1:46" x14ac:dyDescent="0.2">
       <c r="U111" s="99"/>
@@ -8594,33 +8641,33 @@
       <c r="AF116" s="1"/>
     </row>
     <row r="117" spans="21:46" x14ac:dyDescent="0.2">
-      <c r="U117" s="195">
+      <c r="U117" s="194">
         <f>U110+1</f>
         <v>20</v>
       </c>
-      <c r="V117" s="196"/>
-      <c r="W117" s="196"/>
-      <c r="X117" s="196"/>
-      <c r="Y117" s="196"/>
-      <c r="Z117" s="196"/>
-      <c r="AA117" s="196"/>
-      <c r="AB117" s="196"/>
-      <c r="AC117" s="196"/>
-      <c r="AD117" s="197"/>
-      <c r="AE117" s="197"/>
-      <c r="AF117" s="208">
-        <f t="shared" si="16"/>
+      <c r="V117" s="195"/>
+      <c r="W117" s="195"/>
+      <c r="X117" s="195"/>
+      <c r="Y117" s="195"/>
+      <c r="Z117" s="195"/>
+      <c r="AA117" s="195"/>
+      <c r="AB117" s="195"/>
+      <c r="AC117" s="195"/>
+      <c r="AD117" s="196"/>
+      <c r="AE117" s="196"/>
+      <c r="AF117" s="207">
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
-      <c r="AG117" s="196" t="s">
+      <c r="AG117" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="AH117" s="196"/>
-      <c r="AI117" s="196"/>
-      <c r="AJ117" s="196"/>
-      <c r="AK117" s="196"/>
-      <c r="AL117" s="196"/>
-      <c r="AM117" s="209"/>
+      <c r="AH117" s="195"/>
+      <c r="AI117" s="195"/>
+      <c r="AJ117" s="195"/>
+      <c r="AK117" s="195"/>
+      <c r="AL117" s="195"/>
+      <c r="AM117" s="208"/>
     </row>
     <row r="118" spans="21:46" x14ac:dyDescent="0.2">
       <c r="U118" s="46"/>
@@ -8823,31 +8870,31 @@
       <c r="AF123" s="1"/>
     </row>
     <row r="124" spans="21:46" x14ac:dyDescent="0.2">
-      <c r="U124" s="195">
+      <c r="U124" s="194">
         <f>U117+1</f>
         <v>21</v>
       </c>
-      <c r="V124" s="196"/>
-      <c r="W124" s="196"/>
-      <c r="X124" s="196"/>
-      <c r="Y124" s="196"/>
-      <c r="Z124" s="196"/>
-      <c r="AA124" s="196"/>
-      <c r="AB124" s="196"/>
-      <c r="AC124" s="196"/>
-      <c r="AD124" s="197"/>
-      <c r="AE124" s="197"/>
-      <c r="AF124" s="208">
-        <f t="shared" si="16"/>
+      <c r="V124" s="195"/>
+      <c r="W124" s="195"/>
+      <c r="X124" s="195"/>
+      <c r="Y124" s="195"/>
+      <c r="Z124" s="195"/>
+      <c r="AA124" s="195"/>
+      <c r="AB124" s="195"/>
+      <c r="AC124" s="195"/>
+      <c r="AD124" s="196"/>
+      <c r="AE124" s="196"/>
+      <c r="AF124" s="207">
+        <f t="shared" si="19"/>
         <v>21</v>
       </c>
-      <c r="AG124" s="196" t="s">
+      <c r="AG124" s="195" t="s">
         <v>53</v>
       </c>
-      <c r="AH124" s="196"/>
-      <c r="AI124" s="196"/>
-      <c r="AJ124" s="196"/>
-      <c r="AK124" s="209"/>
+      <c r="AH124" s="195"/>
+      <c r="AI124" s="195"/>
+      <c r="AJ124" s="195"/>
+      <c r="AK124" s="208"/>
     </row>
     <row r="125" spans="21:46" x14ac:dyDescent="0.2">
       <c r="U125" s="99"/>
@@ -9045,36 +9092,36 @@
       <c r="AA130" s="1"/>
       <c r="AB130" s="1"/>
       <c r="AC130" s="1"/>
-      <c r="AD130" s="126"/>
-      <c r="AE130" s="126"/>
+      <c r="AD130" s="125"/>
+      <c r="AE130" s="125"/>
       <c r="AF130" s="1"/>
     </row>
     <row r="131" spans="21:48" x14ac:dyDescent="0.2">
-      <c r="U131" s="210">
+      <c r="U131" s="209">
         <f>U124+1</f>
         <v>22</v>
       </c>
-      <c r="V131" s="196"/>
-      <c r="W131" s="196"/>
-      <c r="X131" s="196"/>
-      <c r="Y131" s="196"/>
-      <c r="Z131" s="196"/>
-      <c r="AA131" s="196"/>
-      <c r="AB131" s="196"/>
-      <c r="AC131" s="196"/>
-      <c r="AD131" s="197"/>
-      <c r="AE131" s="197"/>
-      <c r="AF131" s="208">
-        <f t="shared" si="16"/>
+      <c r="V131" s="195"/>
+      <c r="W131" s="195"/>
+      <c r="X131" s="195"/>
+      <c r="Y131" s="195"/>
+      <c r="Z131" s="195"/>
+      <c r="AA131" s="195"/>
+      <c r="AB131" s="195"/>
+      <c r="AC131" s="195"/>
+      <c r="AD131" s="196"/>
+      <c r="AE131" s="196"/>
+      <c r="AF131" s="207">
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
-      <c r="AG131" s="196" t="s">
+      <c r="AG131" s="195" t="s">
         <v>16</v>
       </c>
-      <c r="AH131" s="196"/>
-      <c r="AI131" s="196"/>
-      <c r="AJ131" s="196"/>
-      <c r="AK131" s="209"/>
+      <c r="AH131" s="195"/>
+      <c r="AI131" s="195"/>
+      <c r="AJ131" s="195"/>
+      <c r="AK131" s="208"/>
     </row>
     <row r="132" spans="21:48" x14ac:dyDescent="0.2">
       <c r="U132" s="99"/>
@@ -9283,38 +9330,38 @@
       <c r="AA137" s="1"/>
       <c r="AB137" s="1"/>
       <c r="AC137" s="1"/>
-      <c r="AD137" s="126"/>
-      <c r="AE137" s="126"/>
+      <c r="AD137" s="125"/>
+      <c r="AE137" s="125"/>
       <c r="AF137" s="1"/>
     </row>
     <row r="138" spans="21:48" x14ac:dyDescent="0.2">
-      <c r="U138" s="210">
+      <c r="U138" s="209">
         <f>U131+1</f>
         <v>23</v>
       </c>
-      <c r="V138" s="196"/>
-      <c r="W138" s="196"/>
-      <c r="X138" s="196"/>
-      <c r="Y138" s="196"/>
-      <c r="Z138" s="196"/>
-      <c r="AA138" s="196"/>
-      <c r="AB138" s="196"/>
-      <c r="AC138" s="196"/>
-      <c r="AD138" s="197"/>
-      <c r="AE138" s="197"/>
-      <c r="AF138" s="208">
-        <f t="shared" si="16"/>
+      <c r="V138" s="195"/>
+      <c r="W138" s="195"/>
+      <c r="X138" s="195"/>
+      <c r="Y138" s="195"/>
+      <c r="Z138" s="195"/>
+      <c r="AA138" s="195"/>
+      <c r="AB138" s="195"/>
+      <c r="AC138" s="195"/>
+      <c r="AD138" s="196"/>
+      <c r="AE138" s="196"/>
+      <c r="AF138" s="207">
+        <f t="shared" si="19"/>
         <v>23</v>
       </c>
-      <c r="AG138" s="196" t="s">
+      <c r="AG138" s="195" t="s">
         <v>42</v>
       </c>
-      <c r="AH138" s="196"/>
-      <c r="AI138" s="196"/>
-      <c r="AJ138" s="196"/>
-      <c r="AK138" s="196"/>
-      <c r="AL138" s="196"/>
-      <c r="AM138" s="209"/>
+      <c r="AH138" s="195"/>
+      <c r="AI138" s="195"/>
+      <c r="AJ138" s="195"/>
+      <c r="AK138" s="195"/>
+      <c r="AL138" s="195"/>
+      <c r="AM138" s="208"/>
     </row>
     <row r="139" spans="21:48" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="U139" s="99"/>
@@ -9396,18 +9443,18 @@
       <c r="AJ140" t="s">
         <v>6</v>
       </c>
-      <c r="AK140" s="220"/>
-      <c r="AL140" s="221"/>
-      <c r="AM140" s="221"/>
-      <c r="AN140" s="221"/>
-      <c r="AO140" s="221"/>
-      <c r="AP140" s="221"/>
-      <c r="AQ140" s="221"/>
-      <c r="AR140" s="221"/>
-      <c r="AS140" s="221"/>
-      <c r="AT140" s="221"/>
-      <c r="AU140" s="221"/>
-      <c r="AV140" s="222"/>
+      <c r="AK140" s="219"/>
+      <c r="AL140" s="220"/>
+      <c r="AM140" s="220"/>
+      <c r="AN140" s="220"/>
+      <c r="AO140" s="220"/>
+      <c r="AP140" s="220"/>
+      <c r="AQ140" s="220"/>
+      <c r="AR140" s="220"/>
+      <c r="AS140" s="220"/>
+      <c r="AT140" s="220"/>
+      <c r="AU140" s="220"/>
+      <c r="AV140" s="221"/>
     </row>
     <row r="141" spans="21:48" x14ac:dyDescent="0.2">
       <c r="U141" s="99">
@@ -9432,7 +9479,7 @@
       <c r="AJ141" t="s">
         <v>7</v>
       </c>
-      <c r="AK141" s="223"/>
+      <c r="AK141" s="222"/>
       <c r="AL141" s="6"/>
       <c r="AM141" s="6"/>
       <c r="AN141" s="6"/>
@@ -9468,7 +9515,7 @@
       <c r="AJ142" t="s">
         <v>4</v>
       </c>
-      <c r="AK142" s="223"/>
+      <c r="AK142" s="222"/>
       <c r="AL142" s="6"/>
       <c r="AM142" s="6"/>
       <c r="AN142" s="6"/>
@@ -9499,21 +9546,21 @@
       <c r="AJ143" t="s">
         <v>12</v>
       </c>
-      <c r="AK143" s="224"/>
-      <c r="AL143" s="225"/>
-      <c r="AM143" s="225"/>
-      <c r="AN143" s="225"/>
-      <c r="AO143" s="225"/>
-      <c r="AP143" s="225"/>
-      <c r="AQ143" s="225"/>
-      <c r="AR143" s="225"/>
-      <c r="AS143" s="225"/>
-      <c r="AT143" s="225"/>
-      <c r="AU143" s="225"/>
-      <c r="AV143" s="226"/>
+      <c r="AK143" s="223"/>
+      <c r="AL143" s="224"/>
+      <c r="AM143" s="224"/>
+      <c r="AN143" s="224"/>
+      <c r="AO143" s="224"/>
+      <c r="AP143" s="224"/>
+      <c r="AQ143" s="224"/>
+      <c r="AR143" s="224"/>
+      <c r="AS143" s="224"/>
+      <c r="AT143" s="224"/>
+      <c r="AU143" s="224"/>
+      <c r="AV143" s="225"/>
     </row>
     <row r="144" spans="21:48" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AD144" s="126"/>
+      <c r="AD144" s="125"/>
       <c r="AE144" s="6"/>
       <c r="AF144" s="1"/>
       <c r="AJ144" t="s">
@@ -9555,33 +9602,33 @@
       <c r="AF145" s="1"/>
     </row>
     <row r="146" spans="21:34" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="U146" s="124" t="s">
+      <c r="U146" s="123" t="s">
         <v>170</v>
       </c>
       <c r="V146" s="97"/>
       <c r="W146" s="97"/>
       <c r="X146" s="97"/>
       <c r="Y146" s="97"/>
-      <c r="Z146" s="193">
+      <c r="Z146" s="192">
         <f>AD146*Z145</f>
         <v>0</v>
       </c>
       <c r="AA146" s="97"/>
       <c r="AB146" s="97"/>
       <c r="AC146" s="97"/>
-      <c r="AD146" s="194">
+      <c r="AD146" s="193">
         <f>AE146/AD145</f>
         <v>0</v>
       </c>
-      <c r="AE146" s="249">
+      <c r="AE146" s="248">
         <f>SUM(AE14:AE144)</f>
         <v>0</v>
       </c>
-      <c r="AF146" s="250" t="s">
+      <c r="AF146" s="249" t="s">
         <v>169</v>
       </c>
-      <c r="AG146" s="201"/>
-      <c r="AH146" s="202"/>
+      <c r="AG146" s="200"/>
+      <c r="AH146" s="201"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -9713,12 +9760,12 @@
       </c>
     </row>
     <row r="11" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="198" t="s">
+      <c r="A11" s="197" t="s">
         <v>215</v>
       </c>
-      <c r="B11" s="263"/>
-      <c r="C11" s="263"/>
-      <c r="D11" s="200"/>
+      <c r="B11" s="262"/>
+      <c r="C11" s="262"/>
+      <c r="D11" s="199"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="13"/>
@@ -9797,7 +9844,7 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="253" t="s">
+      <c r="A14" s="252" t="s">
         <v>117</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -9892,7 +9939,7 @@
         <v>214</v>
       </c>
       <c r="G16" s="106"/>
-      <c r="H16" s="262" t="s">
+      <c r="H16" s="261" t="s">
         <v>216</v>
       </c>
       <c r="K16" t="s">
@@ -9910,7 +9957,7 @@
       <c r="U16" s="6"/>
     </row>
     <row r="17" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="252" t="s">
+      <c r="A17" s="251" t="s">
         <v>203</v>
       </c>
       <c r="B17" s="1"/>
@@ -10020,7 +10067,7 @@
       <c r="U20" s="6"/>
     </row>
     <row r="21" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="252" t="s">
+      <c r="A21" s="251" t="s">
         <v>204</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -10101,11 +10148,11 @@
     </row>
     <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
-      <c r="B24" s="150" t="s">
+      <c r="B24" s="149" t="s">
         <v>147</v>
       </c>
       <c r="C24" s="97"/>
-      <c r="D24" s="124" t="s">
+      <c r="D24" s="123" t="s">
         <v>88</v>
       </c>
       <c r="E24" s="97" t="s">
@@ -10117,121 +10164,121 @@
       <c r="G24" s="97" t="s">
         <v>146</v>
       </c>
-      <c r="H24" s="232" t="s">
+      <c r="H24" s="231" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
-      <c r="B25" s="151" t="s">
+      <c r="B25" s="150" t="s">
         <v>99</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="153">
+      <c r="D25" s="152">
         <v>236</v>
       </c>
-      <c r="E25" s="154">
+      <c r="E25" s="153">
         <v>821</v>
       </c>
-      <c r="F25" s="154">
+      <c r="F25" s="153">
         <v>857</v>
       </c>
-      <c r="G25" s="229">
+      <c r="G25" s="228">
         <v>295</v>
       </c>
-      <c r="H25" s="261"/>
-      <c r="K25" s="123" t="s">
+      <c r="H25" s="260"/>
+      <c r="K25" s="122" t="s">
         <v>173</v>
       </c>
-      <c r="L25" s="191"/>
-      <c r="M25" s="218"/>
+      <c r="L25" s="190"/>
+      <c r="M25" s="217"/>
     </row>
     <row r="26" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
-      <c r="B26" s="128" t="s">
+      <c r="B26" s="127" t="s">
         <v>100</v>
       </c>
       <c r="C26" s="15"/>
-      <c r="D26" s="155">
+      <c r="D26" s="154">
         <v>742</v>
       </c>
-      <c r="E26" s="156">
+      <c r="E26" s="155">
         <v>3746</v>
       </c>
-      <c r="F26" s="156">
+      <c r="F26" s="155">
         <v>1155</v>
       </c>
-      <c r="G26" s="230">
+      <c r="G26" s="229">
         <v>405</v>
       </c>
-      <c r="H26" s="261"/>
-      <c r="K26" s="219" t="s">
+      <c r="H26" s="260"/>
+      <c r="K26" s="218" t="s">
         <v>87</v>
       </c>
-      <c r="L26" s="219" t="s">
+      <c r="L26" s="218" t="s">
         <v>89</v>
       </c>
-      <c r="M26" s="219" t="s">
+      <c r="M26" s="218" t="s">
         <v>92</v>
       </c>
-      <c r="N26" s="126" t="s">
+      <c r="N26" s="125" t="s">
         <v>95</v>
       </c>
-      <c r="O26" s="126" t="s">
+      <c r="O26" s="125" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="21"/>
-      <c r="B27" s="128" t="s">
+      <c r="B27" s="127" t="s">
         <v>101</v>
       </c>
       <c r="C27" s="15"/>
-      <c r="D27" s="155">
+      <c r="D27" s="154">
         <v>250</v>
       </c>
-      <c r="E27" s="156">
+      <c r="E27" s="155">
         <v>5409</v>
       </c>
-      <c r="F27" s="156">
+      <c r="F27" s="155">
         <v>2436</v>
       </c>
-      <c r="G27" s="230">
+      <c r="G27" s="229">
         <v>414</v>
       </c>
-      <c r="H27" s="261"/>
-      <c r="J27" s="151" t="s">
+      <c r="H27" s="260"/>
+      <c r="J27" s="150" t="s">
         <v>99</v>
       </c>
-      <c r="K27" s="220"/>
-      <c r="L27" s="221"/>
-      <c r="M27" s="221"/>
-      <c r="N27" s="221"/>
-      <c r="O27" s="222"/>
+      <c r="K27" s="219"/>
+      <c r="L27" s="220"/>
+      <c r="M27" s="220"/>
+      <c r="N27" s="220"/>
+      <c r="O27" s="221"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="21"/>
-      <c r="B28" s="128" t="s">
+      <c r="B28" s="127" t="s">
         <v>103</v>
       </c>
       <c r="C28" s="15"/>
-      <c r="D28" s="155">
+      <c r="D28" s="154">
         <v>277</v>
       </c>
-      <c r="E28" s="156">
+      <c r="E28" s="155">
         <v>1199</v>
       </c>
-      <c r="F28" s="156">
+      <c r="F28" s="155">
         <v>476</v>
       </c>
-      <c r="G28" s="230">
+      <c r="G28" s="229">
         <v>170</v>
       </c>
-      <c r="H28" s="261"/>
-      <c r="J28" s="128" t="s">
+      <c r="H28" s="260"/>
+      <c r="J28" s="127" t="s">
         <v>100</v>
       </c>
-      <c r="K28" s="223"/>
+      <c r="K28" s="222"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
@@ -10239,27 +10286,27 @@
     </row>
     <row r="29" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
-      <c r="B29" s="152" t="s">
+      <c r="B29" s="151" t="s">
         <v>102</v>
       </c>
       <c r="C29" s="15"/>
-      <c r="D29" s="227">
+      <c r="D29" s="226">
         <v>1812</v>
       </c>
-      <c r="E29" s="228">
+      <c r="E29" s="227">
         <v>2381</v>
       </c>
-      <c r="F29" s="228">
+      <c r="F29" s="227">
         <v>945</v>
       </c>
-      <c r="G29" s="231">
+      <c r="G29" s="230">
         <v>1510</v>
       </c>
-      <c r="H29" s="261"/>
-      <c r="J29" s="128" t="s">
+      <c r="H29" s="260"/>
+      <c r="J29" s="127" t="s">
         <v>101</v>
       </c>
-      <c r="K29" s="223"/>
+      <c r="K29" s="222"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
@@ -10268,16 +10315,16 @@
     <row r="30" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="124"/>
-      <c r="D30" s="260"/>
-      <c r="E30" s="260"/>
-      <c r="F30" s="260"/>
-      <c r="G30" s="260"/>
-      <c r="H30" s="259"/>
-      <c r="J30" s="128" t="s">
+      <c r="C30" s="123"/>
+      <c r="D30" s="259"/>
+      <c r="E30" s="259"/>
+      <c r="F30" s="259"/>
+      <c r="G30" s="259"/>
+      <c r="H30" s="258"/>
+      <c r="J30" s="127" t="s">
         <v>103</v>
       </c>
-      <c r="K30" s="223"/>
+      <c r="K30" s="222"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
@@ -10292,18 +10339,18 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="J31" s="152" t="s">
+      <c r="J31" s="151" t="s">
         <v>102</v>
       </c>
-      <c r="K31" s="224"/>
-      <c r="L31" s="225"/>
-      <c r="M31" s="225"/>
-      <c r="N31" s="225"/>
-      <c r="O31" s="226"/>
+      <c r="K31" s="223"/>
+      <c r="L31" s="224"/>
+      <c r="M31" s="224"/>
+      <c r="N31" s="224"/>
+      <c r="O31" s="225"/>
     </row>
     <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
-      <c r="B32" s="150" t="s">
+      <c r="B32" s="149" t="s">
         <v>174</v>
       </c>
       <c r="C32" s="19"/>
@@ -10314,11 +10361,11 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="150" t="s">
+      <c r="B33" s="149" t="s">
         <v>147</v>
       </c>
       <c r="C33" s="97"/>
-      <c r="D33" s="124" t="s">
+      <c r="D33" s="123" t="s">
         <v>88</v>
       </c>
       <c r="E33" s="97" t="s">
@@ -10332,24 +10379,24 @@
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B34" s="151" t="s">
+      <c r="B34" s="150" t="s">
         <v>99</v>
       </c>
       <c r="C34" s="13"/>
-      <c r="D34" s="153"/>
-      <c r="E34" s="154"/>
-      <c r="F34" s="154"/>
-      <c r="G34" s="154"/>
+      <c r="D34" s="152"/>
+      <c r="E34" s="153"/>
+      <c r="F34" s="153"/>
+      <c r="G34" s="153"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B35" s="128" t="s">
+      <c r="B35" s="127" t="s">
         <v>100</v>
       </c>
       <c r="C35" s="15"/>
-      <c r="D35" s="155"/>
-      <c r="E35" s="156"/>
-      <c r="F35" s="156"/>
-      <c r="G35" s="156"/>
+      <c r="D35" s="154"/>
+      <c r="E35" s="155"/>
+      <c r="F35" s="155"/>
+      <c r="G35" s="155"/>
       <c r="K35" s="6" t="s">
         <v>87</v>
       </c>
@@ -10367,14 +10414,14 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="128" t="s">
+      <c r="B36" s="127" t="s">
         <v>101</v>
       </c>
       <c r="C36" s="15"/>
-      <c r="D36" s="155"/>
-      <c r="E36" s="156"/>
-      <c r="F36" s="156"/>
-      <c r="G36" s="156"/>
+      <c r="D36" s="154"/>
+      <c r="E36" s="155"/>
+      <c r="F36" s="155"/>
+      <c r="G36" s="155"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
@@ -10382,14 +10429,14 @@
       <c r="O36" s="6"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B37" s="128" t="s">
+      <c r="B37" s="127" t="s">
         <v>103</v>
       </c>
       <c r="C37" s="15"/>
-      <c r="D37" s="155"/>
-      <c r="E37" s="156"/>
-      <c r="F37" s="156"/>
-      <c r="G37" s="156"/>
+      <c r="D37" s="154"/>
+      <c r="E37" s="155"/>
+      <c r="F37" s="155"/>
+      <c r="G37" s="155"/>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
@@ -10397,14 +10444,14 @@
       <c r="O37" s="6"/>
     </row>
     <row r="38" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="152" t="s">
+      <c r="B38" s="151" t="s">
         <v>102</v>
       </c>
       <c r="C38" s="5"/>
-      <c r="D38" s="155"/>
-      <c r="E38" s="156"/>
-      <c r="F38" s="156"/>
-      <c r="G38" s="156"/>
+      <c r="D38" s="154"/>
+      <c r="E38" s="155"/>
+      <c r="F38" s="155"/>
+      <c r="G38" s="155"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
@@ -10430,7 +10477,7 @@
       <c r="A42" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="B42" s="150" t="s">
+      <c r="B42" s="149" t="s">
         <v>118</v>
       </c>
       <c r="C42" s="19"/>
@@ -10469,7 +10516,7 @@
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="K44" s="150" t="s">
+      <c r="K44" s="149" t="s">
         <v>118</v>
       </c>
       <c r="L44" s="19"/>
@@ -10578,7 +10625,7 @@
       <c r="A51" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="B51" s="150" t="s">
+      <c r="B51" s="149" t="s">
         <v>119</v>
       </c>
       <c r="C51" s="19"/>
@@ -10617,7 +10664,7 @@
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
-      <c r="K53" s="150" t="s">
+      <c r="K53" s="149" t="s">
         <v>119</v>
       </c>
       <c r="L53" s="19"/>
@@ -10723,11 +10770,11 @@
     </row>
     <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="21"/>
-      <c r="B60" s="123" t="s">
+      <c r="B60" s="122" t="s">
         <v>124</v>
       </c>
       <c r="C60" s="97"/>
-      <c r="D60" s="191" t="s">
+      <c r="D60" s="190" t="s">
         <v>125</v>
       </c>
       <c r="E60" s="97"/>
@@ -10753,7 +10800,7 @@
     </row>
     <row r="67" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="123" t="s">
+      <c r="B68" s="122" t="s">
         <v>123</v>
       </c>
       <c r="C68" s="97"/>
@@ -10794,7 +10841,7 @@
       </c>
     </row>
     <row r="74" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="123" t="s">
+      <c r="B74" s="122" t="s">
         <v>126</v>
       </c>
       <c r="C74" s="97"/>

--- a/Intermodal transportation/cu70101-AM-transportation model calculator.xlsx
+++ b/Intermodal transportation/cu70101-AM-transportation model calculator.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Zoeli/Desktop/校内/HZ/Dew-IT/Intermodal transportation/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14360" windowHeight="16500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PLANNING sheet" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,16 @@
     <sheet name="RAIL COST help sheet" sheetId="3" r:id="rId4"/>
     <sheet name="BARGE cost help sheet " sheetId="5" r:id="rId5"/>
     <sheet name="Short sea  help sheet" sheetId="7" r:id="rId6"/>
+    <sheet name="final product division" sheetId="9" r:id="rId7"/>
+    <sheet name="Raw material info" sheetId="8" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'final product division'!$A$10:$H$50</definedName>
+  </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="31" r:id="rId9"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -232,6 +240,23 @@
         </r>
       </text>
     </comment>
+    <comment ref="E16" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Zoe: finished products
+3 coils：hot/cold/galvinized
+1 ingot</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AG20" authorId="0">
       <text>
         <r>
@@ -409,6 +434,149 @@
         </r>
       </text>
     </comment>
+    <comment ref="H24" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">Zoe:
+exact address of destination needed
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK30" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Vlad:
+https://www.viamichelin.com
+Origin: address of AM
+Destination: Noorderpoort 49, 5916 PJ Venlo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL30" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Hilal:
+https://www.anwb.nl/verkeer/routeplanner
+Origin: address of AM
+Destination:</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM30" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Vlad:
+https://www.viamichelin.com
+Origin: address of AM
+Destination: VW Nordstraße, 38440 Wolfsburg, Germany</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO30" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Vlad:
+https://www.viamichelin.com
+Origin: address of AM
+Destination: 19 Boulevard Courcerin, 77185 Lognes, France</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP30" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Hilal:
+https://www.anwb.nl/verkeer/routeplanner
+Origin: address of AM
+Destination:</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ30" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Hilal:
+https://www.anwb.nl/verkeer/routeplanner
+Origin: address of AM
+Destination:</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AS30" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Vlad:
+https://www.viamichelin.com
+Origin:address of AM
+Destination: Terminal de Carga, Edificio de Oficinas, Aeropuerto de Bilbao, 48150 Sondica, Vizcaya, Spain</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AG35" authorId="0">
       <text>
         <r>
@@ -437,8 +605,66 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>李 文华</author>
+  </authors>
+  <commentList>
+    <comment ref="D7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Zoe:
+https://www.reade.com/component/zoo/olivine-powder-and-olivine-sand-mgfe-2sio4</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Zoe:
+what pellets?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Zoe:
+AM-Canada</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="267">
   <si>
     <t>month</t>
   </si>
@@ -483,9 +709,6 @@
   </si>
   <si>
     <t>Wolfsburg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Paris </t>
   </si>
   <si>
     <r>
@@ -767,22 +990,7 @@
     <t xml:space="preserve">sheet with clear problem and goal description </t>
   </si>
   <si>
-    <t>define structurem content of presentation in PPT</t>
-  </si>
-  <si>
     <t xml:space="preserve"> blue print of Excel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">study websites  and literature </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Define  SMART goals and randvoorwaarden </t>
-  </si>
-  <si>
-    <t>Terminologie en processen begrijpen aanpak in planning verwerken</t>
-  </si>
-  <si>
-    <t>SPLIT tasks  barge rail truck excel expert</t>
   </si>
   <si>
     <t>etc</t>
@@ -1229,6 +1437,184 @@
   </si>
   <si>
     <t>Zoe</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>define structurem content of presentation in PPT</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>raw material</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>coal</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>iron ore</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>anthracite</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>limestone</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>dolomite</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>olivine</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>pulverized coal</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>pellets</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>external scrap</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>lime</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>consumption of year(m ton)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>distance by truck</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>calculate the models of containers</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>excel model for final product information</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weight/ Unit (tonnes)</t>
+  </si>
+  <si>
+    <t>Total weight/destination</t>
+  </si>
+  <si>
+    <t>Units/Destination</t>
+  </si>
+  <si>
+    <t>Units/Pallet</t>
+  </si>
+  <si>
+    <t>Pallets/Product</t>
+  </si>
+  <si>
+    <t>Product A</t>
+  </si>
+  <si>
+    <t>Product B</t>
+  </si>
+  <si>
+    <t>Product C</t>
+  </si>
+  <si>
+    <t>Product D</t>
+  </si>
+  <si>
+    <t>Pallet Capacity (tonnes)</t>
+  </si>
+  <si>
+    <t>Hot rolled coils</t>
+  </si>
+  <si>
+    <t>Cold rolled coils</t>
+  </si>
+  <si>
+    <t>Galvanized Coils</t>
+  </si>
+  <si>
+    <t>Ingot</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>Destination</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Item</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>% weight/destination</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Paris </t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>editable</t>
+  </si>
+  <si>
+    <t>总计</t>
+  </si>
+  <si>
+    <t>求和/Total weight/destination</t>
+  </si>
+  <si>
+    <t>求和/Units/Destination</t>
+  </si>
+  <si>
+    <t>求和/Pallets/Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product A </t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Product B </t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Product C </t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Prdouct D </t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>值</t>
+  </si>
+  <si>
+    <t>excel work</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>metric( bulk density t/m3)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>market price</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>consumption of year(m m3)</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1236,11 +1622,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ [$€-413]\ * #,##0_ ;_ [$€-413]\ * \-#,##0_ ;_ [$€-413]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1340,8 +1727,15 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1408,8 +1802,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="60">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -2132,8 +2532,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF505050"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF505050"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF505050"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF505050"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2141,8 +2556,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="267">
+  <cellXfs count="283">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2474,15 +2894,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="11"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="11" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="16" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="11" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="11" applyBorder="1"/>
+    <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="12">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="11"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="千位分隔" xfId="2" builtinId="3"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2495,6 +2936,552 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="李 文华" refreshedDate="43358.69719097222" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="40">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A10:H50" sheet="final product division"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="Destination" numFmtId="0">
+      <sharedItems count="10">
+        <s v="Venlo"/>
+        <s v="Wolfsburg"/>
+        <s v="Saarbrucke"/>
+        <s v="Praha CZ"/>
+        <s v="Bilbao It."/>
+        <s v="Germersheim  "/>
+        <s v="Torino  It. "/>
+        <s v="Paris "/>
+        <s v="Genua  "/>
+        <s v="Munich"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Item" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Product A"/>
+        <s v="Product B"/>
+        <s v="Product C"/>
+        <s v="Product D"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Weight/ Unit (tonnes)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.5" maxValue="1.5"/>
+    </cacheField>
+    <cacheField name="% weight/destination" numFmtId="10">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.05" maxValue="0.8"/>
+    </cacheField>
+    <cacheField name="Total weight/destination" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7500" maxValue="240000"/>
+    </cacheField>
+    <cacheField name="Units/Destination" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5000" maxValue="192000"/>
+    </cacheField>
+    <cacheField name="Units/Pallet" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="3"/>
+    </cacheField>
+    <cacheField name="Pallets/Product" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5000" maxValue="192000"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="40">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1.25"/>
+    <n v="0.20000000000000007"/>
+    <n v="60000.000000000022"/>
+    <n v="48000.000000000015"/>
+    <n v="1"/>
+    <n v="48000.000000000015"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1.25"/>
+    <n v="0.6"/>
+    <n v="180000"/>
+    <n v="144000"/>
+    <n v="1"/>
+    <n v="144000"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1.5"/>
+    <n v="0.1"/>
+    <n v="30000"/>
+    <n v="20000"/>
+    <n v="1"/>
+    <n v="20000"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="0.5"/>
+    <n v="0.1"/>
+    <n v="30000"/>
+    <n v="60000"/>
+    <n v="3"/>
+    <n v="20000"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1.25"/>
+    <n v="0.29999999999999993"/>
+    <n v="179999.99999999997"/>
+    <n v="143999.99999999997"/>
+    <n v="1"/>
+    <n v="143999.99999999997"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1.25"/>
+    <n v="0.4"/>
+    <n v="240000"/>
+    <n v="192000"/>
+    <n v="1"/>
+    <n v="192000"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="1.5"/>
+    <n v="0.2"/>
+    <n v="120000"/>
+    <n v="80000"/>
+    <n v="1"/>
+    <n v="80000"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="0.5"/>
+    <n v="0.1"/>
+    <n v="60000"/>
+    <n v="120000"/>
+    <n v="3"/>
+    <n v="40000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="1.25"/>
+    <n v="0.20000000000000007"/>
+    <n v="60000.000000000022"/>
+    <n v="48000.000000000015"/>
+    <n v="1"/>
+    <n v="48000.000000000015"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1.25"/>
+    <n v="0.3"/>
+    <n v="90000"/>
+    <n v="72000"/>
+    <n v="1"/>
+    <n v="72000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1.5"/>
+    <n v="0.35"/>
+    <n v="105000"/>
+    <n v="70000"/>
+    <n v="1"/>
+    <n v="70000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="0.5"/>
+    <n v="0.15"/>
+    <n v="45000"/>
+    <n v="90000"/>
+    <n v="3"/>
+    <n v="30000"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="1.25"/>
+    <n v="0.4"/>
+    <n v="120000"/>
+    <n v="96000"/>
+    <n v="1"/>
+    <n v="96000"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="1.25"/>
+    <n v="0.1"/>
+    <n v="30000"/>
+    <n v="24000"/>
+    <n v="1"/>
+    <n v="24000"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="1.5"/>
+    <n v="0.4"/>
+    <n v="120000"/>
+    <n v="80000"/>
+    <n v="1"/>
+    <n v="80000"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="0.5"/>
+    <n v="0.1"/>
+    <n v="30000"/>
+    <n v="60000"/>
+    <n v="3"/>
+    <n v="20000"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="1.25"/>
+    <n v="0.5"/>
+    <n v="150000"/>
+    <n v="120000"/>
+    <n v="1"/>
+    <n v="120000"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="1.25"/>
+    <n v="0.2"/>
+    <n v="60000"/>
+    <n v="48000"/>
+    <n v="1"/>
+    <n v="48000"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="1.5"/>
+    <n v="0.1"/>
+    <n v="30000"/>
+    <n v="20000"/>
+    <n v="1"/>
+    <n v="20000"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="0.5"/>
+    <n v="0.2"/>
+    <n v="60000"/>
+    <n v="120000"/>
+    <n v="3"/>
+    <n v="40000"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="1.25"/>
+    <n v="0.25"/>
+    <n v="75000"/>
+    <n v="60000"/>
+    <n v="1"/>
+    <n v="60000"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="1.25"/>
+    <n v="0.45"/>
+    <n v="135000"/>
+    <n v="108000"/>
+    <n v="1"/>
+    <n v="108000"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="1.5"/>
+    <n v="0.2"/>
+    <n v="60000"/>
+    <n v="40000"/>
+    <n v="1"/>
+    <n v="40000"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="0.5"/>
+    <n v="0.1"/>
+    <n v="30000"/>
+    <n v="60000"/>
+    <n v="3"/>
+    <n v="20000"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="1.25"/>
+    <n v="0.30000000000000004"/>
+    <n v="45000.000000000007"/>
+    <n v="36000.000000000007"/>
+    <n v="1"/>
+    <n v="36000.000000000007"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="1.25"/>
+    <n v="0.3"/>
+    <n v="45000"/>
+    <n v="36000"/>
+    <n v="1"/>
+    <n v="36000"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="1.5"/>
+    <n v="0.3"/>
+    <n v="45000"/>
+    <n v="30000"/>
+    <n v="1"/>
+    <n v="30000"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <n v="0.5"/>
+    <n v="0.1"/>
+    <n v="15000"/>
+    <n v="30000"/>
+    <n v="3"/>
+    <n v="10000"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="1.25"/>
+    <n v="0.7"/>
+    <n v="210000"/>
+    <n v="168000"/>
+    <n v="1"/>
+    <n v="168000"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="1.25"/>
+    <n v="0.1"/>
+    <n v="30000"/>
+    <n v="24000"/>
+    <n v="1"/>
+    <n v="24000"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="1.5"/>
+    <n v="0.05"/>
+    <n v="15000"/>
+    <n v="10000"/>
+    <n v="1"/>
+    <n v="10000"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+    <n v="0.5"/>
+    <n v="0.15"/>
+    <n v="45000"/>
+    <n v="90000"/>
+    <n v="3"/>
+    <n v="30000"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="1.25"/>
+    <n v="0.19999999999999996"/>
+    <n v="59999.999999999985"/>
+    <n v="47999.999999999985"/>
+    <n v="1"/>
+    <n v="47999.999999999985"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="1.25"/>
+    <n v="0.35"/>
+    <n v="105000"/>
+    <n v="84000"/>
+    <n v="1"/>
+    <n v="84000"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="1.5"/>
+    <n v="0.15"/>
+    <n v="45000"/>
+    <n v="30000"/>
+    <n v="1"/>
+    <n v="30000"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="0.5"/>
+    <n v="0.3"/>
+    <n v="90000"/>
+    <n v="180000"/>
+    <n v="3"/>
+    <n v="60000"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="1.25"/>
+    <n v="0.8"/>
+    <n v="120000"/>
+    <n v="96000"/>
+    <n v="1"/>
+    <n v="96000"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <n v="1.25"/>
+    <n v="0.05"/>
+    <n v="7500"/>
+    <n v="6000"/>
+    <n v="1"/>
+    <n v="6000"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <n v="1.5"/>
+    <n v="0.05"/>
+    <n v="7500"/>
+    <n v="5000"/>
+    <n v="1"/>
+    <n v="5000"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="3"/>
+    <n v="0.5"/>
+    <n v="0.1"/>
+    <n v="15000"/>
+    <n v="30000"/>
+    <n v="3"/>
+    <n v="10000"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="L12:O18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisPage" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="11">
+        <item h="1" x="4"/>
+        <item h="1" x="8"/>
+        <item h="1" x="5"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="3"/>
+        <item h="1" x="2"/>
+        <item h="1" x="6"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="10" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="3">
+    <dataField name="求和/Total weight/destination" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="求和/Units/Destination" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="求和/Pallets/Product" fld="7" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2797,7 +3784,7 @@
   <dimension ref="A1:BE146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -2832,7 +3819,7 @@
   <sheetData>
     <row r="1" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="122" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B1" s="97"/>
       <c r="C1" s="97"/>
@@ -2852,10 +3839,10 @@
     <row r="2" spans="1:47" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="176"/>
       <c r="B2" s="27" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="I2" s="160" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="J2" s="160"/>
       <c r="K2" s="160"/>
@@ -2864,27 +3851,27 @@
     <row r="3" spans="1:47" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="174"/>
       <c r="B3" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:47" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="175"/>
       <c r="B4" s="27" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:47" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F5" s="26"/>
       <c r="G5" s="26" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:47" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="26"/>
@@ -2897,10 +3884,10 @@
       <c r="K6" s="263"/>
       <c r="L6" s="263"/>
       <c r="M6" s="159" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="N6" s="159" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O6" s="158"/>
       <c r="P6" s="26"/>
@@ -2918,10 +3905,10 @@
       <c r="K7" s="263"/>
       <c r="L7" s="263"/>
       <c r="M7" s="159" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" s="159" t="s">
         <v>56</v>
-      </c>
-      <c r="N7" s="159" t="s">
-        <v>57</v>
       </c>
       <c r="O7" s="161"/>
       <c r="P7" s="26"/>
@@ -2931,7 +3918,7 @@
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
       <c r="E8" s="253" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F8" s="254"/>
       <c r="G8" s="264">
@@ -2958,18 +3945,18 @@
         <v>420</v>
       </c>
       <c r="O8" s="254" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="P8" s="255" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U8" s="172" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="V8" s="172"/>
       <c r="W8" s="172"/>
       <c r="X8" s="172" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="Y8" s="172"/>
       <c r="Z8" s="172"/>
@@ -2983,16 +3970,16 @@
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="30">
         <f>SUM(G14:G91)</f>
-        <v>2.5</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="H9" s="30">
         <f>SUM(H14:H91)</f>
-        <v>2.5</v>
+        <v>5.6666666666666661</v>
       </c>
       <c r="I9" s="30">
         <f>SUM(I14:I91)</f>
@@ -3000,19 +3987,19 @@
       </c>
       <c r="J9" s="30">
         <f>SUM(J14:J91)</f>
-        <v>2.5</v>
+        <v>5.6666666666666661</v>
       </c>
       <c r="K9" s="30">
         <f t="shared" ref="K9:N9" si="0">SUM(K14:K91)</f>
-        <v>2.5</v>
+        <v>5.6666666666666661</v>
       </c>
       <c r="L9" s="30">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8.1666666666666679</v>
       </c>
       <c r="M9" s="30">
         <f t="shared" si="0"/>
-        <v>16.5</v>
+        <v>30.333333333333332</v>
       </c>
       <c r="N9" s="30">
         <f t="shared" si="0"/>
@@ -3021,12 +4008,12 @@
       <c r="O9" s="26"/>
       <c r="P9" s="26"/>
       <c r="U9" s="171" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="V9" s="171"/>
       <c r="W9" s="171"/>
       <c r="X9" s="171" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="Y9" s="171"/>
       <c r="Z9" s="171"/>
@@ -3050,12 +4037,12 @@
       <c r="Q10" s="26"/>
       <c r="R10" s="26"/>
       <c r="U10" s="173" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="V10" s="173"/>
       <c r="W10" s="173"/>
       <c r="X10" s="173" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="Y10" s="173"/>
       <c r="Z10" s="173"/>
@@ -3065,31 +4052,31 @@
     </row>
     <row r="11" spans="1:47" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
       <c r="F11" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="H11" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="G11" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>218</v>
-      </c>
       <c r="I11" s="33" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="J11" s="33" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="K11" s="185" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="L11" s="185" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="M11" s="34"/>
       <c r="N11" s="55"/>
@@ -3099,7 +4086,7 @@
       <c r="W11" s="169"/>
       <c r="X11" s="166"/>
       <c r="Y11" s="166" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="Z11" s="166"/>
       <c r="AA11" s="166"/>
@@ -3111,17 +4098,17 @@
         <v>1</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="F12" s="39" t="s">
         <v>64</v>
-      </c>
-      <c r="F12" s="39" t="s">
-        <v>65</v>
       </c>
       <c r="G12" s="40">
         <v>1</v>
@@ -3146,13 +4133,13 @@
       </c>
       <c r="N12" s="44"/>
       <c r="O12" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P12" s="45"/>
       <c r="Q12" s="26"/>
       <c r="U12" s="21"/>
       <c r="V12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W12" s="1"/>
       <c r="X12" s="12"/>
@@ -3167,21 +4154,21 @@
     </row>
     <row r="13" spans="1:47" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="163" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B13" s="103" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="102" t="s">
         <v>66</v>
-      </c>
-      <c r="C13" s="102" t="s">
-        <v>67</v>
       </c>
       <c r="D13" s="47"/>
       <c r="E13" s="187" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F13" s="179"/>
       <c r="G13" s="250" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -3189,17 +4176,17 @@
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
       <c r="M13" s="34" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="N13" s="31"/>
       <c r="O13" s="177" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="P13" s="178"/>
       <c r="Q13" s="177"/>
       <c r="R13" s="177"/>
       <c r="U13" s="168" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="V13" s="167">
         <v>1</v>
@@ -3226,21 +4213,21 @@
         <v>8</v>
       </c>
       <c r="AD13" s="180" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AE13" s="181" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AF13" s="191" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AG13" s="178" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="AH13" s="182"/>
       <c r="AI13" s="182"/>
       <c r="AJ13" s="173" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AK13" s="173"/>
       <c r="AL13" s="173"/>
@@ -3262,7 +4249,7 @@
       <c r="C14" s="50"/>
       <c r="D14" s="186"/>
       <c r="E14" s="213" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F14" s="256"/>
       <c r="G14" s="120"/>
@@ -3277,7 +4264,7 @@
       </c>
       <c r="N14" s="54"/>
       <c r="O14" s="101" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="P14" s="26"/>
       <c r="Q14" s="26"/>
@@ -3318,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="AG14" s="203" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="AH14" s="9"/>
       <c r="AI14" s="9"/>
@@ -3336,7 +4323,7 @@
       <c r="C15" s="57"/>
       <c r="D15" s="188"/>
       <c r="E15" s="214" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F15" s="204"/>
       <c r="G15" s="266">
@@ -3363,7 +4350,7 @@
       </c>
       <c r="N15" s="31"/>
       <c r="O15" s="26" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="P15" s="26"/>
       <c r="Q15" s="26"/>
@@ -3390,7 +4377,7 @@
         <v>1</v>
       </c>
       <c r="AG15" s="203" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="AH15" s="9"/>
       <c r="AI15" s="9"/>
@@ -3408,22 +4395,37 @@
       <c r="C16" s="57"/>
       <c r="D16" s="188"/>
       <c r="E16" s="214" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F16" s="204"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="120"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="120"/>
-      <c r="L16" s="120"/>
+      <c r="G16" s="267">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H16" s="267">
+        <f>G16</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I16" s="267"/>
+      <c r="J16" s="267">
+        <f>H16</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K16" s="267">
+        <f t="shared" ref="K16:L16" si="3">J16</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="L16" s="267">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666666</v>
+      </c>
       <c r="M16" s="53">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="N16" s="31"/>
       <c r="O16" s="72" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="P16" s="26"/>
       <c r="Q16" s="26"/>
@@ -3450,7 +4452,7 @@
         <v>2</v>
       </c>
       <c r="AG16" s="203" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="AH16" s="9"/>
       <c r="AI16" s="9"/>
@@ -3473,7 +4475,7 @@
       <c r="C17" s="57"/>
       <c r="D17" s="188"/>
       <c r="E17" s="214" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F17" s="204"/>
       <c r="G17" s="120"/>
@@ -3513,7 +4515,7 @@
         <v>3</v>
       </c>
       <c r="AG17" s="203" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AH17" s="9"/>
       <c r="AI17" s="9"/>
@@ -3531,7 +4533,7 @@
       <c r="C18" s="64"/>
       <c r="D18" s="189"/>
       <c r="E18" s="215" t="s">
-        <v>70</v>
+        <v>217</v>
       </c>
       <c r="F18" s="257"/>
       <c r="G18" s="121"/>
@@ -3571,7 +4573,7 @@
         <v>4</v>
       </c>
       <c r="AG18" s="203" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AH18" s="9"/>
       <c r="AI18" s="9"/>
@@ -3585,7 +4587,7 @@
     </row>
     <row r="19" spans="1:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N19" s="31"/>
       <c r="R19" s="26"/>
@@ -3602,76 +4604,76 @@
       <c r="AE19" s="6"/>
       <c r="AF19" s="1"/>
       <c r="AG19" s="122" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH19" s="97"/>
       <c r="AI19" s="97"/>
       <c r="AJ19" s="13"/>
       <c r="AK19" s="104" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AL19" s="104" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM19" s="104" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AN19" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO19" s="104" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AP19" s="143" t="s">
         <v>14</v>
       </c>
       <c r="AQ19" s="104" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AR19" s="11" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="AS19" s="104" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AT19" s="143" t="s">
-        <v>15</v>
+        <v>252</v>
       </c>
       <c r="AU19" s="104" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AV19" s="11" t="s">
         <v>8</v>
       </c>
       <c r="AW19" s="104" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AX19" s="143" t="s">
         <v>13</v>
       </c>
       <c r="AY19" s="104" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AZ19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA19" s="104" t="s">
+        <v>30</v>
+      </c>
+      <c r="BB19" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="BA19" s="104" t="s">
-        <v>31</v>
-      </c>
-      <c r="BB19" s="11" t="s">
+      <c r="BC19" s="104" t="s">
+        <v>30</v>
+      </c>
+      <c r="BD19" s="13" t="s">
         <v>27</v>
-      </c>
-      <c r="BC19" s="104" t="s">
-        <v>31</v>
-      </c>
-      <c r="BD19" s="13" t="s">
-        <v>28</v>
       </c>
       <c r="BE19" s="13"/>
     </row>
     <row r="20" spans="1:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E20" s="109" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="N20" s="31"/>
       <c r="R20" s="26"/>
@@ -3691,7 +4693,7 @@
         <v>1</v>
       </c>
       <c r="AH20" s="97" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="AI20" s="19"/>
       <c r="AJ20" s="20">
@@ -3705,55 +4707,55 @@
         <v>0.1</v>
       </c>
       <c r="AM20" s="96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AN20" s="242">
         <v>0.1</v>
       </c>
       <c r="AO20" s="96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AP20" s="243">
         <v>0.2</v>
       </c>
       <c r="AQ20" s="96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AR20" s="242">
         <v>0.1</v>
       </c>
       <c r="AS20" s="96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AT20" s="243">
         <v>0.1</v>
       </c>
       <c r="AU20" s="96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AV20" s="242">
         <v>0.05</v>
       </c>
       <c r="AW20" s="96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AX20" s="243">
         <v>0.1</v>
       </c>
       <c r="AY20" s="96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AZ20" s="242">
         <v>0.1</v>
       </c>
       <c r="BA20" s="96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="BB20" s="242">
         <v>0.1</v>
       </c>
       <c r="BC20" s="96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="BD20" s="241">
         <v>0.05</v>
@@ -3765,7 +4767,7 @@
         <v>6</v>
       </c>
       <c r="F21" s="197" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G21" s="198"/>
       <c r="H21" s="198"/>
@@ -3789,18 +4791,18 @@
       <c r="AE21" s="6"/>
       <c r="AF21" s="1"/>
       <c r="AG21" s="147" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AH21" s="13"/>
       <c r="AI21" s="19" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="AJ21" s="131">
         <f>SUM(AJ22:AJ25)</f>
         <v>1</v>
       </c>
       <c r="AK21" s="129" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL21" s="133">
         <f>AL20*$AJ$20</f>
@@ -3903,7 +4905,7 @@
       <c r="AE22" s="6"/>
       <c r="AF22" s="1"/>
       <c r="AG22" s="127" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="AH22" s="15"/>
       <c r="AI22" s="15" t="s">
@@ -4009,14 +5011,14 @@
       <c r="AE23" s="6"/>
       <c r="AF23" s="1"/>
       <c r="AG23" s="127" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="AH23" s="15"/>
       <c r="AI23" s="15" t="s">
         <v>7</v>
       </c>
       <c r="AJ23" s="244">
-        <f t="shared" ref="AJ23:AJ25" si="3">AK23/$AJ$20</f>
+        <f t="shared" ref="AJ23:AJ25" si="4">AK23/$AJ$20</f>
         <v>0.48</v>
       </c>
       <c r="AK23" s="46">
@@ -4024,70 +5026,70 @@
         <v>1440000</v>
       </c>
       <c r="AL23" s="133">
-        <f t="shared" ref="AL23:AL25" si="4">AM23*$AL$21</f>
+        <f t="shared" ref="AL23:AL25" si="5">AM23*$AL$21</f>
         <v>150000</v>
       </c>
       <c r="AM23" s="137">
         <v>0.5</v>
       </c>
       <c r="AN23" s="21">
-        <f t="shared" ref="AN23:AN25" si="5">AO23*$AN$21</f>
+        <f t="shared" ref="AN23:AN25" si="6">AO23*$AN$21</f>
         <v>150000</v>
       </c>
       <c r="AO23" s="142">
         <v>0.5</v>
       </c>
       <c r="AP23" s="133">
-        <f t="shared" ref="AP23:AP25" si="6">AQ23*$AP$21</f>
+        <f t="shared" ref="AP23:AP25" si="7">AQ23*$AP$21</f>
         <v>300000</v>
       </c>
       <c r="AQ23" s="137">
         <v>0.5</v>
       </c>
       <c r="AR23" s="21">
-        <f t="shared" ref="AR23:AR25" si="7">AS23*$AR$21</f>
+        <f t="shared" ref="AR23:AR25" si="8">AS23*$AR$21</f>
         <v>150000</v>
       </c>
       <c r="AS23" s="142">
         <v>0.5</v>
       </c>
       <c r="AT23" s="133">
-        <f t="shared" ref="AT23:AT25" si="8">AU23*$AT$21</f>
+        <f t="shared" ref="AT23:AT25" si="9">AU23*$AT$21</f>
         <v>150000</v>
       </c>
       <c r="AU23" s="137">
         <v>0.5</v>
       </c>
       <c r="AV23" s="21">
-        <f t="shared" ref="AV23:AV25" si="9">AW23*$AV$21</f>
+        <f t="shared" ref="AV23:AV25" si="10">AW23*$AV$21</f>
         <v>75000</v>
       </c>
       <c r="AW23" s="142">
         <v>0.5</v>
       </c>
       <c r="AX23" s="133">
-        <f t="shared" ref="AX23:AX25" si="10">AY23*$AX$21</f>
+        <f t="shared" ref="AX23:AX25" si="11">AY23*$AX$21</f>
         <v>150000</v>
       </c>
       <c r="AY23" s="137">
         <v>0.5</v>
       </c>
       <c r="AZ23" s="21">
-        <f t="shared" ref="AZ23:AZ25" si="11">BA23*$AZ$21</f>
+        <f t="shared" ref="AZ23:AZ25" si="12">BA23*$AZ$21</f>
         <v>120000</v>
       </c>
       <c r="BA23" s="142">
         <v>0.4</v>
       </c>
       <c r="BB23" s="234">
-        <f t="shared" ref="BB23:BB25" si="12">$BB$21*BC23</f>
+        <f t="shared" ref="BB23:BB25" si="13">$BB$21*BC23</f>
         <v>120000</v>
       </c>
       <c r="BC23" s="146">
         <v>0.4</v>
       </c>
       <c r="BD23" s="15">
-        <f t="shared" ref="BD23:BD25" si="13">$BD$21*BE23</f>
+        <f t="shared" ref="BD23:BD25" si="14">$BD$21*BE23</f>
         <v>75000</v>
       </c>
       <c r="BE23" s="232">
@@ -4099,27 +5101,31 @@
         <v>2</v>
       </c>
       <c r="B24" s="49">
-        <v>43355</v>
+        <v>43357</v>
       </c>
       <c r="C24" s="110"/>
       <c r="D24" s="111"/>
       <c r="E24" s="112" t="s">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="F24" s="112"/>
-      <c r="G24" s="121"/>
-      <c r="H24" s="121"/>
-      <c r="I24" s="120"/>
-      <c r="J24" s="121"/>
-      <c r="K24" s="73"/>
-      <c r="L24" s="73"/>
+      <c r="G24" s="174"/>
+      <c r="H24" s="269">
+        <v>3</v>
+      </c>
+      <c r="I24" s="266"/>
+      <c r="J24" s="174">
+        <v>0.5</v>
+      </c>
+      <c r="K24" s="270"/>
+      <c r="L24" s="270"/>
       <c r="M24" s="113">
         <f>SUM(G24:L24)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="N24" s="31"/>
       <c r="O24" s="112" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P24" s="112"/>
       <c r="Q24" s="112"/>
@@ -4143,14 +5149,14 @@
       <c r="AE24" s="6"/>
       <c r="AF24" s="1"/>
       <c r="AG24" s="127" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="AH24" s="15"/>
       <c r="AI24" s="15" t="s">
         <v>4</v>
       </c>
       <c r="AJ24" s="244">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.3</v>
       </c>
       <c r="AK24" s="46">
@@ -4158,70 +5164,70 @@
         <v>900000</v>
       </c>
       <c r="AL24" s="133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>90000</v>
       </c>
       <c r="AM24" s="137">
         <v>0.3</v>
       </c>
       <c r="AN24" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>90000</v>
       </c>
       <c r="AO24" s="142">
         <v>0.3</v>
       </c>
       <c r="AP24" s="133">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>180000</v>
       </c>
       <c r="AQ24" s="137">
         <v>0.3</v>
       </c>
       <c r="AR24" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>90000</v>
       </c>
       <c r="AS24" s="142">
         <v>0.3</v>
       </c>
       <c r="AT24" s="133">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>90000</v>
       </c>
       <c r="AU24" s="137">
         <v>0.3</v>
       </c>
       <c r="AV24" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45000</v>
       </c>
       <c r="AW24" s="142">
         <v>0.3</v>
       </c>
       <c r="AX24" s="133">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>90000</v>
       </c>
       <c r="AY24" s="137">
         <v>0.3</v>
       </c>
       <c r="AZ24" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>90000</v>
       </c>
       <c r="BA24" s="142">
         <v>0.3</v>
       </c>
       <c r="BB24" s="234">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>90000</v>
       </c>
       <c r="BC24" s="146">
         <v>0.3</v>
       </c>
       <c r="BD24" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>45000</v>
       </c>
       <c r="BE24" s="232">
@@ -4234,18 +5240,20 @@
       <c r="C25" s="57"/>
       <c r="D25" s="58"/>
       <c r="E25" s="59" t="s">
-        <v>72</v>
+        <v>231</v>
       </c>
       <c r="F25" s="59"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="121"/>
-      <c r="I25" s="120"/>
-      <c r="J25" s="121"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
+      <c r="G25" s="174"/>
+      <c r="H25" s="174"/>
+      <c r="I25" s="266"/>
+      <c r="J25" s="174"/>
+      <c r="K25" s="270">
+        <v>3</v>
+      </c>
+      <c r="L25" s="270"/>
       <c r="M25" s="113">
-        <f t="shared" ref="M25:M29" si="14">SUM(G25:L25)</f>
-        <v>0</v>
+        <f t="shared" ref="M25:M29" si="15">SUM(G25:L25)</f>
+        <v>3</v>
       </c>
       <c r="N25" s="31"/>
       <c r="O25" s="59"/>
@@ -4274,7 +5282,7 @@
         <v>11</v>
       </c>
       <c r="AJ25" s="245">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.02</v>
       </c>
       <c r="AK25" s="96">
@@ -4282,70 +5290,70 @@
         <v>60000</v>
       </c>
       <c r="AL25" s="138">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AM25" s="130">
         <v>0</v>
       </c>
       <c r="AN25" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AO25" s="124">
         <v>0</v>
       </c>
       <c r="AP25" s="138">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AQ25" s="130">
         <v>0</v>
       </c>
       <c r="AR25" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AS25" s="124">
         <v>0</v>
       </c>
       <c r="AT25" s="138">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AU25" s="130">
         <v>0</v>
       </c>
       <c r="AV25" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AW25" s="124">
         <v>0</v>
       </c>
       <c r="AX25" s="138">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AY25" s="130">
         <v>0</v>
       </c>
       <c r="AZ25" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30000</v>
       </c>
       <c r="BA25" s="124">
         <v>0.1</v>
       </c>
       <c r="BB25" s="235">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>30000</v>
       </c>
       <c r="BC25" s="132">
         <v>0.1</v>
       </c>
       <c r="BD25" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BE25" s="232">
@@ -4358,22 +5366,24 @@
       <c r="C26" s="57"/>
       <c r="D26" s="58"/>
       <c r="E26" s="59" t="s">
-        <v>73</v>
+        <v>232</v>
       </c>
       <c r="F26" s="59"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="121"/>
-      <c r="I26" s="120"/>
-      <c r="J26" s="121"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="73"/>
+      <c r="G26" s="281"/>
+      <c r="H26" s="281"/>
+      <c r="I26" s="267"/>
+      <c r="J26" s="281">
+        <v>2.5</v>
+      </c>
+      <c r="K26" s="282"/>
+      <c r="L26" s="282"/>
       <c r="M26" s="113">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>2.5</v>
       </c>
       <c r="N26" s="31"/>
       <c r="O26" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P26" s="59"/>
       <c r="Q26" s="59"/>
@@ -4394,7 +5404,7 @@
       <c r="AG26" s="11"/>
       <c r="AH26" s="12"/>
       <c r="AI26" s="12" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="AJ26" s="12"/>
       <c r="AK26" s="13"/>
@@ -4404,7 +5414,7 @@
       </c>
       <c r="AM26" s="1"/>
       <c r="AN26" s="7">
-        <f t="shared" ref="AN26" si="15">SUM(AN22:AN25)</f>
+        <f t="shared" ref="AN26" si="16">SUM(AN22:AN25)</f>
         <v>300000</v>
       </c>
       <c r="AO26" s="17"/>
@@ -4457,19 +5467,22 @@
       <c r="B27" s="56"/>
       <c r="C27" s="57"/>
       <c r="D27" s="58"/>
-      <c r="E27" s="59" t="s">
-        <v>74</v>
+      <c r="E27" s="59" t="str">
+        <f>AG16</f>
+        <v>Find and report which Raw materials and finished products volumes and quantities , metrics and market prices for Arcelor's steel mill in Gent are applicable?</v>
       </c>
       <c r="F27" s="59"/>
-      <c r="G27" s="121"/>
-      <c r="H27" s="121"/>
-      <c r="I27" s="120"/>
-      <c r="J27" s="121"/>
-      <c r="K27" s="73"/>
-      <c r="L27" s="73"/>
+      <c r="G27" s="174"/>
+      <c r="H27" s="174"/>
+      <c r="I27" s="266"/>
+      <c r="J27" s="174"/>
+      <c r="K27" s="270"/>
+      <c r="L27" s="270">
+        <v>2.5</v>
+      </c>
       <c r="M27" s="113">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>2.5</v>
       </c>
       <c r="N27" s="31"/>
       <c r="O27" s="59"/>
@@ -4496,7 +5509,7 @@
         <v>6</v>
       </c>
       <c r="AG27" s="197" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH27" s="198"/>
       <c r="AI27" s="198"/>
@@ -4506,7 +5519,7 @@
       <c r="AM27" s="198"/>
       <c r="AN27" s="199"/>
       <c r="AP27" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="BC27" s="216"/>
     </row>
@@ -4515,17 +5528,21 @@
       <c r="B28" s="56"/>
       <c r="C28" s="57"/>
       <c r="D28" s="58"/>
-      <c r="E28" s="74"/>
+      <c r="E28" s="74" t="s">
+        <v>263</v>
+      </c>
       <c r="F28" s="59"/>
-      <c r="G28" s="121"/>
-      <c r="H28" s="121"/>
-      <c r="I28" s="120"/>
-      <c r="J28" s="121"/>
-      <c r="K28" s="73"/>
-      <c r="L28" s="73"/>
+      <c r="G28" s="174"/>
+      <c r="H28" s="174"/>
+      <c r="I28" s="266"/>
+      <c r="J28" s="174"/>
+      <c r="K28" s="270"/>
+      <c r="L28" s="270">
+        <v>1.5</v>
+      </c>
       <c r="M28" s="113">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>1.5</v>
       </c>
       <c r="N28" s="31"/>
       <c r="O28" s="59"/>
@@ -4548,16 +5565,16 @@
         <v>6</v>
       </c>
       <c r="AG28" s="10" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="AH28" s="10"/>
       <c r="AI28" s="10"/>
       <c r="AJ28" s="10"/>
       <c r="AW28" s="251" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AX28" s="24" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="AY28" s="22"/>
       <c r="AZ28" s="22"/>
@@ -4568,9 +5585,7 @@
       <c r="B29" s="116"/>
       <c r="C29" s="117"/>
       <c r="D29" s="118"/>
-      <c r="E29" s="119" t="s">
-        <v>75</v>
-      </c>
+      <c r="E29" s="119"/>
       <c r="F29" s="119"/>
       <c r="G29" s="121"/>
       <c r="H29" s="121"/>
@@ -4579,13 +5594,13 @@
       <c r="K29" s="73"/>
       <c r="L29" s="73"/>
       <c r="M29" s="113">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N29" s="31"/>
       <c r="O29" s="119"/>
       <c r="P29" s="119" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="Q29" s="119"/>
       <c r="R29" s="119"/>
@@ -4625,10 +5640,11 @@
       </c>
       <c r="AO29" t="str">
         <f>$AT$19</f>
-        <v xml:space="preserve">     Paris </v>
-      </c>
-      <c r="AP29">
-        <v>0</v>
+        <v xml:space="preserve">Paris </v>
+      </c>
+      <c r="AP29" t="str">
+        <f>$AV$19</f>
+        <v xml:space="preserve">Torino  It. </v>
       </c>
       <c r="AQ29" t="str">
         <f>$AX$19</f>
@@ -4647,15 +5663,15 @@
         <v>Munich</v>
       </c>
       <c r="AU29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AX29" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:57" ht="16" x14ac:dyDescent="0.2">
       <c r="E30" s="109" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="N30" s="31"/>
       <c r="R30" s="26"/>
@@ -4680,15 +5696,31 @@
       <c r="AJ30" t="s">
         <v>6</v>
       </c>
-      <c r="AK30" s="6"/>
-      <c r="AL30" s="6"/>
-      <c r="AM30" s="6"/>
-      <c r="AN30" s="6"/>
-      <c r="AO30" s="6"/>
-      <c r="AP30" s="6"/>
-      <c r="AQ30" s="6"/>
+      <c r="AK30" s="274">
+        <v>194</v>
+      </c>
+      <c r="AL30" s="274">
+        <v>505</v>
+      </c>
+      <c r="AM30" s="273">
+        <v>572</v>
+      </c>
+      <c r="AN30" s="6">
+        <v>435</v>
+      </c>
+      <c r="AO30" s="274">
+        <v>328</v>
+      </c>
+      <c r="AP30" s="274">
+        <v>1065</v>
+      </c>
+      <c r="AQ30" s="274">
+        <v>966</v>
+      </c>
       <c r="AR30" s="6"/>
-      <c r="AS30" s="6"/>
+      <c r="AS30" s="274">
+        <v>1287</v>
+      </c>
       <c r="AT30" s="6"/>
       <c r="AU30" s="6"/>
       <c r="AV30" s="6"/>
@@ -4769,12 +5801,12 @@
     </row>
     <row r="33" spans="1:49" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="172" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B33" s="172"/>
       <c r="C33" s="172"/>
       <c r="D33" s="172" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E33" s="172"/>
       <c r="F33" s="172"/>
@@ -4821,7 +5853,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="51"/>
       <c r="E34" s="112" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F34" s="52"/>
       <c r="G34" s="75"/>
@@ -4866,7 +5898,7 @@
       <c r="K35" s="73"/>
       <c r="L35" s="73"/>
       <c r="M35" s="113">
-        <f t="shared" ref="M35:M37" si="16">SUM(G35:L35)</f>
+        <f t="shared" ref="M35:M37" si="17">SUM(G35:L35)</f>
         <v>0</v>
       </c>
       <c r="N35" s="31"/>
@@ -4893,7 +5925,7 @@
         <v>7</v>
       </c>
       <c r="AG35" s="197" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AH35" s="198"/>
       <c r="AI35" s="198"/>
@@ -4915,7 +5947,7 @@
       <c r="C36" s="57"/>
       <c r="D36" s="58"/>
       <c r="E36" s="59" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F36" s="59"/>
       <c r="G36" s="71"/>
@@ -4925,13 +5957,13 @@
       <c r="K36" s="73"/>
       <c r="L36" s="73"/>
       <c r="M36" s="113">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N36" s="31"/>
       <c r="O36" s="26"/>
       <c r="P36" s="26" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="Q36" s="26"/>
       <c r="R36" s="26"/>
@@ -4948,13 +5980,13 @@
       <c r="AE36" s="6"/>
       <c r="AF36" s="1"/>
       <c r="AG36" s="237" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="AH36" s="238" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI36" s="239" t="s">
         <v>19</v>
-      </c>
-      <c r="AI36" s="239" t="s">
-        <v>20</v>
       </c>
       <c r="AK36" t="str">
         <f>$AL$19</f>
@@ -4974,7 +6006,7 @@
       </c>
       <c r="AO36" t="str">
         <f>$AT$19</f>
-        <v xml:space="preserve">     Paris </v>
+        <v xml:space="preserve">Paris </v>
       </c>
       <c r="AP36" t="str">
         <f>$AV$19</f>
@@ -4997,10 +6029,10 @@
         <v>Munich</v>
       </c>
       <c r="AU36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW36" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:49" ht="16" x14ac:dyDescent="0.2">
@@ -5009,7 +6041,7 @@
       <c r="C37" s="57"/>
       <c r="D37" s="58"/>
       <c r="E37" s="59" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F37" s="59"/>
       <c r="G37" s="71"/>
@@ -5019,13 +6051,13 @@
       <c r="K37" s="73"/>
       <c r="L37" s="73"/>
       <c r="M37" s="113">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N37" s="31"/>
       <c r="O37" s="26"/>
       <c r="P37" s="26" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Q37" s="26"/>
       <c r="R37" s="26"/>
@@ -5066,12 +6098,12 @@
       <c r="AU37" s="6"/>
       <c r="AV37" s="6"/>
       <c r="AW37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:49" ht="16" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="N38" s="31"/>
       <c r="Q38" s="26"/>
@@ -5098,7 +6130,7 @@
       <c r="AH38" s="222"/>
       <c r="AI38" s="107"/>
       <c r="AJ38" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK38" s="6"/>
       <c r="AL38" s="6"/>
@@ -5113,7 +6145,7 @@
       <c r="AU38" s="6"/>
       <c r="AV38" s="6"/>
       <c r="AW38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:49" ht="16" x14ac:dyDescent="0.2">
@@ -5155,7 +6187,7 @@
       <c r="AU39" s="6"/>
       <c r="AV39" s="6"/>
       <c r="AW39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:49" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5201,12 +6233,12 @@
     </row>
     <row r="41" spans="1:49" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="171" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B41" s="171"/>
       <c r="C41" s="171"/>
       <c r="D41" s="171" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E41" s="171"/>
       <c r="F41" s="171"/>
@@ -5239,7 +6271,7 @@
       <c r="C42" s="78"/>
       <c r="D42" s="51"/>
       <c r="E42" s="52" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F42" s="52"/>
       <c r="G42" s="75"/>
@@ -5249,7 +6281,7 @@
       <c r="K42" s="77"/>
       <c r="L42" s="77"/>
       <c r="M42" s="113">
-        <f t="shared" ref="M42:M47" si="17">SUM(G42:L42)</f>
+        <f t="shared" ref="M42:M45" si="18">SUM(G42:L42)</f>
         <v>0</v>
       </c>
       <c r="N42" s="31"/>
@@ -5276,7 +6308,7 @@
         <v>8</v>
       </c>
       <c r="AG42" s="197" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AH42" s="198"/>
       <c r="AI42" s="198"/>
@@ -5293,7 +6325,7 @@
       <c r="C43" s="79"/>
       <c r="D43" s="58"/>
       <c r="E43" s="59" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F43" s="59"/>
       <c r="G43" s="71"/>
@@ -5303,7 +6335,7 @@
       <c r="K43" s="73"/>
       <c r="L43" s="73"/>
       <c r="M43" s="113">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N43" s="31"/>
@@ -5324,7 +6356,7 @@
       <c r="AE43" s="6"/>
       <c r="AF43" s="1"/>
       <c r="AJ43" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK43" t="str">
         <f>$AL$19</f>
@@ -5344,7 +6376,7 @@
       </c>
       <c r="AO43" t="str">
         <f>$AT$19</f>
-        <v xml:space="preserve">     Paris </v>
+        <v xml:space="preserve">Paris </v>
       </c>
       <c r="AP43" t="str">
         <f>$AV$19</f>
@@ -5373,7 +6405,7 @@
       <c r="C44" s="79"/>
       <c r="D44" s="58"/>
       <c r="E44" s="59" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F44" s="59"/>
       <c r="G44" s="71"/>
@@ -5383,13 +6415,13 @@
       <c r="K44" s="73"/>
       <c r="L44" s="73"/>
       <c r="M44" s="113">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N44" s="31"/>
       <c r="O44" s="26"/>
       <c r="P44" s="26" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="Q44" s="26"/>
       <c r="R44" s="26"/>
@@ -5439,7 +6471,7 @@
       <c r="K45" s="82"/>
       <c r="L45" s="82"/>
       <c r="M45" s="113">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N45" s="31"/>
@@ -5554,7 +6586,7 @@
         <v>9</v>
       </c>
       <c r="AG48" s="207" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="AH48" s="195"/>
       <c r="AI48" s="195"/>
@@ -5566,12 +6598,12 @@
     </row>
     <row r="49" spans="1:47" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="173" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B49" s="173"/>
       <c r="C49" s="173"/>
       <c r="D49" s="173" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E49" s="173"/>
       <c r="F49" s="173"/>
@@ -5593,7 +6625,7 @@
       <c r="AE49" s="6"/>
       <c r="AF49" s="1"/>
       <c r="AJ49" s="10" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="AK49" t="str">
         <f>$AL$19</f>
@@ -5613,7 +6645,7 @@
       </c>
       <c r="AO49" t="str">
         <f>$AT$19</f>
-        <v xml:space="preserve">     Paris </v>
+        <v xml:space="preserve">Paris </v>
       </c>
       <c r="AP49" t="str">
         <f>$AV$19</f>
@@ -5644,7 +6676,7 @@
       <c r="C50" s="52"/>
       <c r="D50" s="83"/>
       <c r="E50" s="112" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F50" s="52"/>
       <c r="G50" s="75"/>
@@ -5654,7 +6686,7 @@
       <c r="K50" s="84"/>
       <c r="L50" s="84"/>
       <c r="M50" s="113">
-        <f t="shared" ref="M50:M53" si="18">SUM(G50:L50)</f>
+        <f t="shared" ref="M50:M53" si="19">SUM(G50:L50)</f>
         <v>0</v>
       </c>
       <c r="N50" s="31"/>
@@ -5700,7 +6732,7 @@
       <c r="C51" s="59"/>
       <c r="D51" s="85"/>
       <c r="E51" s="59" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F51" s="59"/>
       <c r="G51" s="71"/>
@@ -5710,7 +6742,7 @@
       <c r="K51" s="61"/>
       <c r="L51" s="61"/>
       <c r="M51" s="113">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N51" s="31"/>
@@ -5764,7 +6796,7 @@
       <c r="K52" s="61"/>
       <c r="L52" s="61"/>
       <c r="M52" s="113">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N52" s="31"/>
@@ -5820,7 +6852,7 @@
       <c r="K53" s="82"/>
       <c r="L53" s="82"/>
       <c r="M53" s="113">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N53" s="31"/>
@@ -5862,7 +6894,7 @@
         <v>10</v>
       </c>
       <c r="AG54" s="207" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="AH54" s="195"/>
       <c r="AI54" s="195"/>
@@ -5887,7 +6919,7 @@
       <c r="AE55" s="6"/>
       <c r="AF55" s="1"/>
       <c r="AJ55" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AK55" t="str">
         <f>$AL$19</f>
@@ -5907,7 +6939,7 @@
       </c>
       <c r="AO55" t="str">
         <f>$AT$19</f>
-        <v xml:space="preserve">     Paris </v>
+        <v xml:space="preserve">Paris </v>
       </c>
       <c r="AP55" t="str">
         <f>$AV$19</f>
@@ -5930,7 +6962,7 @@
         <v>Munich</v>
       </c>
       <c r="AU55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:47" ht="16" x14ac:dyDescent="0.2">
@@ -6100,7 +7132,7 @@
       <c r="C60" s="28"/>
       <c r="D60" s="58"/>
       <c r="E60" s="59" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F60" s="59"/>
       <c r="G60" s="71"/>
@@ -6137,7 +7169,7 @@
         <v>11</v>
       </c>
       <c r="AG60" s="207" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="AH60" s="195"/>
       <c r="AI60" s="195"/>
@@ -6192,7 +7224,7 @@
       <c r="AE61" s="6"/>
       <c r="AF61" s="1"/>
       <c r="AG61" s="10" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="AJ61" s="10" t="s">
         <v>10</v>
@@ -6215,7 +7247,7 @@
       </c>
       <c r="AO61" t="str">
         <f>$AT$19</f>
-        <v xml:space="preserve">     Paris </v>
+        <v xml:space="preserve">Paris </v>
       </c>
       <c r="AP61" t="str">
         <f>$AV$19</f>
@@ -6260,7 +7292,7 @@
       <c r="AE62" s="6"/>
       <c r="AF62" s="1"/>
       <c r="AG62" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AJ62" t="s">
         <v>6</v>
@@ -6421,7 +7453,7 @@
       <c r="C67" s="57"/>
       <c r="D67" s="58"/>
       <c r="E67" s="59" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F67" s="59"/>
       <c r="G67" s="71"/>
@@ -6458,7 +7490,7 @@
         <v>12</v>
       </c>
       <c r="AG67" s="207" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AH67" s="195"/>
       <c r="AI67" s="195"/>
@@ -6505,10 +7537,10 @@
       <c r="AE68" s="6"/>
       <c r="AF68" s="1"/>
       <c r="AG68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AJ68" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK68" t="str">
         <f>$AL$19</f>
@@ -6528,7 +7560,7 @@
       </c>
       <c r="AO68" t="str">
         <f>$AT$19</f>
-        <v xml:space="preserve">     Paris </v>
+        <v xml:space="preserve">Paris </v>
       </c>
       <c r="AP68" t="str">
         <f>$AV$19</f>
@@ -6727,7 +7759,7 @@
         <v>13</v>
       </c>
       <c r="AG73" s="207" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="AH73" s="195"/>
       <c r="AI73" s="195"/>
@@ -6776,7 +7808,7 @@
       <c r="AE74" s="6"/>
       <c r="AF74" s="1"/>
       <c r="AJ74" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK74" t="str">
         <f>$AL$19</f>
@@ -6796,7 +7828,7 @@
       </c>
       <c r="AO74" t="str">
         <f>$AT$19</f>
-        <v xml:space="preserve">     Paris </v>
+        <v xml:space="preserve">Paris </v>
       </c>
       <c r="AP74" t="str">
         <f>$AV$19</f>
@@ -6880,7 +7912,7 @@
       <c r="C76" s="28"/>
       <c r="D76" s="58"/>
       <c r="E76" s="59" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F76" s="59"/>
       <c r="G76" s="71"/>
@@ -7027,11 +8059,11 @@
       <c r="AD79" s="196"/>
       <c r="AE79" s="196"/>
       <c r="AF79" s="207">
-        <f t="shared" ref="AF79:AF138" si="19">U79</f>
+        <f t="shared" ref="AF79:AF138" si="20">U79</f>
         <v>14</v>
       </c>
       <c r="AG79" s="207" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AH79" s="195"/>
       <c r="AI79" s="195"/>
@@ -7058,7 +8090,7 @@
       <c r="AE80" s="6"/>
       <c r="AF80" s="1"/>
       <c r="AJ80" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK80" t="str">
         <f>$AL$19</f>
@@ -7078,7 +8110,7 @@
       </c>
       <c r="AO80" t="str">
         <f>$AT$19</f>
-        <v xml:space="preserve">     Paris </v>
+        <v xml:space="preserve">Paris </v>
       </c>
       <c r="AP80" t="str">
         <f>$AV$19</f>
@@ -7147,7 +8179,7 @@
       <c r="C82" s="50"/>
       <c r="D82" s="51"/>
       <c r="E82" s="52" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F82" s="52"/>
       <c r="G82" s="75"/>
@@ -7328,11 +8360,11 @@
       <c r="AD85" s="196"/>
       <c r="AE85" s="196"/>
       <c r="AF85" s="207">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>15</v>
       </c>
       <c r="AG85" s="207" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="AH85" s="195"/>
       <c r="AI85" s="195"/>
@@ -7360,7 +8392,7 @@
       <c r="AE86" s="6"/>
       <c r="AF86" s="1"/>
       <c r="AJ86" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AK86" t="str">
         <f>$AL$19</f>
@@ -7380,7 +8412,7 @@
       </c>
       <c r="AO86" t="str">
         <f>$AT$19</f>
-        <v xml:space="preserve">     Paris </v>
+        <v xml:space="preserve">Paris </v>
       </c>
       <c r="AP86" t="str">
         <f>$AV$19</f>
@@ -7563,11 +8595,11 @@
       <c r="AD91" s="196"/>
       <c r="AE91" s="196"/>
       <c r="AF91" s="207">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>16</v>
       </c>
       <c r="AG91" s="195" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH91" s="195"/>
       <c r="AI91" s="195"/>
@@ -7594,7 +8626,7 @@
       <c r="K92" s="53"/>
       <c r="L92" s="53"/>
       <c r="M92" s="53">
-        <f t="shared" ref="M92:M97" si="20">SUM(G92:K92)</f>
+        <f t="shared" ref="M92:M97" si="21">SUM(G92:K92)</f>
         <v>0</v>
       </c>
       <c r="N92" s="31"/>
@@ -7615,7 +8647,7 @@
       <c r="AE92" s="6"/>
       <c r="AF92" s="1"/>
       <c r="AJ92" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AK92" t="str">
         <f>$AL$19</f>
@@ -7635,7 +8667,7 @@
       </c>
       <c r="AO92" t="str">
         <f>$AT$19</f>
-        <v xml:space="preserve">     Paris </v>
+        <v xml:space="preserve">Paris </v>
       </c>
       <c r="AP92" t="str">
         <f>$AV$19</f>
@@ -7672,7 +8704,7 @@
       <c r="K93" s="34"/>
       <c r="L93" s="34"/>
       <c r="M93" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N93" s="31"/>
@@ -7697,7 +8729,7 @@
       </c>
       <c r="AE93" s="6"/>
       <c r="AF93" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>16</v>
       </c>
       <c r="AJ93" s="6" t="s">
@@ -7728,7 +8760,7 @@
       <c r="K94" s="34"/>
       <c r="L94" s="34"/>
       <c r="M94" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N94" s="31"/>
@@ -7753,7 +8785,7 @@
       </c>
       <c r="AE94" s="6"/>
       <c r="AF94" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>16</v>
       </c>
       <c r="AJ94" s="6" t="s">
@@ -7784,7 +8816,7 @@
       <c r="K95" s="91"/>
       <c r="L95" s="91"/>
       <c r="M95" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N95" s="31"/>
@@ -7809,7 +8841,7 @@
       </c>
       <c r="AE95" s="6"/>
       <c r="AF95" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>16</v>
       </c>
       <c r="AJ95" s="6" t="s">
@@ -7840,7 +8872,7 @@
       <c r="K96" s="91"/>
       <c r="L96" s="91"/>
       <c r="M96" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N96" s="31"/>
@@ -7888,7 +8920,7 @@
       <c r="K97" s="95"/>
       <c r="L97" s="95"/>
       <c r="M97" s="70">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N97" s="31">
@@ -7945,19 +8977,19 @@
       <c r="AD98" s="196"/>
       <c r="AE98" s="196"/>
       <c r="AF98" s="207">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>17</v>
       </c>
       <c r="AG98" s="210" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AH98" s="195"/>
       <c r="AI98" s="207" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AJ98" s="211"/>
       <c r="AK98" s="195" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AL98" s="195" t="s">
         <v>0</v>
@@ -7966,10 +8998,10 @@
         <v>1</v>
       </c>
       <c r="AN98" s="195" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO98" s="208" t="s">
         <v>38</v>
-      </c>
-      <c r="AO98" s="208" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="99" spans="1:46" ht="16" x14ac:dyDescent="0.2">
@@ -8010,14 +9042,14 @@
       </c>
       <c r="AE99" s="86"/>
       <c r="AF99" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>17</v>
       </c>
       <c r="AH99" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI99" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AJ99" s="6" t="s">
         <v>6</v>
@@ -8048,7 +9080,7 @@
       <c r="Q100" s="26"/>
       <c r="R100" s="26"/>
       <c r="U100" s="99">
-        <f t="shared" ref="U100:U101" si="21">U99</f>
+        <f t="shared" ref="U100:U101" si="22">U99</f>
         <v>17</v>
       </c>
       <c r="V100" s="1"/>
@@ -8066,7 +9098,7 @@
       </c>
       <c r="AE100" s="6"/>
       <c r="AF100" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>17</v>
       </c>
       <c r="AH100" s="10"/>
@@ -8100,7 +9132,7 @@
       <c r="Q101" s="26"/>
       <c r="R101" s="26"/>
       <c r="U101" s="99">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>17</v>
       </c>
       <c r="V101" s="1"/>
@@ -8118,7 +9150,7 @@
       </c>
       <c r="AE101" s="6"/>
       <c r="AF101" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>17</v>
       </c>
       <c r="AH101" s="10"/>
@@ -8203,16 +9235,16 @@
       <c r="AD104" s="196"/>
       <c r="AE104" s="196"/>
       <c r="AF104" s="202">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>18</v>
       </c>
       <c r="AG104" s="212"/>
       <c r="AH104" s="207" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI104" s="207"/>
       <c r="AJ104" s="211" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AK104" t="str">
         <f>$AL$19</f>
@@ -8232,7 +9264,7 @@
       </c>
       <c r="AO104" t="str">
         <f>$AT$19</f>
-        <v xml:space="preserve">     Paris </v>
+        <v xml:space="preserve">Paris </v>
       </c>
       <c r="AP104" t="str">
         <f>$AV$19</f>
@@ -8279,7 +9311,7 @@
       </c>
       <c r="AE105" s="6"/>
       <c r="AF105" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>18</v>
       </c>
       <c r="AJ105" s="6" t="s">
@@ -8316,7 +9348,7 @@
       </c>
       <c r="AE106" s="6"/>
       <c r="AF106" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>18</v>
       </c>
       <c r="AJ106" s="6" t="s">
@@ -8353,7 +9385,7 @@
       </c>
       <c r="AE107" s="6"/>
       <c r="AF107" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>18</v>
       </c>
       <c r="AJ107" s="6" t="s">
@@ -8427,11 +9459,11 @@
       <c r="AD110" s="196"/>
       <c r="AE110" s="196"/>
       <c r="AF110" s="202">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>19</v>
       </c>
       <c r="AG110" s="212" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AH110" s="195"/>
       <c r="AI110" s="195"/>
@@ -8454,7 +9486,7 @@
       <c r="AE111" s="6"/>
       <c r="AF111" s="1"/>
       <c r="AJ111" s="10" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="AK111" t="str">
         <f>$AL$19</f>
@@ -8474,7 +9506,7 @@
       </c>
       <c r="AO111" t="str">
         <f>$AT$19</f>
-        <v xml:space="preserve">     Paris </v>
+        <v xml:space="preserve">Paris </v>
       </c>
       <c r="AP111" t="str">
         <f>$AV$19</f>
@@ -8656,11 +9688,11 @@
       <c r="AD117" s="196"/>
       <c r="AE117" s="196"/>
       <c r="AF117" s="207">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="AG117" s="195" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AH117" s="195"/>
       <c r="AI117" s="195"/>
@@ -8683,7 +9715,7 @@
       <c r="AE118" s="6"/>
       <c r="AF118" s="1"/>
       <c r="AJ118" s="10" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="AK118" t="str">
         <f>$AL$19</f>
@@ -8703,7 +9735,7 @@
       </c>
       <c r="AO118" t="str">
         <f>$AT$19</f>
-        <v xml:space="preserve">     Paris </v>
+        <v xml:space="preserve">Paris </v>
       </c>
       <c r="AP118" t="str">
         <f>$AV$19</f>
@@ -8885,11 +9917,11 @@
       <c r="AD124" s="196"/>
       <c r="AE124" s="196"/>
       <c r="AF124" s="207">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>21</v>
       </c>
       <c r="AG124" s="195" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AH124" s="195"/>
       <c r="AI124" s="195"/>
@@ -8910,7 +9942,7 @@
       <c r="AE125" s="6"/>
       <c r="AF125" s="1"/>
       <c r="AJ125" s="10" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="AK125" t="str">
         <f>$AL$19</f>
@@ -8930,7 +9962,7 @@
       </c>
       <c r="AO125" t="str">
         <f>$AT$19</f>
-        <v xml:space="preserve">     Paris </v>
+        <v xml:space="preserve">Paris </v>
       </c>
       <c r="AP125" t="str">
         <f>$AV$19</f>
@@ -9112,11 +10144,11 @@
       <c r="AD131" s="196"/>
       <c r="AE131" s="196"/>
       <c r="AF131" s="207">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>22</v>
       </c>
       <c r="AG131" s="195" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH131" s="195"/>
       <c r="AI131" s="195"/>
@@ -9137,7 +10169,7 @@
       <c r="AE132" s="86"/>
       <c r="AF132" s="1"/>
       <c r="AJ132" s="10" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="AK132" t="str">
         <f>$AL$19</f>
@@ -9157,7 +10189,7 @@
       </c>
       <c r="AO132" t="str">
         <f>$AT$19</f>
-        <v xml:space="preserve">     Paris </v>
+        <v xml:space="preserve">Paris </v>
       </c>
       <c r="AP132" t="str">
         <f>$AV$19</f>
@@ -9180,7 +10212,7 @@
         <v>Munich</v>
       </c>
       <c r="AU132" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="133" spans="21:48" x14ac:dyDescent="0.2">
@@ -9350,11 +10382,11 @@
       <c r="AD138" s="196"/>
       <c r="AE138" s="196"/>
       <c r="AF138" s="207">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>23</v>
       </c>
       <c r="AG138" s="195" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH138" s="195"/>
       <c r="AI138" s="195"/>
@@ -9394,7 +10426,7 @@
       </c>
       <c r="AO139" t="str">
         <f>$AT$19</f>
-        <v xml:space="preserve">     Paris </v>
+        <v xml:space="preserve">Paris </v>
       </c>
       <c r="AP139" t="str">
         <f>$AV$19</f>
@@ -9417,7 +10449,7 @@
         <v>Munich</v>
       </c>
       <c r="AU139" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="140" spans="21:48" x14ac:dyDescent="0.2">
@@ -9564,7 +10596,7 @@
       <c r="AE144" s="6"/>
       <c r="AF144" s="1"/>
       <c r="AJ144" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AK144" s="86"/>
       <c r="AL144" s="86"/>
@@ -9581,7 +10613,7 @@
     </row>
     <row r="145" spans="21:34" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="U145" s="11" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="V145" s="12"/>
       <c r="W145" s="12"/>
@@ -9591,7 +10623,7 @@
         <v>30</v>
       </c>
       <c r="AA145" s="12" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AB145" s="12"/>
       <c r="AC145" s="12"/>
@@ -9603,7 +10635,7 @@
     </row>
     <row r="146" spans="21:34" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="U146" s="123" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="V146" s="97"/>
       <c r="W146" s="97"/>
@@ -9625,7 +10657,7 @@
         <v>0</v>
       </c>
       <c r="AF146" s="249" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AG146" s="200"/>
       <c r="AH146" s="201"/>
@@ -9680,7 +10712,7 @@
   <sheetData>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -9702,7 +10734,7 @@
       </c>
       <c r="I3" t="str">
         <f>'RAIL COST help sheet'!P13</f>
-        <v xml:space="preserve">     Paris </v>
+        <v xml:space="preserve">Paris </v>
       </c>
       <c r="J3" t="str">
         <f>'RAIL COST help sheet'!Q13</f>
@@ -9731,37 +10763,37 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="197" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B11" s="262"/>
       <c r="C11" s="262"/>
@@ -9770,7 +10802,7 @@
       <c r="F11" s="12"/>
       <c r="G11" s="13"/>
       <c r="K11" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
@@ -9785,7 +10817,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="15"/>
       <c r="K12" s="10" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
@@ -9820,7 +10852,7 @@
       </c>
       <c r="P13" t="str">
         <f>'Current base situation'!$AT$19</f>
-        <v xml:space="preserve">     Paris </v>
+        <v xml:space="preserve">Paris </v>
       </c>
       <c r="Q13" t="str">
         <f>'Current base situation'!$AV$19</f>
@@ -9845,10 +10877,10 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="252" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -9856,7 +10888,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="15"/>
       <c r="K14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="L14">
         <f t="shared" ref="L14:U14" si="0">SUM(L15:L23)</f>
@@ -9901,10 +10933,10 @@
     </row>
     <row r="15" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="96" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -9912,7 +10944,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="15"/>
       <c r="K15" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
@@ -9930,20 +10962,20 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G16" s="106"/>
       <c r="H16" s="261" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="K16" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -9958,18 +10990,18 @@
     </row>
     <row r="17" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="251" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="98" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="107"/>
       <c r="K17" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L17" s="6">
         <v>0</v>
@@ -9987,7 +11019,7 @@
     <row r="18" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="98" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -9995,7 +11027,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="15"/>
       <c r="K18" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="L18" s="6">
         <v>0</v>
@@ -10012,20 +11044,20 @@
     </row>
     <row r="19" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B19" s="98" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="15"/>
       <c r="K19" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="L19" s="6">
         <v>0</v>
@@ -10043,7 +11075,7 @@
     <row r="20" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
       <c r="B20" s="98" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -10051,7 +11083,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="15"/>
       <c r="K20" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="L20" s="6">
         <v>0</v>
@@ -10068,10 +11100,10 @@
     </row>
     <row r="21" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="251" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="6"/>
@@ -10079,7 +11111,7 @@
       <c r="F21" s="6"/>
       <c r="G21" s="107"/>
       <c r="K21" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L21" s="6">
         <v>0</v>
@@ -10097,7 +11129,7 @@
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="21"/>
       <c r="B22" s="98" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -10106,7 +11138,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="K22" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L22" s="6">
         <v>0</v>
@@ -10131,7 +11163,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="K23" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="L23" s="6">
         <v>0</v>
@@ -10149,29 +11181,29 @@
     <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
       <c r="B24" s="149" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C24" s="97"/>
       <c r="D24" s="123" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E24" s="97" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F24" s="97" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G24" s="97" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H24" s="231" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="150" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="152">
@@ -10188,7 +11220,7 @@
       </c>
       <c r="H25" s="260"/>
       <c r="K25" s="122" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="L25" s="190"/>
       <c r="M25" s="217"/>
@@ -10196,7 +11228,7 @@
     <row r="26" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="B26" s="127" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="154">
@@ -10213,25 +11245,25 @@
       </c>
       <c r="H26" s="260"/>
       <c r="K26" s="218" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="L26" s="218" t="s">
+        <v>83</v>
+      </c>
+      <c r="M26" s="218" t="s">
+        <v>86</v>
+      </c>
+      <c r="N26" s="125" t="s">
         <v>89</v>
       </c>
-      <c r="M26" s="218" t="s">
-        <v>92</v>
-      </c>
-      <c r="N26" s="125" t="s">
-        <v>95</v>
-      </c>
       <c r="O26" s="125" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="21"/>
       <c r="B27" s="127" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="154">
@@ -10248,7 +11280,7 @@
       </c>
       <c r="H27" s="260"/>
       <c r="J27" s="150" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="K27" s="219"/>
       <c r="L27" s="220"/>
@@ -10259,7 +11291,7 @@
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="21"/>
       <c r="B28" s="127" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="154">
@@ -10276,7 +11308,7 @@
       </c>
       <c r="H28" s="260"/>
       <c r="J28" s="127" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K28" s="222"/>
       <c r="L28" s="6"/>
@@ -10287,7 +11319,7 @@
     <row r="29" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
       <c r="B29" s="151" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="226">
@@ -10304,7 +11336,7 @@
       </c>
       <c r="H29" s="260"/>
       <c r="J29" s="127" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K29" s="222"/>
       <c r="L29" s="6"/>
@@ -10322,7 +11354,7 @@
       <c r="G30" s="259"/>
       <c r="H30" s="258"/>
       <c r="J30" s="127" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K30" s="222"/>
       <c r="L30" s="6"/>
@@ -10340,7 +11372,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="J31" s="151" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K31" s="223"/>
       <c r="L31" s="224"/>
@@ -10351,7 +11383,7 @@
     <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
       <c r="B32" s="149" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="1"/>
@@ -10362,25 +11394,25 @@
     </row>
     <row r="33" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="149" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C33" s="97"/>
       <c r="D33" s="123" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E33" s="97" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F33" s="97" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B34" s="150" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="152"/>
@@ -10390,7 +11422,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B35" s="127" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="154"/>
@@ -10398,24 +11430,24 @@
       <c r="F35" s="155"/>
       <c r="G35" s="155"/>
       <c r="K35" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="L35" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="N35" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="M35" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="N35" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="O35" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="127" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="154"/>
@@ -10430,7 +11462,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B37" s="127" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="154"/>
@@ -10445,7 +11477,7 @@
     </row>
     <row r="38" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="151" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="154"/>
@@ -10475,10 +11507,10 @@
     <row r="41" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B42" s="149" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="1"/>
@@ -10490,66 +11522,66 @@
     <row r="43" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="21"/>
       <c r="B43" s="98" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="98" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E43" s="98" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F43" s="98" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G43" s="98" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="21"/>
       <c r="B44" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="K44" s="149" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="L44" s="19"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
       <c r="B45" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="K45" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="L45" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="N45" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="M45" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="N45" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="O45" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
       <c r="B46" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
@@ -10564,7 +11596,7 @@
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
       <c r="B47" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
@@ -10579,7 +11611,7 @@
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
       <c r="B48" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
@@ -10623,10 +11655,10 @@
     </row>
     <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B51" s="149" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C51" s="19"/>
       <c r="D51" s="1"/>
@@ -10638,66 +11670,66 @@
     <row r="52" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="21"/>
       <c r="B52" s="108" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="98" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E52" s="98" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F52" s="98" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G52" s="98" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="21"/>
       <c r="B53" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="K53" s="149" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="L53" s="19"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
       <c r="B54" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="K54" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="L54" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="N54" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="M54" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="N54" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="O54" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
       <c r="B55" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
@@ -10712,7 +11744,7 @@
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
       <c r="B56" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -10727,7 +11759,7 @@
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
       <c r="B57" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
@@ -10771,11 +11803,11 @@
     <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="21"/>
       <c r="B60" s="122" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C60" s="97"/>
       <c r="D60" s="190" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E60" s="97"/>
       <c r="F60" s="97"/>
@@ -10783,25 +11815,25 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="K62" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="L62" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="N62" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="M62" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="N62" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="O62" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B68" s="122" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C68" s="97"/>
       <c r="D68" s="97"/>
@@ -10811,38 +11843,38 @@
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="K70" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="L70" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M70" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="N70" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="M70" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="N70" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="O70" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D73" s="98" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E73" s="98" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F73" s="98" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G73" s="98" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B74" s="122" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C74" s="97"/>
       <c r="D74" s="97"/>
@@ -10885,4 +11917,1767 @@
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA50"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Y14" sqref="Y14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.59765625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25" style="271" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" style="271" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" style="271" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="21.19921875" style="271" customWidth="1" collapsed="1"/>
+    <col min="5" max="10" width="10.59765625" style="271" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="10.59765625" style="271" collapsed="1"/>
+    <col min="12" max="12" width="11" style="271" customWidth="1"/>
+    <col min="13" max="13" width="27.3984375" style="271" customWidth="1"/>
+    <col min="14" max="14" width="21.59765625" style="271" customWidth="1"/>
+    <col min="15" max="15" width="19.59765625" style="271" customWidth="1"/>
+    <col min="16" max="19" width="7.59765625" style="271" customWidth="1"/>
+    <col min="20" max="26" width="8.796875" style="271" customWidth="1"/>
+    <col min="27" max="27" width="6" style="271" customWidth="1"/>
+    <col min="28" max="16384" width="10.59765625" style="271"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1" s="272" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="272">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A3" s="272" t="s">
+        <v>258</v>
+      </c>
+      <c r="B3" s="272" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4" s="272" t="s">
+        <v>259</v>
+      </c>
+      <c r="B4" s="272" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5" s="272" t="s">
+        <v>260</v>
+      </c>
+      <c r="B5" s="272" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6" s="272" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" s="272" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A7" s="279"/>
+      <c r="B7" s="279"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A8" s="276"/>
+      <c r="B8" s="271" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A10" s="271" t="s">
+        <v>248</v>
+      </c>
+      <c r="B10" s="271" t="s">
+        <v>250</v>
+      </c>
+      <c r="C10" s="271" t="s">
+        <v>233</v>
+      </c>
+      <c r="D10" s="271" t="s">
+        <v>251</v>
+      </c>
+      <c r="E10" s="271" t="s">
+        <v>234</v>
+      </c>
+      <c r="F10" s="271" t="s">
+        <v>235</v>
+      </c>
+      <c r="G10" s="271" t="s">
+        <v>236</v>
+      </c>
+      <c r="H10" s="271" t="s">
+        <v>237</v>
+      </c>
+      <c r="L10" s="277" t="s">
+        <v>247</v>
+      </c>
+      <c r="M10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A11" s="271" t="str">
+        <f>'Current base situation'!$AL$19</f>
+        <v>Venlo</v>
+      </c>
+      <c r="B11" s="271" t="s">
+        <v>238</v>
+      </c>
+      <c r="C11" s="271">
+        <v>1.25</v>
+      </c>
+      <c r="D11" s="280">
+        <f>1-SUM(D12:D14)</f>
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="E11" s="271">
+        <f>D11*HLOOKUP(A11,'Current base situation'!$19:$21,3,0)</f>
+        <v>60000.000000000022</v>
+      </c>
+      <c r="F11" s="271">
+        <f>E11/C11</f>
+        <v>48000.000000000015</v>
+      </c>
+      <c r="G11" s="271">
+        <f t="shared" ref="G11:G50" si="0">ROUNDDOWN($B$1/C11,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H11" s="271">
+        <f>F11/G11</f>
+        <v>48000.000000000015</v>
+      </c>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A12" s="271" t="str">
+        <f>'Current base situation'!$AL$19</f>
+        <v>Venlo</v>
+      </c>
+      <c r="B12" s="271" t="s">
+        <v>239</v>
+      </c>
+      <c r="C12" s="271">
+        <v>1.25</v>
+      </c>
+      <c r="D12" s="275">
+        <v>0.6</v>
+      </c>
+      <c r="E12" s="271">
+        <f>D12*HLOOKUP(A12,'Current base situation'!$19:$21,3,0)</f>
+        <v>180000</v>
+      </c>
+      <c r="F12" s="271">
+        <f t="shared" ref="F12:F50" si="1">E12/C12</f>
+        <v>144000</v>
+      </c>
+      <c r="G12" s="271">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H12" s="271">
+        <f t="shared" ref="H12:H50" si="2">F12/G12</f>
+        <v>144000</v>
+      </c>
+      <c r="L12"/>
+      <c r="M12" s="277" t="s">
+        <v>262</v>
+      </c>
+      <c r="N12"/>
+      <c r="O12"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A13" s="271" t="str">
+        <f>'Current base situation'!$AL$19</f>
+        <v>Venlo</v>
+      </c>
+      <c r="B13" s="271" t="s">
+        <v>240</v>
+      </c>
+      <c r="C13" s="271">
+        <v>1.5</v>
+      </c>
+      <c r="D13" s="275">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="271">
+        <f>D13*HLOOKUP(A13,'Current base situation'!$19:$21,3,0)</f>
+        <v>30000</v>
+      </c>
+      <c r="F13" s="271">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
+      <c r="G13" s="271">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H13" s="271">
+        <f t="shared" si="2"/>
+        <v>20000</v>
+      </c>
+      <c r="L13" s="277" t="s">
+        <v>249</v>
+      </c>
+      <c r="M13" t="s">
+        <v>255</v>
+      </c>
+      <c r="N13" t="s">
+        <v>256</v>
+      </c>
+      <c r="O13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A14" s="271" t="str">
+        <f>'Current base situation'!$AL$19</f>
+        <v>Venlo</v>
+      </c>
+      <c r="B14" s="271" t="s">
+        <v>241</v>
+      </c>
+      <c r="C14" s="271">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="275">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="271">
+        <f>D14*HLOOKUP(A14,'Current base situation'!$19:$21,3,0)</f>
+        <v>30000</v>
+      </c>
+      <c r="F14" s="271">
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
+      <c r="G14" s="271">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H14" s="271">
+        <f t="shared" si="2"/>
+        <v>20000</v>
+      </c>
+      <c r="L14" t="s">
+        <v>238</v>
+      </c>
+      <c r="M14" s="278">
+        <v>60000.000000000022</v>
+      </c>
+      <c r="N14" s="278">
+        <v>48000.000000000015</v>
+      </c>
+      <c r="O14" s="278">
+        <v>48000.000000000015</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A15" s="271" t="str">
+        <f>'Current base situation'!$AP$19</f>
+        <v>Wolfsburg</v>
+      </c>
+      <c r="B15" s="271" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="271">
+        <v>1.25</v>
+      </c>
+      <c r="D15" s="280">
+        <f>1-SUM(D16:D18)</f>
+        <v>0.29999999999999993</v>
+      </c>
+      <c r="E15" s="271">
+        <f>D15*HLOOKUP(A15,'Current base situation'!$19:$21,3,0)</f>
+        <v>179999.99999999997</v>
+      </c>
+      <c r="F15" s="271">
+        <f t="shared" si="1"/>
+        <v>143999.99999999997</v>
+      </c>
+      <c r="G15" s="271">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H15" s="271">
+        <f t="shared" si="2"/>
+        <v>143999.99999999997</v>
+      </c>
+      <c r="L15" t="s">
+        <v>239</v>
+      </c>
+      <c r="M15" s="278">
+        <v>180000</v>
+      </c>
+      <c r="N15" s="278">
+        <v>144000</v>
+      </c>
+      <c r="O15" s="278">
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A16" s="271" t="str">
+        <f>'Current base situation'!$AP$19</f>
+        <v>Wolfsburg</v>
+      </c>
+      <c r="B16" s="271" t="s">
+        <v>239</v>
+      </c>
+      <c r="C16" s="271">
+        <v>1.25</v>
+      </c>
+      <c r="D16" s="275">
+        <v>0.4</v>
+      </c>
+      <c r="E16" s="271">
+        <f>D16*HLOOKUP(A16,'Current base situation'!$19:$21,3,0)</f>
+        <v>240000</v>
+      </c>
+      <c r="F16" s="271">
+        <f t="shared" si="1"/>
+        <v>192000</v>
+      </c>
+      <c r="G16" s="271">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H16" s="271">
+        <f t="shared" si="2"/>
+        <v>192000</v>
+      </c>
+      <c r="L16" t="s">
+        <v>240</v>
+      </c>
+      <c r="M16" s="278">
+        <v>30000</v>
+      </c>
+      <c r="N16" s="278">
+        <v>20000</v>
+      </c>
+      <c r="O16" s="278">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="271" t="str">
+        <f>'Current base situation'!$AP$19</f>
+        <v>Wolfsburg</v>
+      </c>
+      <c r="B17" s="271" t="s">
+        <v>240</v>
+      </c>
+      <c r="C17" s="271">
+        <v>1.5</v>
+      </c>
+      <c r="D17" s="275">
+        <v>0.2</v>
+      </c>
+      <c r="E17" s="271">
+        <f>D17*HLOOKUP(A17,'Current base situation'!$19:$21,3,0)</f>
+        <v>120000</v>
+      </c>
+      <c r="F17" s="271">
+        <f t="shared" si="1"/>
+        <v>80000</v>
+      </c>
+      <c r="G17" s="271">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H17" s="271">
+        <f t="shared" si="2"/>
+        <v>80000</v>
+      </c>
+      <c r="L17" t="s">
+        <v>241</v>
+      </c>
+      <c r="M17" s="278">
+        <v>30000</v>
+      </c>
+      <c r="N17" s="278">
+        <v>60000</v>
+      </c>
+      <c r="O17" s="278">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="271" t="str">
+        <f>'Current base situation'!$AP$19</f>
+        <v>Wolfsburg</v>
+      </c>
+      <c r="B18" s="271" t="s">
+        <v>241</v>
+      </c>
+      <c r="C18" s="271">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="275">
+        <v>0.1</v>
+      </c>
+      <c r="E18" s="271">
+        <f>D18*HLOOKUP(A18,'Current base situation'!$19:$21,3,0)</f>
+        <v>60000</v>
+      </c>
+      <c r="F18" s="271">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
+      <c r="G18" s="271">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H18" s="271">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+      <c r="L18" t="s">
+        <v>254</v>
+      </c>
+      <c r="M18" s="278">
+        <v>300000</v>
+      </c>
+      <c r="N18" s="278">
+        <v>272000</v>
+      </c>
+      <c r="O18" s="278">
+        <v>232000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="271" t="str">
+        <f>'Current base situation'!$AR$19</f>
+        <v>Saarbrucke</v>
+      </c>
+      <c r="B19" s="271" t="s">
+        <v>238</v>
+      </c>
+      <c r="C19" s="271">
+        <v>1.25</v>
+      </c>
+      <c r="D19" s="280">
+        <f>1-SUM(D20:D22)</f>
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="E19" s="271">
+        <f>D19*HLOOKUP(A19,'Current base situation'!$19:$21,3,0)</f>
+        <v>60000.000000000022</v>
+      </c>
+      <c r="F19" s="271">
+        <f t="shared" si="1"/>
+        <v>48000.000000000015</v>
+      </c>
+      <c r="G19" s="271">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H19" s="271">
+        <f t="shared" si="2"/>
+        <v>48000.000000000015</v>
+      </c>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="271" t="str">
+        <f>'Current base situation'!$AR$19</f>
+        <v>Saarbrucke</v>
+      </c>
+      <c r="B20" s="271" t="s">
+        <v>239</v>
+      </c>
+      <c r="C20" s="271">
+        <v>1.25</v>
+      </c>
+      <c r="D20" s="275">
+        <v>0.3</v>
+      </c>
+      <c r="E20" s="271">
+        <f>D20*HLOOKUP(A20,'Current base situation'!$19:$21,3,0)</f>
+        <v>90000</v>
+      </c>
+      <c r="F20" s="271">
+        <f t="shared" si="1"/>
+        <v>72000</v>
+      </c>
+      <c r="G20" s="271">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H20" s="271">
+        <f t="shared" si="2"/>
+        <v>72000</v>
+      </c>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="271" t="str">
+        <f>'Current base situation'!$AR$19</f>
+        <v>Saarbrucke</v>
+      </c>
+      <c r="B21" s="271" t="s">
+        <v>240</v>
+      </c>
+      <c r="C21" s="271">
+        <v>1.5</v>
+      </c>
+      <c r="D21" s="275">
+        <v>0.35</v>
+      </c>
+      <c r="E21" s="271">
+        <f>D21*HLOOKUP(A21,'Current base situation'!$19:$21,3,0)</f>
+        <v>105000</v>
+      </c>
+      <c r="F21" s="271">
+        <f t="shared" si="1"/>
+        <v>70000</v>
+      </c>
+      <c r="G21" s="271">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H21" s="271">
+        <f t="shared" si="2"/>
+        <v>70000</v>
+      </c>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="271" t="str">
+        <f>'Current base situation'!$AR$19</f>
+        <v>Saarbrucke</v>
+      </c>
+      <c r="B22" s="271" t="s">
+        <v>241</v>
+      </c>
+      <c r="C22" s="271">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="275">
+        <v>0.15</v>
+      </c>
+      <c r="E22" s="271">
+        <f>D22*HLOOKUP(A22,'Current base situation'!$19:$21,3,0)</f>
+        <v>45000</v>
+      </c>
+      <c r="F22" s="271">
+        <f t="shared" si="1"/>
+        <v>90000</v>
+      </c>
+      <c r="G22" s="271">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H22" s="271">
+        <f t="shared" si="2"/>
+        <v>30000</v>
+      </c>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="271" t="str">
+        <f>'Current base situation'!$AX$19</f>
+        <v>Praha CZ</v>
+      </c>
+      <c r="B23" s="271" t="s">
+        <v>238</v>
+      </c>
+      <c r="C23" s="271">
+        <v>1.25</v>
+      </c>
+      <c r="D23" s="280">
+        <f>1-SUM(D24:D26)</f>
+        <v>0.4</v>
+      </c>
+      <c r="E23" s="271">
+        <f>D23*HLOOKUP(A23,'Current base situation'!$19:$21,3,0)</f>
+        <v>120000</v>
+      </c>
+      <c r="F23" s="271">
+        <f t="shared" si="1"/>
+        <v>96000</v>
+      </c>
+      <c r="G23" s="271">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H23" s="271">
+        <f t="shared" si="2"/>
+        <v>96000</v>
+      </c>
+      <c r="L23"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="271" t="str">
+        <f>'Current base situation'!$AX$19</f>
+        <v>Praha CZ</v>
+      </c>
+      <c r="B24" s="271" t="s">
+        <v>239</v>
+      </c>
+      <c r="C24" s="271">
+        <v>1.25</v>
+      </c>
+      <c r="D24" s="275">
+        <v>0.1</v>
+      </c>
+      <c r="E24" s="271">
+        <f>D24*HLOOKUP(A24,'Current base situation'!$19:$21,3,0)</f>
+        <v>30000</v>
+      </c>
+      <c r="F24" s="271">
+        <f t="shared" si="1"/>
+        <v>24000</v>
+      </c>
+      <c r="G24" s="271">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H24" s="271">
+        <f t="shared" si="2"/>
+        <v>24000</v>
+      </c>
+      <c r="L24"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="271" t="str">
+        <f>'Current base situation'!$AX$19</f>
+        <v>Praha CZ</v>
+      </c>
+      <c r="B25" s="271" t="s">
+        <v>240</v>
+      </c>
+      <c r="C25" s="271">
+        <v>1.5</v>
+      </c>
+      <c r="D25" s="275">
+        <v>0.4</v>
+      </c>
+      <c r="E25" s="271">
+        <f>D25*HLOOKUP(A25,'Current base situation'!$19:$21,3,0)</f>
+        <v>120000</v>
+      </c>
+      <c r="F25" s="271">
+        <f t="shared" si="1"/>
+        <v>80000</v>
+      </c>
+      <c r="G25" s="271">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H25" s="271">
+        <f t="shared" si="2"/>
+        <v>80000</v>
+      </c>
+      <c r="L25"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="271" t="str">
+        <f>'Current base situation'!$AX$19</f>
+        <v>Praha CZ</v>
+      </c>
+      <c r="B26" s="271" t="s">
+        <v>241</v>
+      </c>
+      <c r="C26" s="271">
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="275">
+        <v>0.1</v>
+      </c>
+      <c r="E26" s="271">
+        <f>D26*HLOOKUP(A26,'Current base situation'!$19:$21,3,0)</f>
+        <v>30000</v>
+      </c>
+      <c r="F26" s="271">
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
+      <c r="G26" s="271">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H26" s="271">
+        <f t="shared" si="2"/>
+        <v>20000</v>
+      </c>
+      <c r="L26"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="271" t="str">
+        <f>'Current base situation'!$BB$19</f>
+        <v>Bilbao It.</v>
+      </c>
+      <c r="B27" s="271" t="s">
+        <v>238</v>
+      </c>
+      <c r="C27" s="271">
+        <v>1.25</v>
+      </c>
+      <c r="D27" s="280">
+        <f>1-SUM(D28:D30)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="271">
+        <f>D27*HLOOKUP(A27,'Current base situation'!$19:$21,3,0)</f>
+        <v>150000</v>
+      </c>
+      <c r="F27" s="271">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
+      <c r="G27" s="271">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H27" s="271">
+        <f t="shared" si="2"/>
+        <v>120000</v>
+      </c>
+      <c r="L27"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="271" t="str">
+        <f>'Current base situation'!$BB$19</f>
+        <v>Bilbao It.</v>
+      </c>
+      <c r="B28" s="271" t="s">
+        <v>239</v>
+      </c>
+      <c r="C28" s="271">
+        <v>1.25</v>
+      </c>
+      <c r="D28" s="275">
+        <v>0.2</v>
+      </c>
+      <c r="E28" s="271">
+        <f>D28*HLOOKUP(A28,'Current base situation'!$19:$21,3,0)</f>
+        <v>60000</v>
+      </c>
+      <c r="F28" s="271">
+        <f t="shared" si="1"/>
+        <v>48000</v>
+      </c>
+      <c r="G28" s="271">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H28" s="271">
+        <f t="shared" si="2"/>
+        <v>48000</v>
+      </c>
+      <c r="L28"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="271" t="str">
+        <f>'Current base situation'!$BB$19</f>
+        <v>Bilbao It.</v>
+      </c>
+      <c r="B29" s="271" t="s">
+        <v>240</v>
+      </c>
+      <c r="C29" s="271">
+        <v>1.5</v>
+      </c>
+      <c r="D29" s="275">
+        <v>0.1</v>
+      </c>
+      <c r="E29" s="271">
+        <f>D29*HLOOKUP(A29,'Current base situation'!$19:$21,3,0)</f>
+        <v>30000</v>
+      </c>
+      <c r="F29" s="271">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
+      <c r="G29" s="271">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H29" s="271">
+        <f t="shared" si="2"/>
+        <v>20000</v>
+      </c>
+      <c r="L29"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="271" t="str">
+        <f>'Current base situation'!$BB$19</f>
+        <v>Bilbao It.</v>
+      </c>
+      <c r="B30" s="271" t="s">
+        <v>241</v>
+      </c>
+      <c r="C30" s="271">
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="275">
+        <v>0.2</v>
+      </c>
+      <c r="E30" s="271">
+        <f>D30*HLOOKUP(A30,'Current base situation'!$19:$21,3,0)</f>
+        <v>60000</v>
+      </c>
+      <c r="F30" s="271">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
+      <c r="G30" s="271">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H30" s="271">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+      <c r="L30"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="271" t="str">
+        <f>'Current base situation'!$AN$19</f>
+        <v xml:space="preserve">Germersheim  </v>
+      </c>
+      <c r="B31" s="271" t="s">
+        <v>238</v>
+      </c>
+      <c r="C31" s="271">
+        <v>1.25</v>
+      </c>
+      <c r="D31" s="280">
+        <f>1-SUM(D32:D34)</f>
+        <v>0.25</v>
+      </c>
+      <c r="E31" s="271">
+        <f>D31*HLOOKUP(A31,'Current base situation'!$19:$21,3,0)</f>
+        <v>75000</v>
+      </c>
+      <c r="F31" s="271">
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
+      <c r="G31" s="271">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H31" s="271">
+        <f t="shared" si="2"/>
+        <v>60000</v>
+      </c>
+      <c r="L31"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="271" t="str">
+        <f>'Current base situation'!$AN$19</f>
+        <v xml:space="preserve">Germersheim  </v>
+      </c>
+      <c r="B32" s="271" t="s">
+        <v>239</v>
+      </c>
+      <c r="C32" s="271">
+        <v>1.25</v>
+      </c>
+      <c r="D32" s="275">
+        <v>0.45</v>
+      </c>
+      <c r="E32" s="271">
+        <f>D32*HLOOKUP(A32,'Current base situation'!$19:$21,3,0)</f>
+        <v>135000</v>
+      </c>
+      <c r="F32" s="271">
+        <f t="shared" si="1"/>
+        <v>108000</v>
+      </c>
+      <c r="G32" s="271">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H32" s="271">
+        <f t="shared" si="2"/>
+        <v>108000</v>
+      </c>
+      <c r="L32"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="271" t="str">
+        <f>'Current base situation'!$AN$19</f>
+        <v xml:space="preserve">Germersheim  </v>
+      </c>
+      <c r="B33" s="271" t="s">
+        <v>240</v>
+      </c>
+      <c r="C33" s="271">
+        <v>1.5</v>
+      </c>
+      <c r="D33" s="275">
+        <v>0.2</v>
+      </c>
+      <c r="E33" s="271">
+        <f>D33*HLOOKUP(A33,'Current base situation'!$19:$21,3,0)</f>
+        <v>60000</v>
+      </c>
+      <c r="F33" s="271">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+      <c r="G33" s="271">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H33" s="271">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+      <c r="L33"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="271" t="str">
+        <f>'Current base situation'!$AN$19</f>
+        <v xml:space="preserve">Germersheim  </v>
+      </c>
+      <c r="B34" s="271" t="s">
+        <v>241</v>
+      </c>
+      <c r="C34" s="271">
+        <v>0.5</v>
+      </c>
+      <c r="D34" s="275">
+        <v>0.1</v>
+      </c>
+      <c r="E34" s="271">
+        <f>D34*HLOOKUP(A34,'Current base situation'!$19:$21,3,0)</f>
+        <v>30000</v>
+      </c>
+      <c r="F34" s="271">
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
+      <c r="G34" s="271">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H34" s="271">
+        <f t="shared" si="2"/>
+        <v>20000</v>
+      </c>
+      <c r="L34"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="271" t="str">
+        <f>'Current base situation'!$AV$19</f>
+        <v xml:space="preserve">Torino  It. </v>
+      </c>
+      <c r="B35" s="271" t="s">
+        <v>238</v>
+      </c>
+      <c r="C35" s="271">
+        <v>1.25</v>
+      </c>
+      <c r="D35" s="280">
+        <f>1-SUM(D36:D38)</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="E35" s="271">
+        <f>D35*HLOOKUP(A35,'Current base situation'!$19:$21,3,0)</f>
+        <v>45000.000000000007</v>
+      </c>
+      <c r="F35" s="271">
+        <f t="shared" si="1"/>
+        <v>36000.000000000007</v>
+      </c>
+      <c r="G35" s="271">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H35" s="271">
+        <f t="shared" si="2"/>
+        <v>36000.000000000007</v>
+      </c>
+      <c r="L35"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="271" t="str">
+        <f>'Current base situation'!$AV$19</f>
+        <v xml:space="preserve">Torino  It. </v>
+      </c>
+      <c r="B36" s="271" t="s">
+        <v>239</v>
+      </c>
+      <c r="C36" s="271">
+        <v>1.25</v>
+      </c>
+      <c r="D36" s="275">
+        <v>0.3</v>
+      </c>
+      <c r="E36" s="271">
+        <f>D36*HLOOKUP(A36,'Current base situation'!$19:$21,3,0)</f>
+        <v>45000</v>
+      </c>
+      <c r="F36" s="271">
+        <f t="shared" si="1"/>
+        <v>36000</v>
+      </c>
+      <c r="G36" s="271">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H36" s="271">
+        <f t="shared" si="2"/>
+        <v>36000</v>
+      </c>
+      <c r="L36"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="271" t="str">
+        <f>'Current base situation'!$AV$19</f>
+        <v xml:space="preserve">Torino  It. </v>
+      </c>
+      <c r="B37" s="271" t="s">
+        <v>240</v>
+      </c>
+      <c r="C37" s="271">
+        <v>1.5</v>
+      </c>
+      <c r="D37" s="275">
+        <v>0.3</v>
+      </c>
+      <c r="E37" s="271">
+        <f>D37*HLOOKUP(A37,'Current base situation'!$19:$21,3,0)</f>
+        <v>45000</v>
+      </c>
+      <c r="F37" s="271">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+      <c r="G37" s="271">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H37" s="271">
+        <f t="shared" si="2"/>
+        <v>30000</v>
+      </c>
+      <c r="L37"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="271" t="str">
+        <f>'Current base situation'!$AV$19</f>
+        <v xml:space="preserve">Torino  It. </v>
+      </c>
+      <c r="B38" s="271" t="s">
+        <v>241</v>
+      </c>
+      <c r="C38" s="271">
+        <v>0.5</v>
+      </c>
+      <c r="D38" s="275">
+        <v>0.1</v>
+      </c>
+      <c r="E38" s="271">
+        <f>D38*HLOOKUP(A38,'Current base situation'!$19:$21,3,0)</f>
+        <v>15000</v>
+      </c>
+      <c r="F38" s="271">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+      <c r="G38" s="271">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H38" s="271">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="L38"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="271" t="str">
+        <f>'Current base situation'!$AT$19</f>
+        <v xml:space="preserve">Paris </v>
+      </c>
+      <c r="B39" s="271" t="s">
+        <v>238</v>
+      </c>
+      <c r="C39" s="271">
+        <v>1.25</v>
+      </c>
+      <c r="D39" s="280">
+        <f>1-SUM(D40:D42)</f>
+        <v>0.7</v>
+      </c>
+      <c r="E39" s="271">
+        <f>D39*HLOOKUP(A39,'Current base situation'!$19:$21,3,0)</f>
+        <v>210000</v>
+      </c>
+      <c r="F39" s="271">
+        <f t="shared" si="1"/>
+        <v>168000</v>
+      </c>
+      <c r="G39" s="271">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H39" s="271">
+        <f t="shared" si="2"/>
+        <v>168000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="271" t="str">
+        <f>'Current base situation'!$AT$19</f>
+        <v xml:space="preserve">Paris </v>
+      </c>
+      <c r="B40" s="271" t="s">
+        <v>239</v>
+      </c>
+      <c r="C40" s="271">
+        <v>1.25</v>
+      </c>
+      <c r="D40" s="275">
+        <v>0.1</v>
+      </c>
+      <c r="E40" s="271">
+        <f>D40*HLOOKUP(A40,'Current base situation'!$19:$21,3,0)</f>
+        <v>30000</v>
+      </c>
+      <c r="F40" s="271">
+        <f t="shared" si="1"/>
+        <v>24000</v>
+      </c>
+      <c r="G40" s="271">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H40" s="271">
+        <f t="shared" si="2"/>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="271" t="str">
+        <f>'Current base situation'!$AT$19</f>
+        <v xml:space="preserve">Paris </v>
+      </c>
+      <c r="B41" s="271" t="s">
+        <v>240</v>
+      </c>
+      <c r="C41" s="271">
+        <v>1.5</v>
+      </c>
+      <c r="D41" s="275">
+        <v>0.05</v>
+      </c>
+      <c r="E41" s="271">
+        <f>D41*HLOOKUP(A41,'Current base situation'!$19:$21,3,0)</f>
+        <v>15000</v>
+      </c>
+      <c r="F41" s="271">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+      <c r="G41" s="271">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H41" s="271">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="271" t="str">
+        <f>'Current base situation'!$AT$19</f>
+        <v xml:space="preserve">Paris </v>
+      </c>
+      <c r="B42" s="271" t="s">
+        <v>241</v>
+      </c>
+      <c r="C42" s="271">
+        <v>0.5</v>
+      </c>
+      <c r="D42" s="275">
+        <v>0.15</v>
+      </c>
+      <c r="E42" s="271">
+        <f>D42*HLOOKUP(A42,'Current base situation'!$19:$21,3,0)</f>
+        <v>45000</v>
+      </c>
+      <c r="F42" s="271">
+        <f t="shared" si="1"/>
+        <v>90000</v>
+      </c>
+      <c r="G42" s="271">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H42" s="271">
+        <f t="shared" si="2"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="271" t="str">
+        <f>'Current base situation'!$AZ$19</f>
+        <v xml:space="preserve">Genua  </v>
+      </c>
+      <c r="B43" s="271" t="s">
+        <v>238</v>
+      </c>
+      <c r="C43" s="271">
+        <v>1.25</v>
+      </c>
+      <c r="D43" s="280">
+        <f>1-SUM(D44:D46)</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="E43" s="271">
+        <f>D43*HLOOKUP(A43,'Current base situation'!$19:$21,3,0)</f>
+        <v>59999.999999999985</v>
+      </c>
+      <c r="F43" s="271">
+        <f t="shared" si="1"/>
+        <v>47999.999999999985</v>
+      </c>
+      <c r="G43" s="271">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H43" s="271">
+        <f t="shared" si="2"/>
+        <v>47999.999999999985</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="271" t="str">
+        <f>'Current base situation'!$AZ$19</f>
+        <v xml:space="preserve">Genua  </v>
+      </c>
+      <c r="B44" s="271" t="s">
+        <v>239</v>
+      </c>
+      <c r="C44" s="271">
+        <v>1.25</v>
+      </c>
+      <c r="D44" s="275">
+        <v>0.35</v>
+      </c>
+      <c r="E44" s="271">
+        <f>D44*HLOOKUP(A44,'Current base situation'!$19:$21,3,0)</f>
+        <v>105000</v>
+      </c>
+      <c r="F44" s="271">
+        <f t="shared" si="1"/>
+        <v>84000</v>
+      </c>
+      <c r="G44" s="271">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H44" s="271">
+        <f t="shared" si="2"/>
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="271" t="str">
+        <f>'Current base situation'!$AZ$19</f>
+        <v xml:space="preserve">Genua  </v>
+      </c>
+      <c r="B45" s="271" t="s">
+        <v>240</v>
+      </c>
+      <c r="C45" s="271">
+        <v>1.5</v>
+      </c>
+      <c r="D45" s="275">
+        <v>0.15</v>
+      </c>
+      <c r="E45" s="271">
+        <f>D45*HLOOKUP(A45,'Current base situation'!$19:$21,3,0)</f>
+        <v>45000</v>
+      </c>
+      <c r="F45" s="271">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+      <c r="G45" s="271">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H45" s="271">
+        <f t="shared" si="2"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="271" t="str">
+        <f>'Current base situation'!$AZ$19</f>
+        <v xml:space="preserve">Genua  </v>
+      </c>
+      <c r="B46" s="271" t="s">
+        <v>241</v>
+      </c>
+      <c r="C46" s="271">
+        <v>0.5</v>
+      </c>
+      <c r="D46" s="275">
+        <v>0.3</v>
+      </c>
+      <c r="E46" s="271">
+        <f>D46*HLOOKUP(A46,'Current base situation'!$19:$21,3,0)</f>
+        <v>90000</v>
+      </c>
+      <c r="F46" s="271">
+        <f t="shared" si="1"/>
+        <v>180000</v>
+      </c>
+      <c r="G46" s="271">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H46" s="271">
+        <f t="shared" si="2"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="271" t="str">
+        <f>'Current base situation'!$BD$19</f>
+        <v>Munich</v>
+      </c>
+      <c r="B47" s="271" t="s">
+        <v>238</v>
+      </c>
+      <c r="C47" s="271">
+        <v>1.25</v>
+      </c>
+      <c r="D47" s="280">
+        <f>1-SUM(D48:D50)</f>
+        <v>0.8</v>
+      </c>
+      <c r="E47" s="271">
+        <f>D47*HLOOKUP(A47,'Current base situation'!$19:$21,3,0)</f>
+        <v>120000</v>
+      </c>
+      <c r="F47" s="271">
+        <f t="shared" si="1"/>
+        <v>96000</v>
+      </c>
+      <c r="G47" s="271">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H47" s="271">
+        <f t="shared" si="2"/>
+        <v>96000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="271" t="str">
+        <f>'Current base situation'!$BD$19</f>
+        <v>Munich</v>
+      </c>
+      <c r="B48" s="271" t="s">
+        <v>239</v>
+      </c>
+      <c r="C48" s="271">
+        <v>1.25</v>
+      </c>
+      <c r="D48" s="275">
+        <v>0.05</v>
+      </c>
+      <c r="E48" s="271">
+        <f>D48*HLOOKUP(A48,'Current base situation'!$19:$21,3,0)</f>
+        <v>7500</v>
+      </c>
+      <c r="F48" s="271">
+        <f t="shared" si="1"/>
+        <v>6000</v>
+      </c>
+      <c r="G48" s="271">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H48" s="271">
+        <f t="shared" si="2"/>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="271" t="str">
+        <f>'Current base situation'!$BD$19</f>
+        <v>Munich</v>
+      </c>
+      <c r="B49" s="271" t="s">
+        <v>240</v>
+      </c>
+      <c r="C49" s="271">
+        <v>1.5</v>
+      </c>
+      <c r="D49" s="275">
+        <v>0.05</v>
+      </c>
+      <c r="E49" s="271">
+        <f>D49*HLOOKUP(A49,'Current base situation'!$19:$21,3,0)</f>
+        <v>7500</v>
+      </c>
+      <c r="F49" s="271">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="G49" s="271">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H49" s="271">
+        <f t="shared" si="2"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="271" t="str">
+        <f>'Current base situation'!$BD$19</f>
+        <v>Munich</v>
+      </c>
+      <c r="B50" s="271" t="s">
+        <v>241</v>
+      </c>
+      <c r="C50" s="271">
+        <v>0.5</v>
+      </c>
+      <c r="D50" s="275">
+        <v>0.1</v>
+      </c>
+      <c r="E50" s="271">
+        <f>D50*HLOOKUP(A50,'Current base situation'!$19:$21,3,0)</f>
+        <v>15000</v>
+      </c>
+      <c r="F50" s="271">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+      <c r="G50" s="271">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H50" s="271">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A10:H50"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2">
+        <v>1500000</v>
+      </c>
+      <c r="C2">
+        <f>B2/D2</f>
+        <v>1800720.2881152462</v>
+      </c>
+      <c r="D2">
+        <v>0.83299999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="268">
+        <v>4300000</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C11" si="0">B3/D3</f>
+        <v>1657032.7552986511</v>
+      </c>
+      <c r="D3">
+        <v>2.5950000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4">
+        <v>200000</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>215285.25296017222</v>
+      </c>
+      <c r="D4">
+        <v>0.92900000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5">
+        <v>600000</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>624349.63579604577</v>
+      </c>
+      <c r="D5">
+        <v>0.96099999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B6">
+        <v>200000</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>231213.87283236993</v>
+      </c>
+      <c r="D6">
+        <v>0.86499999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7">
+        <v>100000</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>62500</v>
+      </c>
+      <c r="D7">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B8">
+        <v>1200000</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>2139037.4331550798</v>
+      </c>
+      <c r="D8">
+        <v>0.56100000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B9">
+        <v>2600000</v>
+      </c>
+      <c r="C9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B10">
+        <v>700000</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>582847.62697751867</v>
+      </c>
+      <c r="D10">
+        <v>1.2010000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B11">
+        <v>200000</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>356506.23885918001</v>
+      </c>
+      <c r="D11">
+        <v>0.56100000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>